--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
@@ -397,7 +397,7 @@
         <v>1571302.123427001</v>
       </c>
       <c r="E2">
-        <v>1590932.286096055</v>
+        <v>1590932.286096056</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C4">
         <v>108484.9604829801</v>
@@ -445,7 +445,7 @@
         <v>122045.5805433526</v>
       </c>
       <c r="D5">
-        <v>147851.3028663528</v>
+        <v>147851.3028663527</v>
       </c>
       <c r="E5">
         <v>132346.9636460285</v>
@@ -462,7 +462,7 @@
         <v>122045.5805433526</v>
       </c>
       <c r="D6">
-        <v>147851.3028663528</v>
+        <v>147851.3028663527</v>
       </c>
       <c r="E6">
         <v>122166.4279809494</v>
@@ -499,7 +499,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E8">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -516,7 +516,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E9">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -530,10 +530,10 @@
         <v>546902.4266408781</v>
       </c>
       <c r="D10">
-        <v>735096.0448817412</v>
+        <v>735096.0448817411</v>
       </c>
       <c r="E10">
-        <v>878787.3408515012</v>
+        <v>878787.3408515013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -550,7 +550,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E11">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C12">
         <v>108484.9604829801</v>
@@ -581,10 +581,10 @@
         <v>546902.4266408781</v>
       </c>
       <c r="D13">
-        <v>735096.0448817412</v>
+        <v>735096.0448817411</v>
       </c>
       <c r="E13">
-        <v>878787.3408515012</v>
+        <v>878787.3408515013</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C14">
         <v>108484.9604829801</v>
@@ -618,7 +618,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E15">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C16">
         <v>1274025.240780141</v>
@@ -635,7 +635,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E16">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C17">
         <v>108484.9604829801</v>
@@ -669,7 +669,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E18">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C19">
         <v>1274025.240780141</v>
@@ -686,7 +686,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E19">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C20">
         <v>1274025.240780141</v>
@@ -703,7 +703,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E20">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C21">
         <v>1274025.240780141</v>
@@ -720,7 +720,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E21">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51504.89459492845</v>
+        <v>51504.89459492847</v>
       </c>
       <c r="C22">
-        <v>58414.76154876493</v>
+        <v>58414.76154876492</v>
       </c>
       <c r="D22">
-        <v>74146.81708401344</v>
+        <v>74146.81708401343</v>
       </c>
       <c r="E22">
         <v>81121.3973131415</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C23">
         <v>1274025.240780141</v>
@@ -754,7 +754,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E23">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>463744.0856552624</v>
+        <v>463744.0856552625</v>
       </c>
       <c r="C24">
         <v>500328.3458683122</v>
@@ -771,7 +771,7 @@
         <v>563412.8303030919</v>
       </c>
       <c r="E24">
-        <v>539499.0367485761</v>
+        <v>539499.036748576</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>545968.214317543</v>
+        <v>545968.2143175431</v>
       </c>
       <c r="C25">
-        <v>532095.2249710622</v>
+        <v>532095.2249710623</v>
       </c>
       <c r="D25">
         <v>532958.0827191409</v>
       </c>
       <c r="E25">
-        <v>414562.4177120638</v>
+        <v>414562.4177120637</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>545968.214317543</v>
+        <v>545968.2143175431</v>
       </c>
       <c r="C26">
-        <v>532095.2249710622</v>
+        <v>532095.2249710623</v>
       </c>
       <c r="D26">
         <v>532958.0827191409</v>
       </c>
       <c r="E26">
-        <v>414562.4177120638</v>
+        <v>414562.4177120637</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -819,7 +819,7 @@
         <v>222143.2225548545</v>
       </c>
       <c r="D27">
-        <v>298426.0430052121</v>
+        <v>298426.0430052122</v>
       </c>
       <c r="E27">
         <v>331510.7065081056</v>
@@ -830,10 +830,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>218769.5111131992</v>
+        <v>218769.5111131991</v>
       </c>
       <c r="C28">
-        <v>238908.7487854096</v>
+        <v>238908.7487854095</v>
       </c>
       <c r="D28">
         <v>280871.5698872585</v>
@@ -847,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>218769.5111131992</v>
+        <v>218769.5111131991</v>
       </c>
       <c r="C29">
-        <v>238908.7487854096</v>
+        <v>238908.7487854095</v>
       </c>
       <c r="D29">
         <v>280871.5698872585</v>
@@ -867,10 +867,10 @@
         <v>2236555.236330668</v>
       </c>
       <c r="C30">
-        <v>2933736.254006588</v>
+        <v>2933736.254006589</v>
       </c>
       <c r="D30">
-        <v>4012401.52979081</v>
+        <v>4012401.529790811</v>
       </c>
       <c r="E30">
         <v>5491596.865235534</v>
@@ -881,13 +881,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1902357.327453672</v>
+        <v>1902357.327453671</v>
       </c>
       <c r="C31">
-        <v>2675825.374533481</v>
+        <v>2675825.374533482</v>
       </c>
       <c r="D31">
-        <v>4147651.019559039</v>
+        <v>4147651.019559041</v>
       </c>
       <c r="E31">
         <v>6487149.513319169</v>
@@ -898,13 +898,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1465329.292768369</v>
+        <v>1465329.292768368</v>
       </c>
       <c r="C32">
-        <v>2321197.91525796</v>
+        <v>2321197.915257961</v>
       </c>
       <c r="D32">
-        <v>4282900.509327269</v>
+        <v>4282900.50932727</v>
       </c>
       <c r="E32">
         <v>7868077.380015823</v>
@@ -915,13 +915,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2069456.28189217</v>
+        <v>2069456.281892169</v>
       </c>
       <c r="C33">
-        <v>2788661.384302965</v>
+        <v>2788661.384302967</v>
       </c>
       <c r="D33">
-        <v>4057484.693046886</v>
+        <v>4057484.693046887</v>
       </c>
       <c r="E33">
         <v>6005430.490052894</v>
@@ -952,13 +952,13 @@
         <v>6530339.402176538</v>
       </c>
       <c r="C35">
-        <v>8813940.795714822</v>
+        <v>8813940.795714824</v>
       </c>
       <c r="D35">
-        <v>13642228.20286057</v>
+        <v>13642228.20286058</v>
       </c>
       <c r="E35">
-        <v>22150388.96458702</v>
+        <v>22150388.96458701</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -972,10 +972,10 @@
         <v>2214381.304800579</v>
       </c>
       <c r="D36">
-        <v>3381073.849046669</v>
+        <v>3381073.849046668</v>
       </c>
       <c r="E36">
-        <v>5139341.426165478</v>
+        <v>5139341.426165481</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -992,7 +992,7 @@
         <v>2481646.494095068</v>
       </c>
       <c r="E37">
-        <v>3364656.932086262</v>
+        <v>3364656.932086261</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1009,7 +1009,7 @@
         <v>2663785.686322229</v>
       </c>
       <c r="E38">
-        <v>4769319.534801886</v>
+        <v>4769319.534801885</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2050568.548835899</v>
+        <v>2050568.548835898</v>
       </c>
       <c r="C39">
-        <v>2323368.36981928</v>
+        <v>2323368.369819281</v>
       </c>
       <c r="D39">
-        <v>2810741.846084108</v>
+        <v>2810741.846084109</v>
       </c>
       <c r="E39">
         <v>3441618.665771434</v>
@@ -1037,13 +1037,13 @@
         <v>8496173.531491539</v>
       </c>
       <c r="C40">
-        <v>9859662.58503692</v>
+        <v>9859662.585036922</v>
       </c>
       <c r="D40">
         <v>12878083.62477613</v>
       </c>
       <c r="E40">
-        <v>17548947.13096937</v>
+        <v>17548947.13096936</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>12181363.56828737</v>
       </c>
       <c r="E41">
-        <v>14597677.54113185</v>
+        <v>14597677.54113184</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>935711.8886323407</v>
+        <v>935711.8886323402</v>
       </c>
       <c r="C42">
         <v>1446186.994093635</v>
@@ -1077,7 +1077,7 @@
         <v>2474744.888275282</v>
       </c>
       <c r="E42">
-        <v>4340131.431649951</v>
+        <v>4340131.43164995</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1088,13 +1088,13 @@
         <v>1074335.872133428</v>
       </c>
       <c r="C43">
-        <v>1503461.726532987</v>
+        <v>1503461.726532986</v>
       </c>
       <c r="D43">
         <v>2413890.505776709</v>
       </c>
       <c r="E43">
-        <v>4042862.155509544</v>
+        <v>4042862.155509542</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1105,13 +1105,13 @@
         <v>2795061.039198797</v>
       </c>
       <c r="C44">
-        <v>3122683.579845592</v>
+        <v>3122683.579845593</v>
       </c>
       <c r="D44">
-        <v>4033445.571767747</v>
+        <v>4033445.571767746</v>
       </c>
       <c r="E44">
-        <v>5148427.867242165</v>
+        <v>5148427.867242166</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>533552.3169666351</v>
+        <v>533552.3169666352</v>
       </c>
       <c r="C45">
-        <v>738483.7671821117</v>
+        <v>738483.767182112</v>
       </c>
       <c r="D45">
         <v>1183236.589031848</v>
@@ -1145,7 +1145,7 @@
         <v>2641018.287293835</v>
       </c>
       <c r="E46">
-        <v>4279320.952459226</v>
+        <v>4279320.952459225</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>2411552.242899261</v>
       </c>
       <c r="D47">
-        <v>3095658.524127145</v>
+        <v>3095658.524127144</v>
       </c>
       <c r="E47">
-        <v>3862486.413453558</v>
+        <v>3862486.41345356</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>742788.5196986487</v>
+        <v>742788.5196986489</v>
       </c>
       <c r="C48">
-        <v>843981.4482081278</v>
+        <v>843981.448208128</v>
       </c>
       <c r="D48">
         <v>1086249.9833735</v>
@@ -1210,10 +1210,10 @@
         <v>3681109.708934406</v>
       </c>
       <c r="D50">
-        <v>5638995.859898906</v>
+        <v>5638995.859898904</v>
       </c>
       <c r="E50">
-        <v>7866523.486434988</v>
+        <v>7866523.486434986</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1224,13 +1224,13 @@
         <v>635844.5245886151</v>
       </c>
       <c r="C51">
-        <v>765367.0328620895</v>
+        <v>765367.0328620896</v>
       </c>
       <c r="D51">
-        <v>952847.8170297152</v>
+        <v>952847.8170297151</v>
       </c>
       <c r="E51">
-        <v>994035.6646465606</v>
+        <v>994035.6646465607</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>513117.7126852475</v>
       </c>
       <c r="C52">
-        <v>656561.4767794411</v>
+        <v>656561.476779441</v>
       </c>
       <c r="D52">
-        <v>868107.1473185604</v>
+        <v>868107.1473185605</v>
       </c>
       <c r="E52">
-        <v>945834.7572392004</v>
+        <v>945834.7572392009</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>630488.9794972409</v>
+        <v>630488.9794972411</v>
       </c>
       <c r="C53">
-        <v>882678.9279479454</v>
+        <v>882678.9279479453</v>
       </c>
       <c r="D53">
-        <v>1308036.507878497</v>
+        <v>1308036.507878498</v>
       </c>
       <c r="E53">
         <v>1656251.570438639</v>
@@ -1275,7 +1275,7 @@
         <v>498004.1031742999</v>
       </c>
       <c r="C54">
-        <v>665536.5503148604</v>
+        <v>665536.5503148605</v>
       </c>
       <c r="D54">
         <v>1011484.605770005</v>
@@ -1295,10 +1295,10 @@
         <v>4552951.482103081</v>
       </c>
       <c r="D55">
-        <v>5121493.075287931</v>
+        <v>5121493.075287929</v>
       </c>
       <c r="E55">
-        <v>5015428.995319662</v>
+        <v>5015428.995319661</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1309,13 +1309,13 @@
         <v>1719255.756246135</v>
       </c>
       <c r="C56">
-        <v>2806007.385440932</v>
+        <v>2806007.385440933</v>
       </c>
       <c r="D56">
         <v>4236627.395250982</v>
       </c>
       <c r="E56">
-        <v>5380770.27689607</v>
+        <v>5380770.276896071</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>1432703.881421503</v>
       </c>
       <c r="C57">
-        <v>1870256.001757931</v>
+        <v>1870256.00175793</v>
       </c>
       <c r="D57">
         <v>2716803.201258521</v>
       </c>
       <c r="E57">
-        <v>3446170.515545078</v>
+        <v>3446170.515545077</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>238848.7941688548</v>
+        <v>238848.7941688549</v>
       </c>
       <c r="C58">
         <v>290574.3552510781</v>
       </c>
       <c r="D58">
-        <v>361371.4074748405</v>
+        <v>361371.4074748404</v>
       </c>
       <c r="E58">
-        <v>385268.8089657501</v>
+        <v>385268.80896575</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>238848.7941688548</v>
+        <v>238848.7941688549</v>
       </c>
       <c r="C59">
         <v>290574.3552510781</v>
       </c>
       <c r="D59">
-        <v>361371.4074748405</v>
+        <v>361371.4074748404</v>
       </c>
       <c r="E59">
-        <v>385268.8089657501</v>
+        <v>385268.80896575</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1377,13 +1377,13 @@
         <v>597143.9418098646</v>
       </c>
       <c r="C60">
-        <v>686469.9821318808</v>
+        <v>686469.9821318807</v>
       </c>
       <c r="D60">
-        <v>801095.1857638052</v>
+        <v>801095.1857638051</v>
       </c>
       <c r="E60">
-        <v>805258.2323118753</v>
+        <v>805258.2323118757</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1394,13 +1394,13 @@
         <v>688013.6720852788</v>
       </c>
       <c r="C61">
-        <v>718965.6025878278</v>
+        <v>718965.6025878277</v>
       </c>
       <c r="D61">
-        <v>764681.7682290868</v>
+        <v>764681.7682290867</v>
       </c>
       <c r="E61">
-        <v>672014.064375378</v>
+        <v>672014.0643753782</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1414,7 +1414,7 @@
         <v>104586.0475139546</v>
       </c>
       <c r="D62">
-        <v>141349.378328929</v>
+        <v>141349.3783289289</v>
       </c>
       <c r="E62">
         <v>148525.6066705122</v>
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>96785.88252457413</v>
+        <v>96785.88252457415</v>
       </c>
       <c r="C63">
         <v>115405.2938085016</v>
@@ -1434,7 +1434,7 @@
         <v>131430.123709355</v>
       </c>
       <c r="E63">
-        <v>111394.2050028841</v>
+        <v>111394.2050028842</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>73141.18156621359</v>
+        <v>73141.18156621361</v>
       </c>
       <c r="C64">
         <v>92915.192601074</v>
@@ -1479,13 +1479,13 @@
         <v>648140.53373922</v>
       </c>
       <c r="C66">
-        <v>909799.4123530054</v>
+        <v>909799.4123530053</v>
       </c>
       <c r="D66">
-        <v>1377022.43802069</v>
+        <v>1377022.438020689</v>
       </c>
       <c r="E66">
-        <v>1989583.540618634</v>
+        <v>1989583.540618635</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1496,13 +1496,13 @@
         <v>415474.7011148846</v>
       </c>
       <c r="C67">
-        <v>712493.5156981368</v>
+        <v>712493.5156981366</v>
       </c>
       <c r="D67">
         <v>1475381.183593596</v>
       </c>
       <c r="E67">
-        <v>2832230.687233585</v>
+        <v>2832230.687233586</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1513,13 +1513,13 @@
         <v>523498.1234047547</v>
       </c>
       <c r="C68">
-        <v>789223.5866194746</v>
+        <v>789223.5866194745</v>
       </c>
       <c r="D68">
         <v>1426201.810807143</v>
       </c>
       <c r="E68">
-        <v>2481127.709477355</v>
+        <v>2481127.709477357</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1530,13 +1530,13 @@
         <v>598283.5696054338</v>
       </c>
       <c r="C69">
-        <v>844030.7801347158</v>
+        <v>844030.7801347157</v>
       </c>
       <c r="D69">
-        <v>1393415.562282841</v>
+        <v>1393415.56228284</v>
       </c>
       <c r="E69">
-        <v>2247059.057639869</v>
+        <v>2247059.05763987</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1547,13 +1547,13 @@
         <v>473641.1592709685</v>
       </c>
       <c r="C70">
-        <v>778262.1479164263</v>
+        <v>778262.1479164262</v>
       </c>
       <c r="D70">
         <v>1458988.059331445</v>
       </c>
       <c r="E70">
-        <v>2551348.305028601</v>
+        <v>2551348.305028602</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1564,13 +1564,13 @@
         <v>2578745.989558088</v>
       </c>
       <c r="C71">
-        <v>3068962.749164425</v>
+        <v>3068962.749164424</v>
       </c>
       <c r="D71">
-        <v>4282123.510528822</v>
+        <v>4282123.510528823</v>
       </c>
       <c r="E71">
-        <v>5754823.080927576</v>
+        <v>5754823.080927575</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1581,13 +1581,13 @@
         <v>731235.473962197</v>
       </c>
       <c r="C72">
-        <v>942683.7284621502</v>
+        <v>942683.72846215</v>
       </c>
       <c r="D72">
         <v>1344236.189496387</v>
       </c>
       <c r="E72">
-        <v>1802328.619148645</v>
+        <v>1802328.619148646</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1598,7 +1598,7 @@
         <v>764473.4500513878</v>
       </c>
       <c r="C73">
-        <v>931722.2897591019</v>
+        <v>931722.2897591017</v>
       </c>
       <c r="D73">
         <v>1327843.065234236</v>
@@ -1615,10 +1615,10 @@
         <v>797711.4261405785</v>
       </c>
       <c r="C74">
-        <v>997490.9219773915</v>
+        <v>997490.9219773912</v>
       </c>
       <c r="D74">
-        <v>1311449.940972086</v>
+        <v>1311449.940972085</v>
       </c>
       <c r="E74">
         <v>1568259.967311159</v>
@@ -1629,16 +1629,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>597112.7809176472</v>
+        <v>597112.7809176468</v>
       </c>
       <c r="C75">
-        <v>684266.8385184965</v>
+        <v>684266.8385184966</v>
       </c>
       <c r="D75">
         <v>859570.3673922073</v>
       </c>
       <c r="E75">
-        <v>892464.8335861195</v>
+        <v>892464.8335861192</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1649,13 +1649,13 @@
         <v>648140.53373922</v>
       </c>
       <c r="C76">
-        <v>909799.4123530054</v>
+        <v>909799.4123530053</v>
       </c>
       <c r="D76">
-        <v>1377022.43802069</v>
+        <v>1377022.438020689</v>
       </c>
       <c r="E76">
-        <v>1989583.540618634</v>
+        <v>1989583.540618635</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1669,10 +1669,10 @@
         <v>1920289.165808303</v>
       </c>
       <c r="D77">
-        <v>2787232.764717957</v>
+        <v>2787232.764717958</v>
       </c>
       <c r="E77">
-        <v>3880274.568528575</v>
+        <v>3880274.568528576</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1683,13 +1683,13 @@
         <v>997498.8539312716</v>
       </c>
       <c r="C78">
-        <v>1818146.125073819</v>
+        <v>1818146.125073818</v>
       </c>
       <c r="D78">
-        <v>3062893.148041711</v>
+        <v>3062893.148041712</v>
       </c>
       <c r="E78">
-        <v>4822940.141673936</v>
+        <v>4822940.141673937</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>1855811.821267482</v>
       </c>
       <c r="C79">
-        <v>2032646.510616236</v>
+        <v>2032646.510616235</v>
       </c>
       <c r="D79">
-        <v>2603459.175835454</v>
+        <v>2603459.175835455</v>
       </c>
       <c r="E79">
         <v>3091066.181709204</v>
@@ -1717,10 +1717,10 @@
         <v>1747556.131693545</v>
       </c>
       <c r="C80">
-        <v>1981574.990248994</v>
+        <v>1981574.990248993</v>
       </c>
       <c r="D80">
-        <v>2664717.038796289</v>
+        <v>2664717.03879629</v>
       </c>
       <c r="E80">
         <v>3332213.188792901</v>
@@ -1731,10 +1731,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>399544.2105143793</v>
+        <v>399544.2105143794</v>
       </c>
       <c r="C81">
-        <v>501184.7606140869</v>
+        <v>501184.7606140867</v>
       </c>
       <c r="D81">
         <v>751821.6597116392</v>
@@ -1748,10 +1748,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>446549.4117513651</v>
+        <v>446549.4117513652</v>
       </c>
       <c r="C82">
-        <v>561934.4285673095</v>
+        <v>561934.4285673094</v>
       </c>
       <c r="D82">
         <v>729709.2579554145</v>
@@ -1768,7 +1768,7 @@
         <v>368782.7684457726</v>
       </c>
       <c r="C83">
-        <v>568234.4100777917</v>
+        <v>568234.4100777915</v>
       </c>
       <c r="D83">
         <v>1005169.39109711</v>
@@ -1785,7 +1785,7 @@
         <v>633028.6891431372</v>
       </c>
       <c r="C84">
-        <v>692418.089101415</v>
+        <v>692418.0891014148</v>
       </c>
       <c r="D84">
         <v>877344.3818246454</v>
@@ -1799,13 +1799,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>387039.0082210737</v>
+        <v>387039.0082210735</v>
       </c>
       <c r="C85">
-        <v>405399.5843812993</v>
+        <v>405399.5843812992</v>
       </c>
       <c r="D85">
-        <v>530733.5947823795</v>
+        <v>530733.5947823796</v>
       </c>
       <c r="E85">
         <v>704804.4908879114</v>
@@ -1819,7 +1819,7 @@
         <v>395545.3600501082</v>
       </c>
       <c r="C86">
-        <v>420602.068795598</v>
+        <v>420602.0687955979</v>
       </c>
       <c r="D86">
         <v>523463.2715661825</v>
@@ -1833,13 +1833,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>43692.64142436625</v>
+        <v>43692.64142436627</v>
       </c>
       <c r="C87">
-        <v>56317.62049962999</v>
+        <v>56317.62049962997</v>
       </c>
       <c r="D87">
-        <v>93867.09873880043</v>
+        <v>93867.09873880039</v>
       </c>
       <c r="E87">
         <v>157517.8674409231</v>
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>40679.35580889272</v>
+        <v>40679.35580889273</v>
       </c>
       <c r="C88">
-        <v>54375.63358584965</v>
+        <v>54375.63358584963</v>
       </c>
       <c r="D88">
-        <v>97219.49512232901</v>
+        <v>97219.49512232898</v>
       </c>
       <c r="E88">
-        <v>168381.1686437454</v>
+        <v>168381.1686437453</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>46705.92703983979</v>
+        <v>46705.9270398398</v>
       </c>
       <c r="C89">
-        <v>58259.60741341034</v>
+        <v>58259.60741341032</v>
       </c>
       <c r="D89">
-        <v>93867.09873880043</v>
+        <v>93867.09873880039</v>
       </c>
       <c r="E89">
-        <v>141222.9156366897</v>
+        <v>141222.9156366896</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1890,7 +1890,7 @@
         <v>133754007.5907656</v>
       </c>
       <c r="D90">
-        <v>155037447.6952014</v>
+        <v>155037447.6952013</v>
       </c>
       <c r="E90">
         <v>189754823.3027409</v>
@@ -1904,10 +1904,10 @@
         <v>27380982.3027878</v>
       </c>
       <c r="C91">
-        <v>34298131.46160862</v>
+        <v>34298131.46160861</v>
       </c>
       <c r="D91">
-        <v>43026679.29521551</v>
+        <v>43026679.29521549</v>
       </c>
       <c r="E91">
         <v>56920198.8899562</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>24432882.43832835</v>
+        <v>24432882.43832834</v>
       </c>
       <c r="C92">
-        <v>32383007.36984367</v>
+        <v>32383007.36984366</v>
       </c>
       <c r="D92">
-        <v>44592204.01135597</v>
+        <v>44592204.01135596</v>
       </c>
       <c r="E92">
         <v>64792805.98121249</v>
@@ -1935,13 +1935,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>49309999.10280813</v>
+        <v>49309999.10280812</v>
       </c>
       <c r="C93">
-        <v>61675700.86433935</v>
+        <v>61675700.86433934</v>
       </c>
       <c r="D93">
-        <v>83578819.52298318</v>
+        <v>83578819.52298313</v>
       </c>
       <c r="E93">
         <v>120713308.7325965</v>
@@ -1952,13 +1952,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>29580052.06161089</v>
+        <v>29580052.06161088</v>
       </c>
       <c r="C94">
-        <v>46055127.25699767</v>
+        <v>46055127.25699768</v>
       </c>
       <c r="D94">
-        <v>87743156.87622218</v>
+        <v>87743156.87622215</v>
       </c>
       <c r="E94">
         <v>160307642.5378546</v>
@@ -1975,7 +1975,7 @@
         <v>17932525.58652633</v>
       </c>
       <c r="D95">
-        <v>22775859.5799791</v>
+        <v>22775859.57997909</v>
       </c>
       <c r="E95">
         <v>30678175.25243523</v>
@@ -1986,13 +1986,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4401957.331864116</v>
+        <v>4401957.331864115</v>
       </c>
       <c r="C96">
         <v>5788897.822834956</v>
       </c>
       <c r="D96">
-        <v>8130628.364471475</v>
+        <v>8130628.364471471</v>
       </c>
       <c r="E96">
         <v>11996353.66286673</v>
@@ -2003,13 +2003,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4603881.980114764</v>
+        <v>4603881.980114763</v>
       </c>
       <c r="C97">
-        <v>6093576.655615744</v>
+        <v>6093576.655615743</v>
       </c>
       <c r="D97">
-        <v>8231629.959061183</v>
+        <v>8231629.959061179</v>
       </c>
       <c r="E97">
         <v>11871391.6455452</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4855893.337447272</v>
+        <v>4855893.337447274</v>
       </c>
       <c r="C98">
-        <v>6895141.744903808</v>
+        <v>6895141.744903805</v>
       </c>
       <c r="D98">
-        <v>9943678.026770474</v>
+        <v>9943678.026770476</v>
       </c>
       <c r="E98">
-        <v>15238711.55900737</v>
+        <v>15238711.55900738</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2517870.619417104</v>
+        <v>2517870.619417105</v>
       </c>
       <c r="C99">
-        <v>2827782.850438078</v>
+        <v>2827782.850438077</v>
       </c>
       <c r="D99">
-        <v>3480287.309369666</v>
+        <v>3480287.309369667</v>
       </c>
       <c r="E99">
-        <v>4515173.795261444</v>
+        <v>4515173.795261445</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2057,10 +2057,10 @@
         <v>6304035.610034958</v>
       </c>
       <c r="C100">
-        <v>7003602.198583057</v>
+        <v>7003602.19858306</v>
       </c>
       <c r="D100">
-        <v>8469253.508151261</v>
+        <v>8469253.508151265</v>
       </c>
       <c r="E100">
         <v>11116054.22887137</v>
@@ -2074,10 +2074,10 @@
         <v>2995287.637917162</v>
       </c>
       <c r="C101">
-        <v>3745241.817424095</v>
+        <v>3745241.817424096</v>
       </c>
       <c r="D101">
-        <v>5046446.390867332</v>
+        <v>5046446.390867335</v>
       </c>
       <c r="E101">
         <v>7300095.314482692</v>
@@ -2091,10 +2091,10 @@
         <v>626920.6684012666</v>
       </c>
       <c r="C102">
-        <v>674143.5271363371</v>
+        <v>674143.5271363374</v>
       </c>
       <c r="D102">
-        <v>789878.5655270607</v>
+        <v>789878.565527061</v>
       </c>
       <c r="E102">
         <v>995467.5428840034</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3026248.216563874</v>
+        <v>3026248.216563876</v>
       </c>
       <c r="C103">
-        <v>3442724.715144125</v>
+        <v>3442724.715144126</v>
       </c>
       <c r="D103">
-        <v>4178412.048307497</v>
+        <v>4178412.048307496</v>
       </c>
       <c r="E103">
-        <v>5300907.61675871</v>
+        <v>5300907.616758711</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7113243.23068622</v>
+        <v>7113243.230686224</v>
       </c>
       <c r="C104">
-        <v>8505555.178591367</v>
+        <v>8505555.178591369</v>
       </c>
       <c r="D104">
         <v>10824076.92513942</v>
       </c>
       <c r="E104">
-        <v>14702517.35214208</v>
+        <v>14702517.35214209</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,7 +2139,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>794276.4453451768</v>
+        <v>794276.4453451767</v>
       </c>
       <c r="C105">
         <v>1176146.17535183</v>
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>779960.8805576996</v>
+        <v>779960.8805576999</v>
       </c>
       <c r="C106">
         <v>1046318.295779097</v>
@@ -2165,7 +2165,7 @@
         <v>1512187.217482713</v>
       </c>
       <c r="E106">
-        <v>2200376.746579087</v>
+        <v>2200376.746579088</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,13 +2173,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3369431.004009262</v>
+        <v>3369431.004009264</v>
       </c>
       <c r="C107">
-        <v>4556547.417102518</v>
+        <v>4556547.417102519</v>
       </c>
       <c r="D107">
-        <v>7083403.281892709</v>
+        <v>7083403.281892708</v>
       </c>
       <c r="E107">
         <v>11601986.48196246</v>
@@ -2190,10 +2190,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7479436.527000416</v>
+        <v>7479436.527000414</v>
       </c>
       <c r="C108">
-        <v>8731994.332157522</v>
+        <v>8731994.332157526</v>
       </c>
       <c r="D108">
         <v>11044260.00058196</v>
@@ -2227,10 +2227,10 @@
         <v>53172012.68685651</v>
       </c>
       <c r="C110">
-        <v>46960242.36729456</v>
+        <v>46960242.36729458</v>
       </c>
       <c r="D110">
-        <v>47806264.50419349</v>
+        <v>47806264.50419348</v>
       </c>
       <c r="E110">
         <v>48595457.51144266</v>
@@ -2247,7 +2247,7 @@
         <v>10507678.54074823</v>
       </c>
       <c r="D111">
-        <v>13774036.08106378</v>
+        <v>13774036.08106377</v>
       </c>
       <c r="E111">
         <v>19823097.51951918</v>
@@ -2267,7 +2267,7 @@
         <v>3853874.120233011</v>
       </c>
       <c r="E112">
-        <v>6153940.271488029</v>
+        <v>6153940.271488025</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,10 +2275,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>861959.033096355</v>
+        <v>861959.0330963548</v>
       </c>
       <c r="C113">
-        <v>877168.1018992242</v>
+        <v>877168.1018992243</v>
       </c>
       <c r="D113">
         <v>1046617.830769953</v>
@@ -2295,7 +2295,7 @@
         <v>1436598.388493925</v>
       </c>
       <c r="C114">
-        <v>1910973.364851881</v>
+        <v>1910973.364851882</v>
       </c>
       <c r="D114">
         <v>3102474.284068076</v>
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>4051576.729930923</v>
+        <v>4051576.729930922</v>
       </c>
       <c r="C115">
         <v>4730778.23258353</v>
       </c>
       <c r="D115">
-        <v>5981533.79077832</v>
+        <v>5981533.790778318</v>
       </c>
       <c r="E115">
-        <v>8121183.473029284</v>
+        <v>8121183.473029279</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3046534.440335656</v>
+        <v>3046534.440335655</v>
       </c>
       <c r="C116">
         <v>3641678.207816099</v>
       </c>
       <c r="D116">
-        <v>4817342.650291265</v>
+        <v>4817342.650291263</v>
       </c>
       <c r="E116">
-        <v>6860130.138707967</v>
+        <v>6860130.138707963</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>488443.4520879345</v>
+        <v>488443.4520879344</v>
       </c>
       <c r="C117">
         <v>626548.6442137316</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>402247.548778299</v>
+        <v>402247.5487782989</v>
       </c>
       <c r="C118">
         <v>344601.7543175524</v>
@@ -2383,7 +2383,7 @@
         <v>165655.7394560847</v>
       </c>
       <c r="D119">
-        <v>199710.4599073985</v>
+        <v>199710.4599073984</v>
       </c>
       <c r="E119">
         <v>253705.7784775645</v>
@@ -2394,7 +2394,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>12951205.27427705</v>
+        <v>12951205.27427706</v>
       </c>
       <c r="C120">
         <v>17956267.51353798</v>
@@ -2411,7 +2411,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>15312474.74417287</v>
+        <v>15312474.74417288</v>
       </c>
       <c r="C121">
         <v>14950712.00698012</v>
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>9229478.104826355</v>
+        <v>9229478.104826359</v>
       </c>
       <c r="C122">
         <v>9917039.860892545</v>
@@ -2445,7 +2445,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3786452.555826197</v>
+        <v>3786452.555826198</v>
       </c>
       <c r="C123">
         <v>4493157.218527367</v>
@@ -2454,7 +2454,7 @@
         <v>5695329.341172216</v>
       </c>
       <c r="E123">
-        <v>7699336.425061796</v>
+        <v>7699336.425061792</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,7 +2462,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2129879.562652236</v>
+        <v>2129879.562652237</v>
       </c>
       <c r="C124">
         <v>2278672.589396022</v>
@@ -2471,7 +2471,7 @@
         <v>2505944.910115775</v>
       </c>
       <c r="E124">
-        <v>2917139.887756333</v>
+        <v>2917139.887756331</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>4174033.960392687</v>
+        <v>4174033.960392686</v>
       </c>
       <c r="C125">
-        <v>4497309.59785129</v>
+        <v>4497309.597851289</v>
       </c>
       <c r="D125">
-        <v>5702475.327664712</v>
+        <v>5702475.327664713</v>
       </c>
       <c r="E125">
-        <v>7694484.726486399</v>
+        <v>7694484.726486396</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3902992.794133422</v>
+        <v>3902992.79413342</v>
       </c>
       <c r="C126">
-        <v>3994321.024407396</v>
+        <v>3994321.024407394</v>
       </c>
       <c r="D126">
-        <v>4179453.966859851</v>
+        <v>4179453.966859852</v>
       </c>
       <c r="E126">
-        <v>4409704.697050684</v>
+        <v>4409704.697050683</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2516,10 +2516,10 @@
         <v>5552217.812034057</v>
       </c>
       <c r="C127">
-        <v>6676367.54731268</v>
+        <v>6676367.547312682</v>
       </c>
       <c r="D127">
-        <v>8724731.420630766</v>
+        <v>8724731.42063076</v>
       </c>
       <c r="E127">
         <v>12114753.72514286</v>
@@ -2547,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7497756.118451817</v>
+        <v>7497756.11845182</v>
       </c>
       <c r="C129">
-        <v>8457939.889609186</v>
+        <v>8457939.889609184</v>
       </c>
       <c r="D129">
         <v>10237525.70132848</v>
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2391452.68737371</v>
+        <v>2391452.687373709</v>
       </c>
       <c r="C130">
-        <v>3399085.169145654</v>
+        <v>3399085.169145657</v>
       </c>
       <c r="D130">
-        <v>4963392.009295911</v>
+        <v>4963392.00929591</v>
       </c>
       <c r="E130">
-        <v>7670441.853234739</v>
+        <v>7670441.853234741</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2581,16 +2581,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7681635.90489737</v>
+        <v>7681635.904897369</v>
       </c>
       <c r="C131">
-        <v>7970268.672479466</v>
+        <v>7970268.672479472</v>
       </c>
       <c r="D131">
         <v>8560712.823372763</v>
       </c>
       <c r="E131">
-        <v>9731157.574999295</v>
+        <v>9731157.574999297</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>16631466.41673535</v>
+        <v>16631466.41673534</v>
       </c>
       <c r="C132">
-        <v>20277301.18145511</v>
+        <v>20277301.18145513</v>
       </c>
       <c r="D132">
         <v>24771424.33997225</v>
       </c>
       <c r="E132">
-        <v>32456272.61779177</v>
+        <v>32456272.61779178</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,10 +2615,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7899040.694658617</v>
+        <v>7899040.694658616</v>
       </c>
       <c r="C133">
-        <v>8751667.561938237</v>
+        <v>8751667.561938243</v>
       </c>
       <c r="D133">
         <v>10154462.55112833</v>
@@ -2632,13 +2632,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>5466300.577571606</v>
+        <v>5466300.577571605</v>
       </c>
       <c r="C134">
-        <v>9547501.266975772</v>
+        <v>9547501.266975775</v>
       </c>
       <c r="D134">
-        <v>20891227.82767195</v>
+        <v>20891227.82767194</v>
       </c>
       <c r="E134">
         <v>40868590.19600916</v>
@@ -2649,7 +2649,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>8381762.942044334</v>
+        <v>8381762.942044328</v>
       </c>
       <c r="C135">
         <v>8713690.94624752</v>
@@ -2666,16 +2666,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>9791121.073523356</v>
+        <v>9791121.073523358</v>
       </c>
       <c r="C136">
-        <v>13295019.90992318</v>
+        <v>13295019.90992317</v>
       </c>
       <c r="D136">
         <v>18988862.73912026</v>
       </c>
       <c r="E136">
-        <v>28939281.55643656</v>
+        <v>28939281.55643655</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2683,16 +2683,16 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2590777.741104118</v>
+        <v>2590777.741104119</v>
       </c>
       <c r="C137">
-        <v>3014990.853889682</v>
+        <v>3014990.85388968</v>
       </c>
       <c r="D137">
         <v>3687569.32657023</v>
       </c>
       <c r="E137">
-        <v>4930396.117022526</v>
+        <v>4930396.117022524</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2700,16 +2700,16 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6493767.584845387</v>
+        <v>6493767.584845388</v>
       </c>
       <c r="C138">
-        <v>7192387.820122373</v>
+        <v>7192387.82012237</v>
       </c>
       <c r="D138">
         <v>8519556.720007082</v>
       </c>
       <c r="E138">
-        <v>10932617.47687604</v>
+        <v>10932617.47687603</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>34324307.00495625</v>
+        <v>34324307.00495623</v>
       </c>
       <c r="C139">
-        <v>48832284.72675062</v>
+        <v>48832284.72675065</v>
       </c>
       <c r="D139">
-        <v>62686583.00790109</v>
+        <v>62686583.00790108</v>
       </c>
       <c r="E139">
-        <v>84996611.7935829</v>
+        <v>84996611.79358286</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2737,13 +2737,13 @@
         <v>8250457.261025506</v>
       </c>
       <c r="C140">
-        <v>12512170.47111053</v>
+        <v>12512170.47111052</v>
       </c>
       <c r="D140">
         <v>16499398.32895094</v>
       </c>
       <c r="E140">
-        <v>23088361.91223436</v>
+        <v>23088361.91223435</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,13 +2754,13 @@
         <v>12147125.83592991</v>
       </c>
       <c r="C141">
-        <v>16590215.1031697</v>
+        <v>16590215.10316971</v>
       </c>
       <c r="D141">
         <v>21432799.74974797</v>
       </c>
       <c r="E141">
-        <v>29495296.33119201</v>
+        <v>29495296.331192</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1943540.133748786</v>
+        <v>1943540.133748785</v>
       </c>
       <c r="C142">
-        <v>2627409.631723708</v>
+        <v>2627409.631723709</v>
       </c>
       <c r="D142">
         <v>4051321.903915775</v>
       </c>
       <c r="E142">
-        <v>6542394.749987138</v>
+        <v>6542394.749987135</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,7 +2785,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>8591849.285951223</v>
+        <v>8591849.285951227</v>
       </c>
       <c r="C143">
         <v>13020314.10392119</v>
@@ -2802,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3217921.080880608</v>
+        <v>3217921.080880609</v>
       </c>
       <c r="C144">
-        <v>4211422.351672623</v>
+        <v>4211422.351672622</v>
       </c>
       <c r="D144">
         <v>6470116.243239598</v>
@@ -2819,16 +2819,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>3958042.929483148</v>
+        <v>3958042.929483149</v>
       </c>
       <c r="C145">
-        <v>6352228.713772873</v>
+        <v>6352228.713772872</v>
       </c>
       <c r="D145">
         <v>12325980.94439949</v>
       </c>
       <c r="E145">
-        <v>22820530.30443974</v>
+        <v>22820530.30443975</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2836,10 +2836,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>6242766.89690838</v>
+        <v>6242766.896908382</v>
       </c>
       <c r="C146">
-        <v>9405509.918735527</v>
+        <v>9405509.918735525</v>
       </c>
       <c r="D146">
         <v>12366931.0472048</v>
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>5595287.305139012</v>
+        <v>5595287.305139008</v>
       </c>
       <c r="C147">
-        <v>7253291.715979656</v>
+        <v>7253291.715979652</v>
       </c>
       <c r="D147">
         <v>11061941.13965229</v>
       </c>
       <c r="E147">
-        <v>17886907.12443929</v>
+        <v>17886907.1244393</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4903086.813781608</v>
+        <v>4903086.813781605</v>
       </c>
       <c r="C148">
-        <v>5948971.714421911</v>
+        <v>5948971.714421907</v>
       </c>
       <c r="D148">
-        <v>7462123.00607053</v>
+        <v>7462123.006070529</v>
       </c>
       <c r="E148">
         <v>10026082.15133045</v>
@@ -2887,7 +2887,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>3595221.263333916</v>
+        <v>3595221.263333917</v>
       </c>
       <c r="C149">
         <v>3870793.667732267</v>
@@ -2896,7 +2896,7 @@
         <v>4529988.163790016</v>
       </c>
       <c r="E149">
-        <v>5759414.709373358</v>
+        <v>5759414.70937336</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>2759174.608853919</v>
       </c>
       <c r="E150">
-        <v>3651057.538977753</v>
+        <v>3651057.538977756</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2930,7 +2930,7 @@
         <v>15813776.86268515</v>
       </c>
       <c r="E151">
-        <v>15838390.45077673</v>
+        <v>15838390.45077674</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>3852022.782143481</v>
+        <v>3852022.782143482</v>
       </c>
       <c r="C152">
         <v>4750519.501307782</v>
@@ -2947,7 +2947,7 @@
         <v>5888984.612927021</v>
       </c>
       <c r="E152">
-        <v>7764925.188530152</v>
+        <v>7764925.188530156</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2958,7 +2958,7 @@
         <v>20146128.74193143</v>
       </c>
       <c r="C153">
-        <v>20586280.68993476</v>
+        <v>20586280.68993477</v>
       </c>
       <c r="D153">
         <v>22759600.88844891</v>
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4039261.179889117</v>
+        <v>4039261.179889116</v>
       </c>
       <c r="C154">
-        <v>4859891.197358605</v>
+        <v>4859891.197358607</v>
       </c>
       <c r="D154">
-        <v>6024600.235177654</v>
+        <v>6024600.235177652</v>
       </c>
       <c r="E154">
         <v>8146925.289724587</v>
@@ -2989,13 +2989,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>9355165.943111971</v>
+        <v>9355165.943111973</v>
       </c>
       <c r="C155">
         <v>10307076.5937325</v>
       </c>
       <c r="D155">
-        <v>12431520.52829511</v>
+        <v>12431520.5282951</v>
       </c>
       <c r="E155">
         <v>15884035.57749408</v>
@@ -3006,16 +3006,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>3111136.581081423</v>
+        <v>3111136.581081424</v>
       </c>
       <c r="C156">
         <v>3806450.348764521</v>
       </c>
       <c r="D156">
-        <v>4827774.962444702</v>
+        <v>4827774.9624447</v>
       </c>
       <c r="E156">
-        <v>6494457.89621679</v>
+        <v>6494457.896216793</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,16 +3023,16 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>3154648.980816827</v>
+        <v>3154648.980816828</v>
       </c>
       <c r="C157">
         <v>3658147.088423046</v>
       </c>
       <c r="D157">
-        <v>4586386.214322466</v>
+        <v>4586386.214322465</v>
       </c>
       <c r="E157">
-        <v>6181471.973507548</v>
+        <v>6181471.97350755</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3046,10 +3046,10 @@
         <v>13614306.7224385</v>
       </c>
       <c r="D158">
-        <v>16190946.96747392</v>
+        <v>16190946.96747393</v>
       </c>
       <c r="E158">
-        <v>20359210.22283821</v>
+        <v>20359210.2228382</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3063,10 +3063,10 @@
         <v>13059287.02392182</v>
       </c>
       <c r="D159">
-        <v>17767737.52725166</v>
+        <v>17767737.52725167</v>
       </c>
       <c r="E159">
-        <v>26210669.69306012</v>
+        <v>26210669.69306011</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3080,7 +3080,7 @@
         <v>1961501.588652312</v>
       </c>
       <c r="D160">
-        <v>2636223.728048707</v>
+        <v>2636223.728048708</v>
       </c>
       <c r="E160">
         <v>3777373.839518046</v>
@@ -3094,7 +3094,7 @@
         <v>7292548.167740146</v>
       </c>
       <c r="C161">
-        <v>9080370.067724677</v>
+        <v>9080370.067724679</v>
       </c>
       <c r="D161">
         <v>11979254.08217865</v>
@@ -3111,7 +3111,7 @@
         <v>4290182.879813578</v>
       </c>
       <c r="C162">
-        <v>6771210.963566884</v>
+        <v>6771210.963566885</v>
       </c>
       <c r="D162">
         <v>10577440.88414605</v>
@@ -3131,7 +3131,7 @@
         <v>7289991.817835172</v>
       </c>
       <c r="D163">
-        <v>9041127.437972134</v>
+        <v>9041127.437972136</v>
       </c>
       <c r="E163">
         <v>12363051.27496967</v>
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>5971648.97100299</v>
+        <v>5971648.971002992</v>
       </c>
       <c r="C165">
-        <v>6721954.966781172</v>
+        <v>6721954.966781169</v>
       </c>
       <c r="D165">
-        <v>8021433.753915559</v>
+        <v>8021433.75391556</v>
       </c>
       <c r="E165">
-        <v>9945296.41250053</v>
+        <v>9945296.412500529</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,13 +3176,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2252464.085553759</v>
+        <v>2252464.085553761</v>
       </c>
       <c r="C166">
-        <v>3068718.571791404</v>
+        <v>3068718.571791403</v>
       </c>
       <c r="D166">
-        <v>4749533.143765791</v>
+        <v>4749533.143765792</v>
       </c>
       <c r="E166">
         <v>7636566.88817005</v>
@@ -3210,13 +3210,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>577388.4019371516</v>
+        <v>577388.4019371513</v>
       </c>
       <c r="C168">
-        <v>529525.1687482158</v>
+        <v>529525.1687482157</v>
       </c>
       <c r="D168">
-        <v>535889.7937848371</v>
+        <v>535889.793784837</v>
       </c>
       <c r="E168">
         <v>517075.0458536951</v>
@@ -3227,13 +3227,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>5168803.146767443</v>
+        <v>5168803.146767441</v>
       </c>
       <c r="C169">
         <v>6590150.896415024</v>
       </c>
       <c r="D169">
-        <v>8803124.614693234</v>
+        <v>8803124.614693232</v>
       </c>
       <c r="E169">
         <v>12708085.4019646</v>
@@ -3247,13 +3247,13 @@
         <v>11754829.3807986</v>
       </c>
       <c r="C170">
-        <v>15597865.97982255</v>
+        <v>15597865.97982256</v>
       </c>
       <c r="D170">
         <v>21424018.61260987</v>
       </c>
       <c r="E170">
-        <v>31574083.70984054</v>
+        <v>31574083.70984057</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,16 +3261,16 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>4465564.623397723</v>
+        <v>4465564.623397722</v>
       </c>
       <c r="C171">
         <v>5264545.831044186</v>
       </c>
       <c r="D171">
-        <v>7558238.305544696</v>
+        <v>7558238.305544694</v>
       </c>
       <c r="E171">
-        <v>11695937.00711786</v>
+        <v>11695937.00711787</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>4258996.152463261</v>
+        <v>4258996.152463262</v>
       </c>
       <c r="C172">
-        <v>4624308.502253273</v>
+        <v>4624308.502253275</v>
       </c>
       <c r="D172">
-        <v>5226423.895414908</v>
+        <v>5226423.895414907</v>
       </c>
       <c r="E172">
-        <v>6281754.874209113</v>
+        <v>6281754.874209119</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>10596382.42732859</v>
+        <v>10596382.4273286</v>
       </c>
       <c r="C173">
-        <v>12771899.67288999</v>
+        <v>12771899.67289</v>
       </c>
       <c r="D173">
         <v>17838950.98187072</v>
       </c>
       <c r="E173">
-        <v>27165834.67530783</v>
+        <v>27165834.67530786</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,13 +3315,13 @@
         <v>22465856.0002226</v>
       </c>
       <c r="C174">
-        <v>28233503.44857617</v>
+        <v>28233503.44857618</v>
       </c>
       <c r="D174">
         <v>39570960.46698482</v>
       </c>
       <c r="E174">
-        <v>59727876.2417724</v>
+        <v>59727876.24177243</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3335,10 +3335,10 @@
         <v>89313540.17856301</v>
       </c>
       <c r="D175">
-        <v>98949381.65092009</v>
+        <v>98949381.65092012</v>
       </c>
       <c r="E175">
-        <v>117154662.8537436</v>
+        <v>117154662.8537435</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3352,10 +3352,10 @@
         <v>11066261.00896669</v>
       </c>
       <c r="D176">
-        <v>14146853.61172805</v>
+        <v>14146853.61172806</v>
       </c>
       <c r="E176">
-        <v>19739407.0891428</v>
+        <v>19739407.08914278</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>6583299.414994922</v>
       </c>
       <c r="C177">
-        <v>9597288.308661375</v>
+        <v>9597288.308661377</v>
       </c>
       <c r="D177">
         <v>15011383.55466699</v>
       </c>
       <c r="E177">
-        <v>24712712.25186189</v>
+        <v>24712712.25186188</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3383,7 +3383,7 @@
         <v>2871009.535359024</v>
       </c>
       <c r="C178">
-        <v>3915049.708475253</v>
+        <v>3915049.708475256</v>
       </c>
       <c r="D178">
         <v>5652038.578646156</v>
@@ -3406,7 +3406,7 @@
         <v>17854303.19121621</v>
       </c>
       <c r="E179">
-        <v>26027768.69490377</v>
+        <v>26027768.69490376</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>437610.6098926208</v>
+        <v>437610.6098926209</v>
       </c>
       <c r="C180">
         <v>472589.8376740022</v>
@@ -3423,7 +3423,7 @@
         <v>1108471.151561095</v>
       </c>
       <c r="E180">
-        <v>1423393.60050255</v>
+        <v>1423393.600502549</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>62515.80141323154</v>
+        <v>62515.80141323155</v>
       </c>
       <c r="C181">
         <v>67512.83395342888</v>
@@ -3440,7 +3440,7 @@
         <v>39588.25541289626</v>
       </c>
       <c r="E181">
-        <v>50835.48573223393</v>
+        <v>50835.4857322339</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>37723043.95923197</v>
+        <v>37723043.95923198</v>
       </c>
       <c r="C182">
         <v>36716444.97177666</v>
       </c>
       <c r="D182">
-        <v>40566129.1184731</v>
+        <v>40566129.11847309</v>
       </c>
       <c r="E182">
-        <v>48500189.91605589</v>
+        <v>48500189.91605593</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3474,7 +3474,7 @@
         <v>1375618.986482262</v>
       </c>
       <c r="E183">
-        <v>1289368.513152391</v>
+        <v>1289368.513152392</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>509664.6520078909</v>
+        <v>509664.6520078907</v>
       </c>
       <c r="C184">
-        <v>512033.940277729</v>
+        <v>512033.9402777292</v>
       </c>
       <c r="D184">
-        <v>490003.301839876</v>
+        <v>490003.3018398762</v>
       </c>
       <c r="E184">
-        <v>418949.0093938131</v>
+        <v>418949.009393813</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,10 +3499,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>6574674.010901792</v>
+        <v>6574674.010901791</v>
       </c>
       <c r="C185">
-        <v>7936526.0743048</v>
+        <v>7936526.074304802</v>
       </c>
       <c r="D185">
         <v>10430070.28202022</v>
@@ -3516,16 +3516,16 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>3219649.276373551</v>
+        <v>3219649.276373553</v>
       </c>
       <c r="C186">
-        <v>4041547.466647972</v>
+        <v>4041547.466647973</v>
       </c>
       <c r="D186">
-        <v>5407198.381598597</v>
+        <v>5407198.381598599</v>
       </c>
       <c r="E186">
-        <v>8204150.684918566</v>
+        <v>8204150.684918568</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3556,7 +3556,7 @@
         <v>2923196.224535493</v>
       </c>
       <c r="D188">
-        <v>3208937.885649974</v>
+        <v>3208937.885649973</v>
       </c>
       <c r="E188">
         <v>3753256.46399352</v>
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>41197256.32333587</v>
+        <v>41197256.32333586</v>
       </c>
       <c r="C189">
         <v>45012468.69325385</v>
       </c>
       <c r="D189">
-        <v>56127240.83627774</v>
+        <v>56127240.8362777</v>
       </c>
       <c r="E189">
-        <v>77176336.04086675</v>
+        <v>77176336.04086676</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3590,10 +3590,10 @@
         <v>16636076.07459224</v>
       </c>
       <c r="D190">
-        <v>21062301.39490256</v>
+        <v>21062301.39490255</v>
       </c>
       <c r="E190">
-        <v>29947858.86894829</v>
+        <v>29947858.8689483</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,13 +3601,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>658733.6851045064</v>
+        <v>658733.6851045063</v>
       </c>
       <c r="C191">
-        <v>853993.551665044</v>
+        <v>853993.5516650443</v>
       </c>
       <c r="D191">
-        <v>1198051.044015373</v>
+        <v>1198051.044015374</v>
       </c>
       <c r="E191">
         <v>1783955.360060861</v>
@@ -3618,16 +3618,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>3451464.024272447</v>
+        <v>3451464.024272448</v>
       </c>
       <c r="C192">
-        <v>3901215.957389362</v>
+        <v>3901215.957389363</v>
       </c>
       <c r="D192">
-        <v>4798888.563668756</v>
+        <v>4798888.563668757</v>
       </c>
       <c r="E192">
-        <v>6331464.11553498</v>
+        <v>6331464.115534982</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3655,7 +3655,7 @@
         <v>5955746.349812033</v>
       </c>
       <c r="C194">
-        <v>7265769.125802744</v>
+        <v>7265769.125802747</v>
       </c>
       <c r="D194">
         <v>10180657.06679323</v>
@@ -3669,16 +3669,16 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>15893190.62815568</v>
+        <v>15893190.62815567</v>
       </c>
       <c r="C195">
         <v>23595770.16360092</v>
       </c>
       <c r="D195">
-        <v>32945026.96710953</v>
+        <v>32945026.96710952</v>
       </c>
       <c r="E195">
-        <v>48808044.81816491</v>
+        <v>48808044.81816494</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>3412754.184988719</v>
       </c>
       <c r="C196">
-        <v>4266899.342139663</v>
+        <v>4266899.342139662</v>
       </c>
       <c r="D196">
-        <v>6247444.086027551</v>
+        <v>6247444.086027548</v>
       </c>
       <c r="E196">
-        <v>9929051.066607645</v>
+        <v>9929051.066607649</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3703,7 +3703,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7091452.57716658</v>
+        <v>7091452.577166581</v>
       </c>
       <c r="C197">
         <v>8129099.555593519</v>
@@ -3729,7 +3729,7 @@
         <v>3421801.477389257</v>
       </c>
       <c r="E198">
-        <v>4550043.014399118</v>
+        <v>4550043.014399119</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3746,7 +3746,7 @@
         <v>7236913.469420956</v>
       </c>
       <c r="E199">
-        <v>9100086.028798236</v>
+        <v>9100086.028798237</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3771,10 +3771,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5295176.30230118</v>
+        <v>5295176.302301178</v>
       </c>
       <c r="C201">
-        <v>6878673.08614858</v>
+        <v>6878673.086148582</v>
       </c>
       <c r="D201">
         <v>8659703.864092674</v>
@@ -3788,16 +3788,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>33844223.07110175</v>
+        <v>33844223.07110177</v>
       </c>
       <c r="C202">
-        <v>51705434.36180782</v>
+        <v>51705434.36180784</v>
       </c>
       <c r="D202">
         <v>88292012.55206102</v>
       </c>
       <c r="E202">
-        <v>152462548.1547745</v>
+        <v>152462548.1547744</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3811,10 +3811,10 @@
         <v>14679407.4382566</v>
       </c>
       <c r="D203">
-        <v>19432234.05899367</v>
+        <v>19432234.05899366</v>
       </c>
       <c r="E203">
-        <v>28190521.87252924</v>
+        <v>28190521.87252925</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>4533698.300457469</v>
+        <v>4533698.300457468</v>
       </c>
       <c r="C204">
-        <v>5196810.230998518</v>
+        <v>5196810.230998516</v>
       </c>
       <c r="D204">
-        <v>6386092.210468139</v>
+        <v>6386092.210468138</v>
       </c>
       <c r="E204">
-        <v>8358542.497260153</v>
+        <v>8358542.497260155</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,13 +3839,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>552890.0366411548</v>
+        <v>552890.0366411547</v>
       </c>
       <c r="C205">
-        <v>698986.1714208534</v>
+        <v>698986.171420853</v>
       </c>
       <c r="D205">
-        <v>933639.2120567454</v>
+        <v>933639.2120567452</v>
       </c>
       <c r="E205">
         <v>1368650.233469499</v>
@@ -3882,7 +3882,7 @@
         <v>2513546.444825314</v>
       </c>
       <c r="E207">
-        <v>2565439.818606726</v>
+        <v>2565439.818606725</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3916,7 +3916,7 @@
         <v>21480966.03080108</v>
       </c>
       <c r="E209">
-        <v>25425360.9505303</v>
+        <v>25425360.95053029</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3933,7 +3933,7 @@
         <v>2681116.207813669</v>
       </c>
       <c r="E210">
-        <v>3340416.430477508</v>
+        <v>3340416.430477507</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3947,10 +3947,10 @@
         <v>25590402.99007053</v>
       </c>
       <c r="D211">
-        <v>26794194.84159049</v>
+        <v>26794194.84159048</v>
       </c>
       <c r="E211">
-        <v>26903009.00029294</v>
+        <v>26903009.00029295</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,16 +3958,16 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>9559789.091379225</v>
+        <v>9559789.091379223</v>
       </c>
       <c r="C212">
-        <v>10411245.38492686</v>
+        <v>10411245.38492687</v>
       </c>
       <c r="D212">
         <v>11950658.20079396</v>
       </c>
       <c r="E212">
-        <v>13605442.41599775</v>
+        <v>13605442.41599776</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3978,13 +3978,13 @@
         <v>1651484.311343977</v>
       </c>
       <c r="C213">
-        <v>2060186.618276069</v>
+        <v>2060186.618276068</v>
       </c>
       <c r="D213">
         <v>2585362.057534609</v>
       </c>
       <c r="E213">
-        <v>3206799.773258408</v>
+        <v>3206799.773258407</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4009,7 +4009,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>901783.543429813</v>
+        <v>901783.5434298131</v>
       </c>
       <c r="C215">
         <v>1160770.465847488</v>
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>3397012.85478529</v>
+        <v>3397012.854785291</v>
       </c>
       <c r="C216">
-        <v>4196446.593684077</v>
+        <v>4196446.593684075</v>
       </c>
       <c r="D216">
-        <v>4469831.631757179</v>
+        <v>4469831.63175718</v>
       </c>
       <c r="E216">
-        <v>4432488.518842097</v>
+        <v>4432488.518842096</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4046,13 +4046,13 @@
         <v>1486710.109578029</v>
       </c>
       <c r="C217">
-        <v>2323866.726579705</v>
+        <v>2323866.726579706</v>
       </c>
       <c r="D217">
         <v>3906511.889737234</v>
       </c>
       <c r="E217">
-        <v>5927544.638374968</v>
+        <v>5927544.63837497</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,13 +4063,13 @@
         <v>2939631.353029284</v>
       </c>
       <c r="C218">
-        <v>3308556.017503309</v>
+        <v>3308556.01750331</v>
       </c>
       <c r="D218">
         <v>3533418.057571319</v>
       </c>
       <c r="E218">
-        <v>3551822.382518334</v>
+        <v>3551822.382518335</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2765659.743853195</v>
+        <v>2765659.743853196</v>
       </c>
       <c r="C219">
         <v>3307329.933801073</v>
       </c>
       <c r="D219">
-        <v>3830570.301983718</v>
+        <v>3830570.301983719</v>
       </c>
       <c r="E219">
-        <v>4267602.879715325</v>
+        <v>4267602.879715323</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2840248.992182329</v>
+        <v>2840248.99218233</v>
       </c>
       <c r="C220">
         <v>3297091.710740674</v>
@@ -4103,7 +4103,7 @@
         <v>3959807.578233415</v>
       </c>
       <c r="E220">
-        <v>4727365.33576104</v>
+        <v>4727365.335761041</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2168001.337906695</v>
+        <v>2168001.337906694</v>
       </c>
       <c r="C221">
-        <v>2372692.467674227</v>
+        <v>2372692.467674228</v>
       </c>
       <c r="D221">
-        <v>2655015.147262305</v>
+        <v>2655015.147262307</v>
       </c>
       <c r="E221">
-        <v>2950968.610266695</v>
+        <v>2950968.610266694</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4134,10 +4134,10 @@
         <v>2788533.08144012</v>
       </c>
       <c r="D222">
-        <v>3982778.39345327</v>
+        <v>3982778.393453271</v>
       </c>
       <c r="E222">
-        <v>5650894.847623052</v>
+        <v>5650894.847623049</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>2621310.708559912</v>
       </c>
       <c r="C223">
-        <v>2508274.894398469</v>
+        <v>2508274.89439847</v>
       </c>
       <c r="D223">
-        <v>2495714.238426567</v>
+        <v>2495714.238426568</v>
       </c>
       <c r="E223">
-        <v>2354496.231595767</v>
+        <v>2354496.231595766</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>1392833.134957857</v>
       </c>
       <c r="C224">
-        <v>1706500.821993085</v>
+        <v>1706500.821993086</v>
       </c>
       <c r="D224">
-        <v>2031560.090434468</v>
+        <v>2031560.090434467</v>
       </c>
       <c r="E224">
-        <v>2283353.752571791</v>
+        <v>2283353.752571793</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,10 +4185,10 @@
         <v>1807877.10844812</v>
       </c>
       <c r="D225">
-        <v>1972388.437315018</v>
+        <v>1972388.437315017</v>
       </c>
       <c r="E225">
-        <v>1975979.208956358</v>
+        <v>1975979.20895636</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>2051283.974807618</v>
       </c>
       <c r="E226">
-        <v>2349219.72620367</v>
+        <v>2349219.726203672</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4219,10 +4219,10 @@
         <v>1919995.497707229</v>
       </c>
       <c r="D227">
-        <v>2448628.178725686</v>
+        <v>2448628.178725687</v>
       </c>
       <c r="E227">
-        <v>3035798.1870333</v>
+        <v>3035798.187033301</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,16 +4230,16 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>9387916.359100487</v>
+        <v>9387916.359100485</v>
       </c>
       <c r="C228">
-        <v>9412632.855822707</v>
+        <v>9412632.855822712</v>
       </c>
       <c r="D228">
         <v>8609585.191922495</v>
       </c>
       <c r="E228">
-        <v>6640608.121709431</v>
+        <v>6640608.121709428</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4253,10 +4253,10 @@
         <v>3404140.142907579</v>
       </c>
       <c r="D229">
-        <v>4009305.172961332</v>
+        <v>4009305.172961333</v>
       </c>
       <c r="E229">
-        <v>4585827.451456818</v>
+        <v>4585827.451456819</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4267,10 +4267,10 @@
         <v>2207419.544050452</v>
       </c>
       <c r="C230">
-        <v>2350095.396553521</v>
+        <v>2350095.396553522</v>
       </c>
       <c r="D230">
-        <v>2628464.995789682</v>
+        <v>2628464.995789683</v>
       </c>
       <c r="E230">
         <v>2982361.893354638</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6444149.326779923</v>
+        <v>6444149.326779922</v>
       </c>
       <c r="C231">
         <v>10098461.18881318</v>
@@ -4290,7 +4290,7 @@
         <v>13109666.00043993</v>
       </c>
       <c r="E231">
-        <v>16291495.42516469</v>
+        <v>16291495.4251647</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>2253320.417315307</v>
       </c>
       <c r="E232">
-        <v>2948862.832170741</v>
+        <v>2948862.83217074</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>2253320.417315307</v>
       </c>
       <c r="E233">
-        <v>2948862.832170741</v>
+        <v>2948862.83217074</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,7 +4335,7 @@
         <v>8279569.366007945</v>
       </c>
       <c r="C234">
-        <v>9478810.285724508</v>
+        <v>9478810.28572451</v>
       </c>
       <c r="D234">
         <v>10834509.40237214</v>
@@ -4375,7 +4375,7 @@
         <v>10122382.02381247</v>
       </c>
       <c r="E236">
-        <v>8858577.04858098</v>
+        <v>8858577.048580982</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>1580938.290230418</v>
       </c>
       <c r="C237">
-        <v>2047995.197554377</v>
+        <v>2047995.197554378</v>
       </c>
       <c r="D237">
         <v>2490845.905945095</v>
       </c>
       <c r="E237">
-        <v>2848979.83706202</v>
+        <v>2848979.837062021</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4406,10 +4406,10 @@
         <v>2011423.854740907</v>
       </c>
       <c r="D238">
-        <v>2427519.315115982</v>
+        <v>2427519.315115983</v>
       </c>
       <c r="E238">
-        <v>2825627.54331561</v>
+        <v>2825627.543315611</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>2402406.225350145</v>
       </c>
       <c r="C239">
-        <v>2285708.925841939</v>
+        <v>2285708.92584194</v>
       </c>
       <c r="D239">
-        <v>2195321.815409236</v>
+        <v>2195321.815409237</v>
       </c>
       <c r="E239">
-        <v>1891535.79345921</v>
+        <v>1891535.793459211</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4437,13 +4437,13 @@
         <v>1670019.9657774</v>
       </c>
       <c r="C240">
-        <v>2117790.541144564</v>
+        <v>2117790.541144565</v>
       </c>
       <c r="D240">
-        <v>2552913.486707551</v>
+        <v>2552913.48670755</v>
       </c>
       <c r="E240">
-        <v>2845300.849519646</v>
+        <v>2845300.849519647</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>436096.7820716248</v>
+        <v>436096.7820716249</v>
       </c>
       <c r="C241">
-        <v>487489.9854802386</v>
+        <v>487489.9854802387</v>
       </c>
       <c r="D241">
-        <v>468500.5106421081</v>
+        <v>468500.510642108</v>
       </c>
       <c r="E241">
         <v>407428.332614937</v>
@@ -4471,13 +4471,13 @@
         <v>1596437.348822202</v>
       </c>
       <c r="C242">
-        <v>2078930.543105037</v>
+        <v>2078930.543105038</v>
       </c>
       <c r="D242">
-        <v>2840866.207570666</v>
+        <v>2840866.207570668</v>
       </c>
       <c r="E242">
-        <v>3924160.385992946</v>
+        <v>3924160.385992944</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4491,10 +4491,10 @@
         <v>2903402.036303326</v>
       </c>
       <c r="D243">
-        <v>3614228.081172839</v>
+        <v>3614228.08117284</v>
       </c>
       <c r="E243">
-        <v>4525739.910624126</v>
+        <v>4525739.910624127</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>2049746.71947542</v>
       </c>
       <c r="C244">
-        <v>2259707.112070693</v>
+        <v>2259707.112070694</v>
       </c>
       <c r="D244">
-        <v>2681565.298734928</v>
+        <v>2681565.29873493</v>
       </c>
       <c r="E244">
-        <v>3233508.158058187</v>
+        <v>3233508.158058186</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4528,7 +4528,7 @@
         <v>3750101.317307157</v>
       </c>
       <c r="E245">
-        <v>5411210.762702759</v>
+        <v>5411210.76270276</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4536,7 +4536,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>588963.849131919</v>
+        <v>588963.8491319187</v>
       </c>
       <c r="C246">
         <v>1005644.734524771</v>
@@ -4545,7 +4545,7 @@
         <v>2094010.53459852</v>
       </c>
       <c r="E246">
-        <v>3758248.78973928</v>
+        <v>3758248.789739282</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,7 +4553,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>588963.849131919</v>
+        <v>588963.8491319187</v>
       </c>
       <c r="C247">
         <v>1005644.734524771</v>
@@ -4562,7 +4562,7 @@
         <v>2094010.53459852</v>
       </c>
       <c r="E247">
-        <v>3758248.78973928</v>
+        <v>3758248.789739282</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4570,13 +4570,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>26152963.15086845</v>
+        <v>26152963.15086846</v>
       </c>
       <c r="C248">
-        <v>26519836.51271232</v>
+        <v>26519836.51271231</v>
       </c>
       <c r="D248">
-        <v>26626281.35556441</v>
+        <v>26626281.3555644</v>
       </c>
       <c r="E248">
         <v>24904191.06252018</v>
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>8939565.577817909</v>
+        <v>8939565.577817908</v>
       </c>
       <c r="C249">
-        <v>9113994.680608591</v>
+        <v>9113994.680608597</v>
       </c>
       <c r="D249">
         <v>8746640.817264244</v>
       </c>
       <c r="E249">
-        <v>7348424.878868381</v>
+        <v>7348424.878868379</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4610,7 +4610,7 @@
         <v>16357287.68800601</v>
       </c>
       <c r="D250">
-        <v>19270845.87185632</v>
+        <v>19270845.87185633</v>
       </c>
       <c r="E250">
         <v>22883556.09905424</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>7346165.6712753</v>
+        <v>7346165.671275299</v>
       </c>
       <c r="C251">
         <v>8962025.127644496</v>
       </c>
       <c r="D251">
-        <v>11526631.24226417</v>
+        <v>11526631.24226416</v>
       </c>
       <c r="E251">
         <v>15195272.73686663</v>
@@ -4658,10 +4658,10 @@
         <v>393265.1375279505</v>
       </c>
       <c r="C253">
-        <v>384619.6834453593</v>
+        <v>384619.6834453594</v>
       </c>
       <c r="D253">
-        <v>427589.4523906296</v>
+        <v>427589.4523906299</v>
       </c>
       <c r="E253">
         <v>479974.7169246254</v>
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>8155831.343044054</v>
+        <v>8155831.34304405</v>
       </c>
       <c r="C254">
-        <v>8409278.209575465</v>
+        <v>8409278.209575467</v>
       </c>
       <c r="D254">
-        <v>8534743.803073503</v>
+        <v>8534743.803073501</v>
       </c>
       <c r="E254">
-        <v>8517135.805283066</v>
+        <v>8517135.805283071</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>419482.8133631471</v>
+        <v>419482.8133631472</v>
       </c>
       <c r="C255">
         <v>414205.8129411563</v>
       </c>
       <c r="D255">
-        <v>427589.4523906296</v>
+        <v>427589.4523906299</v>
       </c>
       <c r="E255">
         <v>392706.5865746936</v>
@@ -4706,10 +4706,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2992306.829366155</v>
+        <v>2992306.829366156</v>
       </c>
       <c r="C256">
-        <v>3144015.919295065</v>
+        <v>3144015.919295066</v>
       </c>
       <c r="D256">
         <v>3450512.94555735</v>
@@ -4732,7 +4732,7 @@
         <v>1078296.659492127</v>
       </c>
       <c r="E257">
-        <v>1097810.696215171</v>
+        <v>1097810.69621517</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,10 +4740,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>724995.4628427618</v>
+        <v>724995.4628427619</v>
       </c>
       <c r="C258">
-        <v>862473.8921680837</v>
+        <v>862473.8921680835</v>
       </c>
       <c r="D258">
         <v>1173159.342677695</v>
@@ -4757,10 +4757,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>743120.3494138308</v>
+        <v>743120.349413831</v>
       </c>
       <c r="C259">
-        <v>905597.5867764879</v>
+        <v>905597.5867764875</v>
       </c>
       <c r="D259">
         <v>1145226.977375845</v>
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2533762.763402502</v>
+        <v>2533762.763402503</v>
       </c>
       <c r="C260">
         <v>3294884.928818132</v>
       </c>
       <c r="D260">
-        <v>4730236.234789097</v>
+        <v>4730236.234789099</v>
       </c>
       <c r="E260">
         <v>7177709.413905947</v>
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>660400.5083600973</v>
+        <v>660400.5083600975</v>
       </c>
       <c r="C261">
-        <v>635764.8842610277</v>
+        <v>635764.8842610276</v>
       </c>
       <c r="D261">
-        <v>735575.7138244307</v>
+        <v>735575.7138244306</v>
       </c>
       <c r="E261">
-        <v>902023.9335566957</v>
+        <v>902023.9335566952</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4811,13 +4811,13 @@
         <v>534006.156924324</v>
       </c>
       <c r="C262">
-        <v>709985.9399782619</v>
+        <v>709985.9399782618</v>
       </c>
       <c r="D262">
         <v>1150459.988933867</v>
       </c>
       <c r="E262">
-        <v>2007064.747311868</v>
+        <v>2007064.747311869</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,10 +4825,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>776736.2282535621</v>
+        <v>776736.2282535622</v>
       </c>
       <c r="C263">
-        <v>825902.0118114476</v>
+        <v>825902.0118114474</v>
       </c>
       <c r="D263">
         <v>1046814.944885771</v>
@@ -4845,13 +4845,13 @@
         <v>400634.1791498985</v>
       </c>
       <c r="C264">
-        <v>446885.3877565158</v>
+        <v>446885.3877565156</v>
       </c>
       <c r="D264">
-        <v>606162.391564663</v>
+        <v>606162.3915646628</v>
       </c>
       <c r="E264">
-        <v>875237.0258365823</v>
+        <v>875237.0258365825</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>394274.9064649794</v>
       </c>
       <c r="C265">
-        <v>446885.3877565158</v>
+        <v>446885.3877565156</v>
       </c>
       <c r="D265">
-        <v>606162.391564663</v>
+        <v>606162.3915646628</v>
       </c>
       <c r="E265">
-        <v>892398.5361471035</v>
+        <v>892398.5361471038</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>201693.9663486062</v>
+        <v>201693.9663486063</v>
       </c>
       <c r="C266">
         <v>287078.3716740456</v>
       </c>
       <c r="D266">
-        <v>453423.6927486566</v>
+        <v>453423.6927486568</v>
       </c>
       <c r="E266">
-        <v>778550.2135895879</v>
+        <v>778550.2135895883</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>464226.9059990887</v>
       </c>
       <c r="C267">
-        <v>493114.9106278794</v>
+        <v>493114.9106278793</v>
       </c>
       <c r="D267">
-        <v>583711.9326178237</v>
+        <v>583711.9326178235</v>
       </c>
       <c r="E267">
-        <v>669298.9021103276</v>
+        <v>669298.9021103279</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,13 +4910,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>531356.7308644461</v>
+        <v>531356.7308644463</v>
       </c>
       <c r="C268">
-        <v>596029.5789947135</v>
+        <v>596029.5789947134</v>
       </c>
       <c r="D268">
-        <v>782652.5595091943</v>
+        <v>782652.5595091942</v>
       </c>
       <c r="E268">
         <v>1136203.223999299</v>
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>641423.4822577956</v>
+        <v>641423.4822577959</v>
       </c>
       <c r="C269">
-        <v>635764.8842610277</v>
+        <v>635764.8842610276</v>
       </c>
       <c r="D269">
-        <v>741460.3195350262</v>
+        <v>741460.3195350261</v>
       </c>
       <c r="E269">
-        <v>919370.5476635551</v>
+        <v>919370.5476635548</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4953,7 +4953,7 @@
         <v>472595.1118063096</v>
       </c>
       <c r="E270">
-        <v>716900.6051967365</v>
+        <v>716900.6051967366</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5001,10 +5001,10 @@
         <v>239982.6526353477</v>
       </c>
       <c r="D273">
-        <v>336213.9420744046</v>
+        <v>336213.9420744047</v>
       </c>
       <c r="E273">
-        <v>477534.7080286251</v>
+        <v>477534.7080286249</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>248366.3268635285</v>
+        <v>248366.3268635284</v>
       </c>
       <c r="C274">
         <v>261473.6364534386</v>
       </c>
       <c r="D274">
-        <v>320696.3755171244</v>
+        <v>320696.3755171245</v>
       </c>
       <c r="E274">
-        <v>363835.9680218096</v>
+        <v>363835.9680218094</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,13 +5029,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>844479.754052651</v>
+        <v>844479.7540526512</v>
       </c>
       <c r="C275">
         <v>1163134.216153946</v>
       </c>
       <c r="D275">
-        <v>1800035.014948914</v>
+        <v>1800035.014948915</v>
       </c>
       <c r="E275">
         <v>2536731.603564686</v>
@@ -5055,7 +5055,7 @@
         <v>133441.9155919985</v>
       </c>
       <c r="E276">
-        <v>170191.8966733781</v>
+        <v>170191.8966733782</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5069,7 +5069,7 @@
         <v>1535579.764186107</v>
       </c>
       <c r="D277">
-        <v>1917539.487440793</v>
+        <v>1917539.487440792</v>
       </c>
       <c r="E277">
         <v>2120563.547903562</v>
@@ -5086,7 +5086,7 @@
         <v>1090671.914331005</v>
       </c>
       <c r="D278">
-        <v>1576182.707074232</v>
+        <v>1576182.707074233</v>
       </c>
       <c r="E278">
         <v>2091070.271036719</v>
@@ -5103,10 +5103,10 @@
         <v>447915.9011266293</v>
       </c>
       <c r="D279">
-        <v>524788.4149578114</v>
+        <v>524788.4149578115</v>
       </c>
       <c r="E279">
-        <v>570646.8199918724</v>
+        <v>570646.8199918722</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5120,10 +5120,10 @@
         <v>447915.9011266293</v>
       </c>
       <c r="D280">
-        <v>524788.4149578114</v>
+        <v>524788.4149578115</v>
       </c>
       <c r="E280">
-        <v>570646.8199918724</v>
+        <v>570646.8199918722</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>580123.4387172564</v>
       </c>
       <c r="C281">
-        <v>598413.3181459836</v>
+        <v>598413.3181459835</v>
       </c>
       <c r="D281">
         <v>675253.1435438673</v>
       </c>
       <c r="E281">
-        <v>700333.9605544371</v>
+        <v>700333.9605544375</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5157,7 +5157,7 @@
         <v>221405.8260534987</v>
       </c>
       <c r="E282">
-        <v>189423.8195826262</v>
+        <v>189423.8195826263</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,16 +5165,16 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>204924.4225020944</v>
+        <v>204924.4225020945</v>
       </c>
       <c r="C283">
-        <v>205515.9628470656</v>
+        <v>205515.9628470655</v>
       </c>
       <c r="D283">
         <v>227823.3862289624</v>
       </c>
       <c r="E283">
-        <v>213605.5837846636</v>
+        <v>213605.5837846637</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>167842.8603350488</v>
       </c>
       <c r="C284">
-        <v>191342.4481679576</v>
+        <v>191342.4481679575</v>
       </c>
       <c r="D284">
-        <v>240658.5065798898</v>
+        <v>240658.5065798899</v>
       </c>
       <c r="E284">
-        <v>274059.9942897571</v>
+        <v>274059.9942897572</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5208,7 +5208,7 @@
         <v>119825.3935928149</v>
       </c>
       <c r="E285">
-        <v>113461.2644489187</v>
+        <v>113461.2644489188</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>472174.4622111936</v>
+        <v>472174.4622111935</v>
       </c>
       <c r="C286">
         <v>461913.2730368364</v>
       </c>
       <c r="D286">
-        <v>524788.4149578114</v>
+        <v>524788.4149578115</v>
       </c>
       <c r="E286">
-        <v>499315.9674928883</v>
+        <v>499315.9674928882</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5239,10 +5239,10 @@
         <v>5417215.235359079</v>
       </c>
       <c r="D287">
-        <v>7121780.682508764</v>
+        <v>7121780.682508759</v>
       </c>
       <c r="E287">
-        <v>9668806.312343458</v>
+        <v>9668806.312343454</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,16 +5250,16 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1526273.621859429</v>
+        <v>1526273.62185943</v>
       </c>
       <c r="C288">
         <v>2160068.28764282</v>
       </c>
       <c r="D288">
-        <v>3371135.71871318</v>
+        <v>3371135.718713179</v>
       </c>
       <c r="E288">
-        <v>5341301.214223737</v>
+        <v>5341301.21422374</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,13 +5267,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>46656886.36885147</v>
+        <v>46656886.36885148</v>
       </c>
       <c r="C289">
         <v>49516839.57519756</v>
       </c>
       <c r="D289">
-        <v>56327671.60010048</v>
+        <v>56327671.60010049</v>
       </c>
       <c r="E289">
         <v>66054186.77753496</v>
@@ -5290,10 +5290,10 @@
         <v>4810307.304426734</v>
       </c>
       <c r="D290">
-        <v>7321190.541619009</v>
+        <v>7321190.541619005</v>
       </c>
       <c r="E290">
-        <v>11640484.46231154</v>
+        <v>11640484.46231153</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5310,7 +5310,7 @@
         <v>3129231.924984349</v>
       </c>
       <c r="E291">
-        <v>3620060.496322575</v>
+        <v>3620060.496322576</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>361415.5712931016</v>
       </c>
       <c r="C292">
-        <v>446194.8420546493</v>
+        <v>446194.8420546491</v>
       </c>
       <c r="D292">
         <v>611625.7736392738</v>
       </c>
       <c r="E292">
-        <v>816861.756723117</v>
+        <v>816861.7567231164</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>468501.6664910576</v>
+        <v>468501.6664910577</v>
       </c>
       <c r="C294">
-        <v>495772.046727388</v>
+        <v>495772.0467273879</v>
       </c>
       <c r="D294">
         <v>566320.1607771054</v>
       </c>
       <c r="E294">
-        <v>596937.4376053547</v>
+        <v>596937.4376053544</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,13 +5369,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>4393456.216742165</v>
+        <v>4393456.216742166</v>
       </c>
       <c r="C295">
-        <v>5610547.925261048</v>
+        <v>5610547.925261047</v>
       </c>
       <c r="D295">
-        <v>7779302.875634251</v>
+        <v>7779302.875634247</v>
       </c>
       <c r="E295">
         <v>10666565.08609176</v>
@@ -5395,7 +5395,7 @@
         <v>3420271.888817031</v>
       </c>
       <c r="E296">
-        <v>4696933.629475838</v>
+        <v>4696933.629475837</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5412,7 +5412,7 @@
         <v>3389068.07811753</v>
       </c>
       <c r="E297">
-        <v>6474007.137952038</v>
+        <v>6474007.137952034</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5423,7 +5423,7 @@
         <v>4759910.728659811</v>
       </c>
       <c r="C298">
-        <v>6624358.225972325</v>
+        <v>6624358.225972326</v>
       </c>
       <c r="D298">
         <v>9799738.895255607</v>
@@ -5440,13 +5440,13 @@
         <v>5012404.687354653</v>
       </c>
       <c r="C299">
-        <v>7523992.685216601</v>
+        <v>7523992.685216599</v>
       </c>
       <c r="D299">
         <v>11611473.15883086</v>
       </c>
       <c r="E299">
-        <v>17744427.42988335</v>
+        <v>17744427.42988336</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>5103775.485317245</v>
+        <v>5103775.485317247</v>
       </c>
       <c r="C300">
         <v>5914252.798708227</v>
       </c>
       <c r="D300">
-        <v>7470775.282832893</v>
+        <v>7470775.282832889</v>
       </c>
       <c r="E300">
-        <v>9173245.974038916</v>
+        <v>9173245.974038912</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5480,7 +5480,7 @@
         <v>3445237.377056572</v>
       </c>
       <c r="E301">
-        <v>4899678.965999974</v>
+        <v>4899678.965999973</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5491,7 +5491,7 @@
         <v>6955743.471680527</v>
       </c>
       <c r="C302">
-        <v>7398847.869307398</v>
+        <v>7398847.8693074</v>
       </c>
       <c r="D302">
         <v>8871819.046051264</v>
@@ -5508,7 +5508,7 @@
         <v>6955743.471680527</v>
       </c>
       <c r="C303">
-        <v>7398847.869307398</v>
+        <v>7398847.8693074</v>
       </c>
       <c r="D303">
         <v>8871819.046051264</v>
@@ -5522,16 +5522,16 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>769339.5409587431</v>
+        <v>769339.540958743</v>
       </c>
       <c r="C304">
-        <v>937838.5629964647</v>
+        <v>937838.5629964642</v>
       </c>
       <c r="D304">
-        <v>1225911.168760775</v>
+        <v>1225911.168760776</v>
       </c>
       <c r="E304">
-        <v>1543163.134334197</v>
+        <v>1543163.134334198</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5539,16 +5539,16 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>619745.7413278765</v>
+        <v>619745.7413278763</v>
       </c>
       <c r="C305">
-        <v>820608.7426219066</v>
+        <v>820608.7426219061</v>
       </c>
       <c r="D305">
         <v>1280802.713630661</v>
       </c>
       <c r="E305">
-        <v>2006112.074634456</v>
+        <v>2006112.074634457</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5559,13 +5559,13 @@
         <v>221301.1087433524</v>
       </c>
       <c r="C306">
-        <v>293232.3618648973</v>
+        <v>293232.3618648972</v>
       </c>
       <c r="D306">
         <v>462285.951131206</v>
       </c>
       <c r="E306">
-        <v>704042.0491361278</v>
+        <v>704042.0491361277</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5573,10 +5573,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>694542.6411433098</v>
+        <v>694542.6411433097</v>
       </c>
       <c r="C307">
-        <v>885736.4206077722</v>
+        <v>885736.4206077717</v>
       </c>
       <c r="D307">
         <v>1244208.350384071</v>
@@ -5599,7 +5599,7 @@
         <v>479407.6530249544</v>
       </c>
       <c r="E308">
-        <v>825428.6093320119</v>
+        <v>825428.6093320118</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5610,13 +5610,13 @@
         <v>211241.9674368364</v>
       </c>
       <c r="C309">
-        <v>293232.3618648973</v>
+        <v>293232.3618648972</v>
       </c>
       <c r="D309">
         <v>462285.951131206</v>
       </c>
       <c r="E309">
-        <v>728319.3611753046</v>
+        <v>728319.3611753045</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5624,10 +5624,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>822765.897969767</v>
+        <v>822765.8979697669</v>
       </c>
       <c r="C310">
-        <v>898761.9562049453</v>
+        <v>898761.9562049449</v>
       </c>
       <c r="D310">
         <v>1189316.805514185</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>96224.26024999126</v>
+        <v>96224.26024999129</v>
       </c>
       <c r="C311">
         <v>102646.8981180839</v>
       </c>
       <c r="D311">
-        <v>126356.3547274559</v>
+        <v>126356.3547274558</v>
       </c>
       <c r="E311">
-        <v>160410.3368608994</v>
+        <v>160410.3368608995</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,13 +5658,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>112261.6369583231</v>
+        <v>112261.6369583232</v>
       </c>
       <c r="C312">
         <v>109062.3292504641</v>
       </c>
       <c r="D312">
-        <v>121999.2390471988</v>
+        <v>121999.2390471987</v>
       </c>
       <c r="E312">
         <v>129562.1951568803</v>
@@ -5675,13 +5675,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>109588.7408402678</v>
+        <v>109588.7408402679</v>
       </c>
       <c r="C313">
         <v>109062.3292504641</v>
       </c>
       <c r="D313">
-        <v>121999.2390471988</v>
+        <v>121999.2390471987</v>
       </c>
       <c r="E313">
         <v>129562.1951568803</v>
@@ -5692,13 +5692,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>90878.46801388064</v>
+        <v>90878.46801388067</v>
       </c>
       <c r="C314">
         <v>102646.8981180839</v>
       </c>
       <c r="D314">
-        <v>130713.470407713</v>
+        <v>130713.4704077129</v>
       </c>
       <c r="E314">
         <v>172749.5935425071</v>
@@ -5712,13 +5712,13 @@
         <v>12121741.77655278</v>
       </c>
       <c r="C315">
-        <v>13469799.75573708</v>
+        <v>13469799.75573709</v>
       </c>
       <c r="D315">
         <v>16928959.531796</v>
       </c>
       <c r="E315">
-        <v>21814511.85027642</v>
+        <v>21814511.85027643</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,10 +5726,10 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>27110076.69756985</v>
+        <v>27110076.69756984</v>
       </c>
       <c r="C316">
-        <v>28740085.82805425</v>
+        <v>28740085.82805426</v>
       </c>
       <c r="D316">
         <v>34432904.02771848</v>
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>7094044.668275617</v>
+        <v>7094044.668275616</v>
       </c>
       <c r="C317">
-        <v>8218267.574846339</v>
+        <v>8218267.574846336</v>
       </c>
       <c r="D317">
         <v>10603370.55989033</v>
       </c>
       <c r="E317">
-        <v>14802428.15473634</v>
+        <v>14802428.15473633</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>3401513.171344698</v>
       </c>
       <c r="C318">
-        <v>4110770.199322791</v>
+        <v>4110770.19932279</v>
       </c>
       <c r="D318">
-        <v>5296614.76491538</v>
+        <v>5296614.764915382</v>
       </c>
       <c r="E318">
         <v>7214437.006508923</v>
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1975884.715819885</v>
+        <v>1975884.715819886</v>
       </c>
       <c r="C319">
         <v>2478110.851644931</v>
@@ -5786,7 +5786,7 @@
         <v>3359989.388163069</v>
       </c>
       <c r="E319">
-        <v>4616749.450286083</v>
+        <v>4616749.45028608</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>2366560.061213984</v>
+        <v>2366560.061213983</v>
       </c>
       <c r="C320">
         <v>2756372.83795128</v>
@@ -5803,7 +5803,7 @@
         <v>3439044.279713722</v>
       </c>
       <c r="E320">
-        <v>4503373.929023629</v>
+        <v>4503373.929023631</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5814,7 +5814,7 @@
         <v>11567154.31435941</v>
       </c>
       <c r="C321">
-        <v>13502328.01329435</v>
+        <v>13502328.01329434</v>
       </c>
       <c r="D321">
         <v>16672278.54080774</v>
@@ -5828,13 +5828,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>6071230.740767431</v>
+        <v>6071230.74076743</v>
       </c>
       <c r="C322">
-        <v>6246384.784707766</v>
+        <v>6246384.784707767</v>
       </c>
       <c r="D322">
-        <v>7344036.551151742</v>
+        <v>7344036.551151744</v>
       </c>
       <c r="E322">
         <v>8606545.796584291</v>
@@ -5848,13 +5848,13 @@
         <v>1996907.70350984</v>
       </c>
       <c r="C323">
-        <v>2478360.861723763</v>
+        <v>2478360.861723762</v>
       </c>
       <c r="D323">
-        <v>3375067.3006987</v>
+        <v>3375067.300698699</v>
       </c>
       <c r="E323">
-        <v>4991743.05341041</v>
+        <v>4991743.053410409</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>2199126.20513109</v>
+        <v>2199126.205131089</v>
       </c>
       <c r="C324">
-        <v>2560972.890447889</v>
+        <v>2560972.890447887</v>
       </c>
       <c r="D324">
         <v>3308234.28484328</v>
       </c>
       <c r="E324">
-        <v>4638345.315115868</v>
+        <v>4638345.315115867</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5882,13 +5882,13 @@
         <v>1845243.827293903</v>
       </c>
       <c r="C325">
-        <v>2368211.490091596</v>
+        <v>2368211.490091595</v>
       </c>
       <c r="D325">
-        <v>3408483.80862641</v>
+        <v>3408483.808626409</v>
       </c>
       <c r="E325">
-        <v>5345140.791704953</v>
+        <v>5345140.791704952</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5899,13 +5899,13 @@
         <v>4207257.116496105</v>
       </c>
       <c r="C326">
-        <v>5710369.479770865</v>
+        <v>5710369.479770866</v>
       </c>
       <c r="D326">
-        <v>7947604.732408192</v>
+        <v>7947604.732408194</v>
       </c>
       <c r="E326">
-        <v>11977117.57496718</v>
+        <v>11977117.57496717</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5922,7 +5922,7 @@
         <v>2475682.810300167</v>
       </c>
       <c r="E327">
-        <v>3926597.473958102</v>
+        <v>3926597.473958101</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5939,7 +5939,7 @@
         <v>2394512.882093604</v>
       </c>
       <c r="E328">
-        <v>3748115.77059637</v>
+        <v>3748115.770596369</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5953,10 +5953,10 @@
         <v>14263.9737998754</v>
       </c>
       <c r="D329">
-        <v>19588.12442730542</v>
+        <v>19588.12442730541</v>
       </c>
       <c r="E329">
-        <v>28542.20819251725</v>
+        <v>28542.20819251724</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5967,13 +5967,13 @@
         <v>1715119.586995483</v>
       </c>
       <c r="C330">
-        <v>1825779.650361956</v>
+        <v>1825779.650361957</v>
       </c>
       <c r="D330">
         <v>2211880.543628837</v>
       </c>
       <c r="E330">
-        <v>2736719.451546556</v>
+        <v>2736719.451546555</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5984,13 +5984,13 @@
         <v>1484004.181655666</v>
       </c>
       <c r="C331">
-        <v>1738142.227144582</v>
+        <v>1738142.227144583</v>
       </c>
       <c r="D331">
-        <v>2333635.435938681</v>
+        <v>2333635.435938682</v>
       </c>
       <c r="E331">
-        <v>3242417.611071463</v>
+        <v>3242417.611071462</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4004937.781204063</v>
+        <v>4004937.78120406</v>
       </c>
       <c r="C332">
-        <v>4740545.897961162</v>
+        <v>4740545.897961165</v>
       </c>
       <c r="D332">
-        <v>6377421.001174481</v>
+        <v>6377421.001174483</v>
       </c>
       <c r="E332">
-        <v>9092569.48411271</v>
+        <v>9092569.484112715</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,13 +6015,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>3980712.89227662</v>
+        <v>3980712.892276621</v>
       </c>
       <c r="C333">
-        <v>4917489.455549433</v>
+        <v>4917489.455549434</v>
       </c>
       <c r="D333">
-        <v>6503359.062594909</v>
+        <v>6503359.062594908</v>
       </c>
       <c r="E333">
         <v>9103289.023261877</v>
@@ -6032,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>7830927.418281718</v>
+        <v>7830927.418281725</v>
       </c>
       <c r="C334">
         <v>9028798.55584114</v>
@@ -6041,7 +6041,7 @@
         <v>11632581.41053858</v>
       </c>
       <c r="E334">
-        <v>15841531.05062955</v>
+        <v>15841531.05062954</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,16 +6049,16 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3141860.94105775</v>
+        <v>3141860.941057751</v>
       </c>
       <c r="C335">
-        <v>4085946.284628072</v>
+        <v>4085946.284628074</v>
       </c>
       <c r="D335">
         <v>6260616.081158321</v>
       </c>
       <c r="E335">
-        <v>9953272.751369372</v>
+        <v>9953272.751369366</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,10 +6069,10 @@
         <v>2447314.266450509</v>
       </c>
       <c r="C336">
-        <v>2611304.03541609</v>
+        <v>2611304.035416091</v>
       </c>
       <c r="D336">
-        <v>3181126.4869006</v>
+        <v>3181126.486900601</v>
       </c>
       <c r="E336">
         <v>4026088.928003144</v>
@@ -6086,10 +6086,10 @@
         <v>2568361.965410032</v>
       </c>
       <c r="C337">
-        <v>3663974.430897745</v>
+        <v>3663974.430897744</v>
       </c>
       <c r="D337">
-        <v>5299806.601755146</v>
+        <v>5299806.601755151</v>
       </c>
       <c r="E337">
         <v>6715119.948786801</v>
@@ -6100,13 +6100,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>2904313.125120751</v>
+        <v>2904313.125120752</v>
       </c>
       <c r="C338">
-        <v>4480330.429348207</v>
+        <v>4480330.429348206</v>
       </c>
       <c r="D338">
-        <v>7266861.55264931</v>
+        <v>7266861.552649308</v>
       </c>
       <c r="E338">
         <v>10578855.7221002</v>
@@ -6117,13 +6117,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>2600466.489977658</v>
+        <v>2600466.489977657</v>
       </c>
       <c r="C339">
-        <v>3631064.480919622</v>
+        <v>3631064.480919621</v>
       </c>
       <c r="D339">
-        <v>5284172.953962359</v>
+        <v>5284172.953962362</v>
       </c>
       <c r="E339">
         <v>6734697.557966937</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1406044.782916057</v>
+        <v>1406044.782916058</v>
       </c>
       <c r="C340">
         <v>1658700.260331925</v>
@@ -6157,7 +6157,7 @@
         <v>1466533.766756885</v>
       </c>
       <c r="D341">
-        <v>2300567.312086845</v>
+        <v>2300567.312086844</v>
       </c>
       <c r="E341">
         <v>3197645.845188643</v>
@@ -6168,16 +6168,16 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>337672.1914464193</v>
+        <v>337672.1914464192</v>
       </c>
       <c r="C342">
         <v>398401.1259319867</v>
       </c>
       <c r="D342">
-        <v>490451.3488885369</v>
+        <v>490451.348888537</v>
       </c>
       <c r="E342">
-        <v>484184.6095130483</v>
+        <v>484184.6095130485</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6185,16 +6185,16 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>328545.9160019215</v>
+        <v>328545.9160019214</v>
       </c>
       <c r="C343">
         <v>385951.0907466121</v>
       </c>
       <c r="D343">
-        <v>490451.3488885369</v>
+        <v>490451.348888537</v>
       </c>
       <c r="E343">
-        <v>528201.3921960526</v>
+        <v>528201.3921960529</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6205,13 +6205,13 @@
         <v>1525075.029088845</v>
       </c>
       <c r="C344">
-        <v>1729498.442175361</v>
+        <v>1729498.44217536</v>
       </c>
       <c r="D344">
         <v>2040125.729586447</v>
       </c>
       <c r="E344">
-        <v>2009948.816975719</v>
+        <v>2009948.816975718</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6225,10 +6225,10 @@
         <v>415333.1829116786</v>
       </c>
       <c r="D345">
-        <v>520121.0044920508</v>
+        <v>520121.0044920506</v>
       </c>
       <c r="E345">
-        <v>552421.6686981376</v>
+        <v>552421.6686981377</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6242,10 +6242,10 @@
         <v>409134.1801816535</v>
       </c>
       <c r="D346">
-        <v>511153.4009663258</v>
+        <v>511153.4009663255</v>
       </c>
       <c r="E346">
-        <v>540912.8839335931</v>
+        <v>540912.8839335932</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6259,10 +6259,10 @@
         <v>409134.1801816535</v>
       </c>
       <c r="D347">
-        <v>511153.4009663258</v>
+        <v>511153.4009663255</v>
       </c>
       <c r="E347">
-        <v>540912.8839335931</v>
+        <v>540912.8839335932</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6273,7 +6273,7 @@
         <v>302891.8952785847</v>
       </c>
       <c r="C348">
-        <v>386881.1363717973</v>
+        <v>386881.1363717974</v>
       </c>
       <c r="D348">
         <v>525014.947231397</v>
@@ -6290,7 +6290,7 @@
         <v>355897.976952337</v>
       </c>
       <c r="C349">
-        <v>417424.3839800971</v>
+        <v>417424.3839800972</v>
       </c>
       <c r="D349">
         <v>496635.7608945647</v>
@@ -6307,7 +6307,7 @@
         <v>355897.976952337</v>
       </c>
       <c r="C350">
-        <v>417424.3839800971</v>
+        <v>417424.3839800972</v>
       </c>
       <c r="D350">
         <v>496635.7608945647</v>
@@ -6324,13 +6324,13 @@
         <v>324619.0985926978</v>
       </c>
       <c r="C351">
-        <v>389447.275254781</v>
+        <v>389447.2752547809</v>
       </c>
       <c r="D351">
         <v>522885.5941491696</v>
       </c>
       <c r="E351">
-        <v>617686.6821721125</v>
+        <v>617686.6821721127</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6341,13 +6341,13 @@
         <v>388383.5643876921</v>
       </c>
       <c r="C352">
-        <v>415660.0726276989</v>
+        <v>415660.0726276988</v>
       </c>
       <c r="D352">
         <v>495651.9694539004</v>
       </c>
       <c r="E352">
-        <v>482789.5906632604</v>
+        <v>482789.5906632605</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6361,7 +6361,7 @@
         <v>2701292.909290486</v>
       </c>
       <c r="D353">
-        <v>2942925.336979747</v>
+        <v>2942925.336979746</v>
       </c>
       <c r="E353">
         <v>2784190.535795373</v>
@@ -6372,7 +6372,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>2763714.239503654</v>
+        <v>2763714.239503653</v>
       </c>
       <c r="C354">
         <v>2952185.422475595</v>
@@ -6381,7 +6381,7 @@
         <v>2720031.021977478</v>
       </c>
       <c r="E354">
-        <v>2039458.965347049</v>
+        <v>2039458.965347048</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>2793634.595630351</v>
+        <v>2793634.595630352</v>
       </c>
       <c r="C355">
         <v>2961032.612106879</v>
@@ -6398,7 +6398,7 @@
         <v>2702397.785399671</v>
       </c>
       <c r="E355">
-        <v>2033550.930556424</v>
+        <v>2033550.930556425</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6415,7 +6415,7 @@
         <v>732057.0045319708</v>
       </c>
       <c r="E356">
-        <v>620557.0176451829</v>
+        <v>620557.0176451828</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6449,7 +6449,7 @@
         <v>694833.767013396</v>
       </c>
       <c r="E358">
-        <v>515179.4108752462</v>
+        <v>515179.410875246</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6466,7 +6466,7 @@
         <v>313257.2793715807</v>
       </c>
       <c r="E359">
-        <v>312603.6482865661</v>
+        <v>312603.648286566</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6483,7 +6483,7 @@
         <v>287685.2565657374</v>
       </c>
       <c r="E360">
-        <v>217463.4075036982</v>
+        <v>217463.4075036981</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6500,7 +6500,7 @@
         <v>11652718.3098502</v>
       </c>
       <c r="E361">
-        <v>15418204.15712994</v>
+        <v>15418204.15712993</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6514,7 +6514,7 @@
         <v>3186940.311441828</v>
       </c>
       <c r="D362">
-        <v>3980367.374174185</v>
+        <v>3980367.374174186</v>
       </c>
       <c r="E362">
         <v>4648196.411836213</v>
@@ -6525,16 +6525,16 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>183239.927389476</v>
+        <v>183239.9273894759</v>
       </c>
       <c r="C363">
-        <v>231747.5869251259</v>
+        <v>231747.586925126</v>
       </c>
       <c r="D363">
-        <v>356703.1533131375</v>
+        <v>356703.1533131374</v>
       </c>
       <c r="E363">
-        <v>512479.9213684712</v>
+        <v>512479.921368471</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6548,7 +6548,7 @@
         <v>2291878.894185658</v>
       </c>
       <c r="D364">
-        <v>2821052.982395932</v>
+        <v>2821052.982395931</v>
       </c>
       <c r="E364">
         <v>3563756.705005514</v>
@@ -6559,13 +6559,13 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1948625.570037833</v>
+        <v>1948625.570037832</v>
       </c>
       <c r="C365">
         <v>2213524.060196405</v>
       </c>
       <c r="D365">
-        <v>2845583.877895027</v>
+        <v>2845583.877895026</v>
       </c>
       <c r="E365">
         <v>3786491.499068359</v>
@@ -6585,7 +6585,7 @@
         <v>597706.057355348</v>
       </c>
       <c r="E366">
-        <v>671702.9640509724</v>
+        <v>671702.9640509725</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6602,7 +6602,7 @@
         <v>581103.1113176994</v>
       </c>
       <c r="E367">
-        <v>604532.6676458751</v>
+        <v>604532.6676458752</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,10 +6613,10 @@
         <v>593277.9886554427</v>
       </c>
       <c r="C368">
-        <v>621175.6633542228</v>
+        <v>621175.6633542232</v>
       </c>
       <c r="D368">
-        <v>747951.4850075409</v>
+        <v>747951.4850075413</v>
       </c>
       <c r="E368">
         <v>861453.5390707473</v>
@@ -6636,7 +6636,7 @@
         <v>564500.1652800508</v>
       </c>
       <c r="E369">
-        <v>514972.2724390788</v>
+        <v>514972.2724390789</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6664,7 +6664,7 @@
         <v>104810.6950286427</v>
       </c>
       <c r="C371">
-        <v>108139.5659576528</v>
+        <v>108139.5659576529</v>
       </c>
       <c r="D371">
         <v>139097.5079368952</v>
@@ -6684,7 +6684,7 @@
         <v>104862.6094134816</v>
       </c>
       <c r="D372">
-        <v>144249.2674901136</v>
+        <v>144249.2674901135</v>
       </c>
       <c r="E372">
         <v>169911.7674919406</v>
@@ -6704,7 +6704,7 @@
         <v>5307088.065955917</v>
       </c>
       <c r="E373">
-        <v>6824066.714143364</v>
+        <v>6824066.714143365</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6718,10 +6718,10 @@
         <v>2488984.85814911</v>
       </c>
       <c r="D374">
-        <v>3663059.914524458</v>
+        <v>3663059.914524457</v>
       </c>
       <c r="E374">
-        <v>4900449.35656008</v>
+        <v>4900449.356560079</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6738,7 +6738,7 @@
         <v>4845602.147177142</v>
       </c>
       <c r="E375">
-        <v>4685649.494964798</v>
+        <v>4685649.494964799</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6746,10 +6746,10 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>2231956.098418681</v>
+        <v>2231956.098418682</v>
       </c>
       <c r="C376">
-        <v>2586732.568233579</v>
+        <v>2586732.56823358</v>
       </c>
       <c r="D376">
         <v>3018426.272618574</v>
@@ -6763,10 +6763,10 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>2231956.098418681</v>
+        <v>2231956.098418682</v>
       </c>
       <c r="C377">
-        <v>2586732.568233579</v>
+        <v>2586732.56823358</v>
       </c>
       <c r="D377">
         <v>3018426.272618574</v>
@@ -6783,13 +6783,13 @@
         <v>2038622.224376914</v>
       </c>
       <c r="C378">
-        <v>2419013.886480255</v>
+        <v>2419013.886480256</v>
       </c>
       <c r="D378">
-        <v>2800865.833217099</v>
+        <v>2800865.833217097</v>
       </c>
       <c r="E378">
-        <v>3125467.084439219</v>
+        <v>3125467.08443922</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6800,13 +6800,13 @@
         <v>1974915.279865135</v>
       </c>
       <c r="C379">
-        <v>2493065.331984753</v>
+        <v>2493065.331984754</v>
       </c>
       <c r="D379">
-        <v>2828874.49154927</v>
+        <v>2828874.491549269</v>
       </c>
       <c r="E379">
-        <v>3094521.865781405</v>
+        <v>3094521.865781406</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6817,13 +6817,13 @@
         <v>2739398.614006478</v>
       </c>
       <c r="C380">
-        <v>2616484.407825582</v>
+        <v>2616484.407825583</v>
       </c>
       <c r="D380">
-        <v>2548787.90822756</v>
+        <v>2548787.908227559</v>
       </c>
       <c r="E380">
-        <v>2320891.399336054</v>
+        <v>2320891.399336055</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6834,13 +6834,13 @@
         <v>2038622.224376914</v>
       </c>
       <c r="C381">
-        <v>2419013.886480255</v>
+        <v>2419013.886480256</v>
       </c>
       <c r="D381">
-        <v>2800865.833217099</v>
+        <v>2800865.833217097</v>
       </c>
       <c r="E381">
-        <v>3125467.084439219</v>
+        <v>3125467.08443922</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>1304928.282583629</v>
       </c>
       <c r="E382">
-        <v>1206280.982294546</v>
+        <v>1206280.982294547</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,13 +6865,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>2512577.529320226</v>
+        <v>2512577.529320225</v>
       </c>
       <c r="C383">
         <v>3536745.100842435</v>
       </c>
       <c r="D383">
-        <v>4796131.38143629</v>
+        <v>4796131.381436289</v>
       </c>
       <c r="E383">
         <v>6039354.658159154</v>
@@ -6882,10 +6882,10 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>4454253.35000777</v>
+        <v>4454253.350007769</v>
       </c>
       <c r="C384">
-        <v>4910249.251240768</v>
+        <v>4910249.251240769</v>
       </c>
       <c r="D384">
         <v>5564425.818536396</v>
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>843656.4524050229</v>
+        <v>843656.4524050232</v>
       </c>
       <c r="C385">
         <v>1031283.962205139</v>
       </c>
       <c r="D385">
-        <v>1267435.055834542</v>
+        <v>1267435.055834541</v>
       </c>
       <c r="E385">
-        <v>1537009.530049847</v>
+        <v>1537009.530049846</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6925,7 +6925,7 @@
         <v>828508.6751905149</v>
       </c>
       <c r="E386">
-        <v>875536.6834242913</v>
+        <v>875536.6834242917</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>806415.1105187677</v>
       </c>
       <c r="E387">
-        <v>761336.2464559055</v>
+        <v>761336.2464559057</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6967,13 +6967,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>62921.49785307139</v>
+        <v>62921.49785307138</v>
       </c>
       <c r="C389">
         <v>66484.856699881</v>
       </c>
       <c r="D389">
-        <v>88421.20150232082</v>
+        <v>88421.20150232084</v>
       </c>
       <c r="E389">
         <v>100905.2587266789</v>
@@ -6984,13 +6984,13 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>62921.49785307139</v>
+        <v>62921.49785307138</v>
       </c>
       <c r="C390">
         <v>68562.50847175228</v>
       </c>
       <c r="D390">
-        <v>88421.20150232082</v>
+        <v>88421.20150232084</v>
       </c>
       <c r="E390">
         <v>96318.65605728437</v>
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>71200.64230742288</v>
+        <v>71200.64230742287</v>
       </c>
       <c r="C392">
         <v>70640.16024362356</v>
@@ -7044,7 +7044,7 @@
         <v>192675.8242154553</v>
       </c>
       <c r="E393">
-        <v>189896.0385221322</v>
+        <v>189896.0385221321</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7061,7 +7061,7 @@
         <v>195279.5515697182</v>
       </c>
       <c r="E394">
-        <v>199235.1879576469</v>
+        <v>199235.1879576468</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7069,10 +7069,10 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>80979.20780156125</v>
+        <v>80979.20780156124</v>
       </c>
       <c r="C395">
-        <v>98222.10392569723</v>
+        <v>98222.10392569724</v>
       </c>
       <c r="D395">
         <v>126495.1146680113</v>
@@ -7109,10 +7109,10 @@
         <v>15287.33607609444</v>
       </c>
       <c r="D397">
-        <v>22092.19086315955</v>
+        <v>22092.19086315954</v>
       </c>
       <c r="E397">
-        <v>31085.50730676428</v>
+        <v>31085.50730676427</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7126,10 +7126,10 @@
         <v>15287.33607609444</v>
       </c>
       <c r="D398">
-        <v>22092.19086315955</v>
+        <v>22092.19086315954</v>
       </c>
       <c r="E398">
-        <v>31085.50730676428</v>
+        <v>31085.50730676427</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7140,10 +7140,10 @@
         <v>711317.245018239</v>
       </c>
       <c r="C399">
-        <v>830497.7936331937</v>
+        <v>830497.7936331939</v>
       </c>
       <c r="D399">
-        <v>1130458.880641412</v>
+        <v>1130458.880641413</v>
       </c>
       <c r="E399">
         <v>1594070.823206938</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>714498.3273163221</v>
+        <v>714498.327316322</v>
       </c>
       <c r="C400">
-        <v>693777.8420461388</v>
+        <v>693777.8420461386</v>
       </c>
       <c r="D400">
         <v>806529.6288324172</v>
       </c>
       <c r="E400">
-        <v>930067.5452449713</v>
+        <v>930067.5452449711</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7174,10 +7174,10 @@
         <v>799885.9292228447</v>
       </c>
       <c r="C401">
-        <v>863066.3345599857</v>
+        <v>863066.3345599859</v>
       </c>
       <c r="D401">
-        <v>1093695.990214049</v>
+        <v>1093695.99021405</v>
       </c>
       <c r="E401">
         <v>1410139.574375368</v>
@@ -7194,7 +7194,7 @@
         <v>48237.11626543546</v>
       </c>
       <c r="D402">
-        <v>56451.19392296065</v>
+        <v>56451.19392296066</v>
       </c>
       <c r="E402">
         <v>70579.48348324453</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>679644.7503740625</v>
+        <v>679644.7503740623</v>
       </c>
       <c r="C403">
-        <v>685105.619020562</v>
+        <v>685105.6190205618</v>
       </c>
       <c r="D403">
         <v>822500.512571673</v>
       </c>
       <c r="E403">
-        <v>994009.6889805631</v>
+        <v>994009.6889805628</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,7 +7228,7 @@
         <v>146235.2630085201</v>
       </c>
       <c r="D404">
-        <v>174584.2875017247</v>
+        <v>174584.2875017248</v>
       </c>
       <c r="E404">
         <v>221229.7224977261</v>
@@ -7242,10 +7242,10 @@
         <v>155067.9300124524</v>
       </c>
       <c r="C405">
-        <v>151029.8617956847</v>
+        <v>151029.8617956846</v>
       </c>
       <c r="D405">
-        <v>168349.1343766631</v>
+        <v>168349.1343766632</v>
       </c>
       <c r="E405">
         <v>198655.2610183663</v>
@@ -7262,7 +7262,7 @@
         <v>146235.2630085201</v>
       </c>
       <c r="D406">
-        <v>174584.2875017247</v>
+        <v>174584.2875017248</v>
       </c>
       <c r="E406">
         <v>221229.7224977261</v>
@@ -7279,10 +7279,10 @@
         <v>132553.7043254656</v>
       </c>
       <c r="D407">
-        <v>169679.96629832</v>
+        <v>169679.9662983201</v>
       </c>
       <c r="E407">
-        <v>242865.8986534156</v>
+        <v>242865.8986534157</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7296,7 +7296,7 @@
         <v>145381.4821634139</v>
       </c>
       <c r="D408">
-        <v>158732.8716984284</v>
+        <v>158732.8716984285</v>
       </c>
       <c r="E408">
         <v>185040.6846883167</v>
@@ -7313,7 +7313,7 @@
         <v>134691.667298457</v>
       </c>
       <c r="D409">
-        <v>166943.1926483471</v>
+        <v>166943.1926483472</v>
       </c>
       <c r="E409">
         <v>231300.8558603959</v>
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>896649.8631060453</v>
+        <v>896649.8631060456</v>
       </c>
       <c r="C410">
-        <v>1247727.622902788</v>
+        <v>1247727.622902787</v>
       </c>
       <c r="D410">
         <v>2014239.2240222</v>
       </c>
       <c r="E410">
-        <v>2926864.307624807</v>
+        <v>2926864.307624809</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>263126.4487722501</v>
+        <v>263126.44877225</v>
       </c>
       <c r="C412">
-        <v>321853.6042683409</v>
+        <v>321853.604268341</v>
       </c>
       <c r="D412">
         <v>496596.3844327606</v>
       </c>
       <c r="E412">
-        <v>679474.6648861177</v>
+        <v>679474.6648861176</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>896649.8631060453</v>
+        <v>896649.8631060456</v>
       </c>
       <c r="C414">
-        <v>1247727.622902788</v>
+        <v>1247727.622902787</v>
       </c>
       <c r="D414">
         <v>2014239.2240222</v>
       </c>
       <c r="E414">
-        <v>2926864.307624807</v>
+        <v>2926864.307624809</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7412,13 +7412,13 @@
         <v>395482.2338416664</v>
       </c>
       <c r="C415">
-        <v>485408.6335588735</v>
+        <v>485408.6335588734</v>
       </c>
       <c r="D415">
         <v>697388.5771455939</v>
       </c>
       <c r="E415">
-        <v>946074.123143708</v>
+        <v>946074.1231437078</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,13 +7429,13 @@
         <v>446843.5629120127</v>
       </c>
       <c r="C416">
-        <v>519592.3401475265</v>
+        <v>519592.3401475264</v>
       </c>
       <c r="D416">
         <v>675595.1841097941</v>
       </c>
       <c r="E416">
-        <v>780096.2068027066</v>
+        <v>780096.2068027065</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7443,7 +7443,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>58884.16976604329</v>
+        <v>58884.16976604328</v>
       </c>
       <c r="C417">
         <v>58168.97224729821</v>
@@ -7460,7 +7460,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>70661.00371925195</v>
+        <v>70661.00371925194</v>
       </c>
       <c r="C418">
         <v>63457.06063341623</v>
@@ -7469,7 +7469,7 @@
         <v>67127.46961345589</v>
       </c>
       <c r="E418">
-        <v>74634.30865529928</v>
+        <v>74634.30865529929</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7480,13 +7480,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C419">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D419">
         <v>391702.1427686399</v>
       </c>
       <c r="E419">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,13 +7497,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C420">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D420">
         <v>391702.1427686399</v>
       </c>
       <c r="E420">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C421">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D421">
         <v>391702.1427686399</v>
       </c>
       <c r="E421">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C422">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D422">
         <v>391702.1427686399</v>
       </c>
       <c r="E422">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7548,13 +7548,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C423">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D423">
         <v>391702.1427686399</v>
       </c>
       <c r="E423">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7565,13 +7565,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C424">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D424">
         <v>391702.1427686399</v>
       </c>
       <c r="E424">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C425">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D425">
         <v>391702.1427686399</v>
       </c>
       <c r="E425">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7599,13 +7599,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C426">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D426">
         <v>391702.1427686399</v>
       </c>
       <c r="E426">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C427">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D427">
         <v>391702.1427686399</v>
       </c>
       <c r="E427">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C428">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D428">
         <v>391702.1427686399</v>
       </c>
       <c r="E428">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7650,13 +7650,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C429">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D429">
         <v>391702.1427686399</v>
       </c>
       <c r="E429">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7667,13 +7667,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C430">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D430">
         <v>391702.1427686399</v>
       </c>
       <c r="E430">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C431">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D431">
         <v>391702.1427686399</v>
       </c>
       <c r="E431">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7701,13 +7701,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C432">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D432">
         <v>391702.1427686399</v>
       </c>
       <c r="E432">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7718,13 +7718,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C433">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D433">
         <v>391702.1427686399</v>
       </c>
       <c r="E433">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,10 +7732,10 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>226430.8558788486</v>
+        <v>226430.8558788487</v>
       </c>
       <c r="C434">
-        <v>286539.0928312306</v>
+        <v>286539.0928312305</v>
       </c>
       <c r="D434">
         <v>427722.5528118364</v>
@@ -7752,13 +7752,13 @@
         <v>267332.5038617792</v>
       </c>
       <c r="C435">
-        <v>284909.2308026325</v>
+        <v>284909.2308026323</v>
       </c>
       <c r="D435">
         <v>372117.0356302079</v>
       </c>
       <c r="E435">
-        <v>423079.9203459832</v>
+        <v>423079.9203459831</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7775,7 +7775,7 @@
         <v>19963.31282289771</v>
       </c>
       <c r="E436">
-        <v>23561.27182641197</v>
+        <v>23561.27182641198</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7789,7 +7789,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D437">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E437">
         <v>104264.1746450231</v>
@@ -7806,7 +7806,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D438">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E438">
         <v>104264.1746450231</v>
@@ -7823,7 +7823,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D439">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E439">
         <v>104264.1746450231</v>
@@ -7840,7 +7840,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D440">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E440">
         <v>104264.1746450231</v>
@@ -7857,7 +7857,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D441">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E441">
         <v>104264.1746450231</v>
@@ -7874,7 +7874,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D442">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E442">
         <v>104264.1746450231</v>
@@ -7891,7 +7891,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D443">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E443">
         <v>104264.1746450231</v>
@@ -7908,7 +7908,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D444">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E444">
         <v>104264.1746450231</v>
@@ -7925,7 +7925,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D445">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E445">
         <v>104264.1746450231</v>
@@ -7942,7 +7942,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D446">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E446">
         <v>104264.1746450231</v>
@@ -7959,7 +7959,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D447">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E447">
         <v>104264.1746450231</v>
@@ -7976,10 +7976,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D448">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E448">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7993,10 +7993,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D449">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E449">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8010,10 +8010,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D450">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E450">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8027,10 +8027,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D451">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E451">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8044,10 +8044,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D452">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E452">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>217124.2662014544</v>
       </c>
       <c r="E453">
-        <v>412512.1924294156</v>
+        <v>412512.1924294155</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C454">
         <v>361900.1834291648</v>
@@ -8081,7 +8081,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E454">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,7 +8089,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C455">
         <v>361900.1834291648</v>
@@ -8098,7 +8098,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E455">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,7 +8106,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C456">
         <v>361900.1834291648</v>
@@ -8115,7 +8115,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E456">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C457">
         <v>361900.1834291648</v>
@@ -8132,7 +8132,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E457">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C458">
         <v>361900.1834291648</v>
@@ -8149,7 +8149,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E458">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8157,7 +8157,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>347457.7572424327</v>
+        <v>347457.7572424326</v>
       </c>
       <c r="C459">
         <v>390471.2505419936</v>
@@ -8166,7 +8166,7 @@
         <v>488276.6771442645</v>
       </c>
       <c r="E459">
-        <v>561367.2565996269</v>
+        <v>561367.2565996265</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8174,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C460">
         <v>361900.1834291648</v>
@@ -8183,7 +8183,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E460">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8191,7 +8191,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C461">
         <v>361900.1834291648</v>
@@ -8200,7 +8200,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E461">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8208,7 +8208,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>347457.7572424327</v>
+        <v>347457.7572424326</v>
       </c>
       <c r="C462">
         <v>390471.2505419936</v>
@@ -8217,7 +8217,7 @@
         <v>488276.6771442645</v>
       </c>
       <c r="E462">
-        <v>561367.2565996269</v>
+        <v>561367.2565996265</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8228,13 +8228,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C463">
-        <v>265483.6014297257</v>
+        <v>265483.6014297256</v>
       </c>
       <c r="D463">
         <v>391702.1427686399</v>
       </c>
       <c r="E463">
-        <v>598147.4735925969</v>
+        <v>598147.4735925968</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8245,13 +8245,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C464">
-        <v>265483.6014297257</v>
+        <v>265483.6014297256</v>
       </c>
       <c r="D464">
         <v>391702.1427686399</v>
       </c>
       <c r="E464">
-        <v>598147.4735925969</v>
+        <v>598147.4735925968</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8265,7 +8265,7 @@
         <v>308580.561510556</v>
       </c>
       <c r="D465">
-        <v>394306.7283734117</v>
+        <v>394306.7283734116</v>
       </c>
       <c r="E465">
         <v>473075.4730610903</v>
@@ -8276,13 +8276,13 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>226430.8558788486</v>
+        <v>226430.8558788487</v>
       </c>
       <c r="C466">
         <v>277722.5053595004</v>
       </c>
       <c r="D466">
-        <v>421039.3879241515</v>
+        <v>421039.3879241514</v>
       </c>
       <c r="E466">
         <v>644187.8782108465</v>
@@ -8296,13 +8296,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C467">
-        <v>265483.6014297257</v>
+        <v>265483.6014297256</v>
       </c>
       <c r="D467">
         <v>391702.1427686399</v>
       </c>
       <c r="E467">
-        <v>598147.4735925969</v>
+        <v>598147.4735925968</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8319,7 +8319,7 @@
         <v>217124.2662014544</v>
       </c>
       <c r="E468">
-        <v>412512.1924294156</v>
+        <v>412512.1924294155</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8333,10 +8333,10 @@
         <v>137918.2882995806</v>
       </c>
       <c r="D469">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E469">
-        <v>257820.1202683848</v>
+        <v>257820.1202683847</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8350,10 +8350,10 @@
         <v>137918.2882995806</v>
       </c>
       <c r="D470">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E470">
-        <v>257820.1202683848</v>
+        <v>257820.1202683847</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8364,13 +8364,13 @@
         <v>267332.5038617792</v>
       </c>
       <c r="C471">
-        <v>291384.4405936014</v>
+        <v>291384.4405936013</v>
       </c>
       <c r="D471">
         <v>372117.0356302079</v>
       </c>
       <c r="E471">
-        <v>423079.9203459832</v>
+        <v>423079.9203459831</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,7 +8378,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>362564.6162529733</v>
+        <v>362564.6162529732</v>
       </c>
       <c r="C472">
         <v>409518.6286172128</v>
@@ -8387,7 +8387,7 @@
         <v>488276.6771442645</v>
       </c>
       <c r="E472">
-        <v>481171.9342282516</v>
+        <v>481171.9342282513</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8401,7 +8401,7 @@
         <v>312988.8552464211</v>
       </c>
       <c r="D473">
-        <v>394306.7283734117</v>
+        <v>394306.7283734116</v>
       </c>
       <c r="E473">
         <v>463010.0374640459</v>
@@ -8418,7 +8418,7 @@
         <v>312988.8552464211</v>
       </c>
       <c r="D474">
-        <v>394306.7283734117</v>
+        <v>394306.7283734116</v>
       </c>
       <c r="E474">
         <v>463010.0374640459</v>
@@ -8438,7 +8438,7 @@
         <v>19963.31282289771</v>
       </c>
       <c r="E475">
-        <v>21317.3411762775</v>
+        <v>21317.34117627751</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,7 +8449,7 @@
         <v>125832.9879900839</v>
       </c>
       <c r="C476">
-        <v>135106.9088873783</v>
+        <v>135106.9088873784</v>
       </c>
       <c r="D476">
         <v>168087.2367835967</v>
@@ -8489,7 +8489,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E478">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8503,10 +8503,10 @@
         <v>3225595.70678239</v>
       </c>
       <c r="D479">
-        <v>4040721.002579735</v>
+        <v>4040721.002579736</v>
       </c>
       <c r="E479">
-        <v>4916920.582800672</v>
+        <v>4916920.582800671</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8523,7 +8523,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E480">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8540,7 +8540,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E481">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E482">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8574,7 +8574,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E483">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8591,7 +8591,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E484">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8608,7 +8608,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E485">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8633,13 +8633,13 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>379349.9978760775</v>
+        <v>379349.9978760774</v>
       </c>
       <c r="C487">
         <v>406276.6078304878</v>
       </c>
       <c r="D487">
-        <v>453522.4338237859</v>
+        <v>453522.4338237857</v>
       </c>
       <c r="E487">
         <v>460584.6446356002</v>
@@ -8667,10 +8667,10 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>25184.00495538973</v>
+        <v>25184.00495538974</v>
       </c>
       <c r="C489">
-        <v>26161.61672640586</v>
+        <v>26161.61672640587</v>
       </c>
       <c r="D489">
         <v>35076.61779190301</v>
@@ -8690,10 +8690,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D490">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E490">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8704,13 +8704,13 @@
         <v>1502162.722532985</v>
       </c>
       <c r="C491">
-        <v>1699706.189950124</v>
+        <v>1699706.189950125</v>
       </c>
       <c r="D491">
-        <v>2240107.219638345</v>
+        <v>2240107.219638346</v>
       </c>
       <c r="E491">
-        <v>2746316.933217493</v>
+        <v>2746316.933217491</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8724,10 +8724,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D492">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E492">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8741,10 +8741,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D493">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E493">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8758,10 +8758,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D494">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E494">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>77785.49440720341</v>
       </c>
       <c r="C495">
-        <v>83172.59368091341</v>
+        <v>83172.59368091343</v>
       </c>
       <c r="D495">
         <v>101334.1803786541</v>
       </c>
       <c r="E495">
-        <v>108932.6262258785</v>
+        <v>108932.6262258784</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8792,10 +8792,10 @@
         <v>1415102.072170596</v>
       </c>
       <c r="D496">
-        <v>1927164.570389715</v>
+        <v>1927164.570389716</v>
       </c>
       <c r="E496">
-        <v>2444710.096690894</v>
+        <v>2444710.096690896</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8806,13 +8806,13 @@
         <v>77785.49440720341</v>
       </c>
       <c r="C497">
-        <v>83172.59368091341</v>
+        <v>83172.59368091343</v>
       </c>
       <c r="D497">
         <v>101334.1803786541</v>
       </c>
       <c r="E497">
-        <v>108932.6262258785</v>
+        <v>108932.6262258784</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8826,10 +8826,10 @@
         <v>152009.3995499049</v>
       </c>
       <c r="D498">
-        <v>234578.7279371669</v>
+        <v>234578.7279371668</v>
       </c>
       <c r="E498">
-        <v>344242.0967644038</v>
+        <v>344242.0967644039</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8846,7 +8846,7 @@
         <v>223228.1443273039</v>
       </c>
       <c r="E499">
-        <v>270475.9331720315</v>
+        <v>270475.9331720316</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8863,7 +8863,7 @@
         <v>223228.1443273039</v>
       </c>
       <c r="E500">
-        <v>264328.7528726672</v>
+        <v>264328.7528726673</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8880,7 +8880,7 @@
         <v>118734.280377464</v>
       </c>
       <c r="E501">
-        <v>214078.7021313103</v>
+        <v>214078.7021313102</v>
       </c>
     </row>
   </sheetData>

--- a/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/alle groepen/herkomsten/restdag/Pot_totaalproduct_OV.xlsx
@@ -397,7 +397,7 @@
         <v>1571302.123427001</v>
       </c>
       <c r="E2">
-        <v>1590932.286096055</v>
+        <v>1590932.286096056</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -422,7 +422,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C4">
         <v>108484.9604829801</v>
@@ -445,7 +445,7 @@
         <v>122045.5805433526</v>
       </c>
       <c r="D5">
-        <v>147851.3028663528</v>
+        <v>147851.3028663527</v>
       </c>
       <c r="E5">
         <v>132346.9636460285</v>
@@ -462,7 +462,7 @@
         <v>122045.5805433526</v>
       </c>
       <c r="D6">
-        <v>147851.3028663528</v>
+        <v>147851.3028663527</v>
       </c>
       <c r="E6">
         <v>122166.4279809494</v>
@@ -499,7 +499,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E8">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -516,7 +516,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E9">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -530,10 +530,10 @@
         <v>546902.4266408781</v>
       </c>
       <c r="D10">
-        <v>735096.0448817412</v>
+        <v>735096.0448817411</v>
       </c>
       <c r="E10">
-        <v>878787.3408515012</v>
+        <v>878787.3408515013</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -550,7 +550,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E11">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C12">
         <v>108484.9604829801</v>
@@ -581,10 +581,10 @@
         <v>546902.4266408781</v>
       </c>
       <c r="D13">
-        <v>735096.0448817412</v>
+        <v>735096.0448817411</v>
       </c>
       <c r="E13">
-        <v>878787.3408515012</v>
+        <v>878787.3408515013</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -592,7 +592,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C14">
         <v>108484.9604829801</v>
@@ -618,7 +618,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E15">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -626,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C16">
         <v>1274025.240780141</v>
@@ -635,7 +635,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E16">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -643,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>73745.06718427342</v>
+        <v>73745.06718427343</v>
       </c>
       <c r="C17">
         <v>108484.9604829801</v>
@@ -669,7 +669,7 @@
         <v>722199.6230417106</v>
       </c>
       <c r="E18">
-        <v>779569.415271493</v>
+        <v>779569.4152714931</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -677,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C19">
         <v>1274025.240780141</v>
@@ -686,7 +686,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E19">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -694,7 +694,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C20">
         <v>1274025.240780141</v>
@@ -703,7 +703,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E20">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -711,7 +711,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C21">
         <v>1274025.240780141</v>
@@ -720,7 +720,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E21">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -728,13 +728,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>51504.89459492845</v>
+        <v>51504.89459492847</v>
       </c>
       <c r="C22">
-        <v>58414.76154876493</v>
+        <v>58414.76154876492</v>
       </c>
       <c r="D22">
-        <v>74146.81708401344</v>
+        <v>74146.81708401343</v>
       </c>
       <c r="E22">
         <v>81121.3973131415</v>
@@ -745,7 +745,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>943823.293942042</v>
+        <v>943823.2939420419</v>
       </c>
       <c r="C23">
         <v>1274025.240780141</v>
@@ -754,7 +754,7 @@
         <v>1655264.832312413</v>
       </c>
       <c r="E23">
-        <v>1883998.759850591</v>
+        <v>1883998.759850592</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -762,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>463744.0856552624</v>
+        <v>463744.0856552625</v>
       </c>
       <c r="C24">
         <v>500328.3458683122</v>
@@ -771,7 +771,7 @@
         <v>563412.8303030919</v>
       </c>
       <c r="E24">
-        <v>539499.0367485761</v>
+        <v>539499.036748576</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -779,16 +779,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>545968.214317543</v>
+        <v>545968.2143175431</v>
       </c>
       <c r="C25">
-        <v>532095.2249710622</v>
+        <v>532095.2249710623</v>
       </c>
       <c r="D25">
         <v>532958.0827191409</v>
       </c>
       <c r="E25">
-        <v>414562.4177120638</v>
+        <v>414562.4177120637</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -796,16 +796,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>545968.214317543</v>
+        <v>545968.2143175431</v>
       </c>
       <c r="C26">
-        <v>532095.2249710622</v>
+        <v>532095.2249710623</v>
       </c>
       <c r="D26">
         <v>532958.0827191409</v>
       </c>
       <c r="E26">
-        <v>414562.4177120638</v>
+        <v>414562.4177120637</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -819,7 +819,7 @@
         <v>222143.2225548545</v>
       </c>
       <c r="D27">
-        <v>298426.0430052121</v>
+        <v>298426.0430052122</v>
       </c>
       <c r="E27">
         <v>331510.7065081056</v>
@@ -830,10 +830,10 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>218769.5111131992</v>
+        <v>218769.5111131991</v>
       </c>
       <c r="C28">
-        <v>238908.7487854096</v>
+        <v>238908.7487854095</v>
       </c>
       <c r="D28">
         <v>280871.5698872585</v>
@@ -847,10 +847,10 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>218769.5111131992</v>
+        <v>218769.5111131991</v>
       </c>
       <c r="C29">
-        <v>238908.7487854096</v>
+        <v>238908.7487854095</v>
       </c>
       <c r="D29">
         <v>280871.5698872585</v>
@@ -867,10 +867,10 @@
         <v>2236555.236330668</v>
       </c>
       <c r="C30">
-        <v>2933736.254006588</v>
+        <v>2933736.254006589</v>
       </c>
       <c r="D30">
-        <v>4012401.52979081</v>
+        <v>4012401.529790811</v>
       </c>
       <c r="E30">
         <v>5491596.865235534</v>
@@ -881,13 +881,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1902357.327453672</v>
+        <v>1902357.327453671</v>
       </c>
       <c r="C31">
-        <v>2675825.374533481</v>
+        <v>2675825.374533482</v>
       </c>
       <c r="D31">
-        <v>4147651.019559039</v>
+        <v>4147651.019559041</v>
       </c>
       <c r="E31">
         <v>6487149.513319169</v>
@@ -898,13 +898,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1465329.292768369</v>
+        <v>1465329.292768368</v>
       </c>
       <c r="C32">
-        <v>2321197.91525796</v>
+        <v>2321197.915257961</v>
       </c>
       <c r="D32">
-        <v>4282900.509327269</v>
+        <v>4282900.50932727</v>
       </c>
       <c r="E32">
         <v>7868077.380015823</v>
@@ -915,13 +915,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>2069456.28189217</v>
+        <v>2069456.281892169</v>
       </c>
       <c r="C33">
-        <v>2788661.384302965</v>
+        <v>2788661.384302967</v>
       </c>
       <c r="D33">
-        <v>4057484.693046886</v>
+        <v>4057484.693046887</v>
       </c>
       <c r="E33">
         <v>6005430.490052894</v>
@@ -952,13 +952,13 @@
         <v>6530339.402176538</v>
       </c>
       <c r="C35">
-        <v>8813940.795714822</v>
+        <v>8813940.795714824</v>
       </c>
       <c r="D35">
-        <v>13642228.20286057</v>
+        <v>13642228.20286058</v>
       </c>
       <c r="E35">
-        <v>22150388.96458702</v>
+        <v>22150388.96458701</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -972,10 +972,10 @@
         <v>2214381.304800579</v>
       </c>
       <c r="D36">
-        <v>3381073.849046669</v>
+        <v>3381073.849046668</v>
       </c>
       <c r="E36">
-        <v>5139341.426165478</v>
+        <v>5139341.426165481</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -992,7 +992,7 @@
         <v>2481646.494095068</v>
       </c>
       <c r="E37">
-        <v>3364656.932086262</v>
+        <v>3364656.932086261</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1009,7 +1009,7 @@
         <v>2663785.686322229</v>
       </c>
       <c r="E38">
-        <v>4769319.534801886</v>
+        <v>4769319.534801885</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1017,13 +1017,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>2050568.548835899</v>
+        <v>2050568.548835898</v>
       </c>
       <c r="C39">
-        <v>2323368.36981928</v>
+        <v>2323368.369819281</v>
       </c>
       <c r="D39">
-        <v>2810741.846084108</v>
+        <v>2810741.846084109</v>
       </c>
       <c r="E39">
         <v>3441618.665771434</v>
@@ -1037,13 +1037,13 @@
         <v>8496173.531491539</v>
       </c>
       <c r="C40">
-        <v>9859662.58503692</v>
+        <v>9859662.585036922</v>
       </c>
       <c r="D40">
         <v>12878083.62477613</v>
       </c>
       <c r="E40">
-        <v>17548947.13096937</v>
+        <v>17548947.13096936</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1060,7 +1060,7 @@
         <v>12181363.56828737</v>
       </c>
       <c r="E41">
-        <v>14597677.54113185</v>
+        <v>14597677.54113184</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1068,7 +1068,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>935711.8886323407</v>
+        <v>935711.8886323402</v>
       </c>
       <c r="C42">
         <v>1446186.994093635</v>
@@ -1077,7 +1077,7 @@
         <v>2474744.888275282</v>
       </c>
       <c r="E42">
-        <v>4340131.431649951</v>
+        <v>4340131.43164995</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1088,13 +1088,13 @@
         <v>1074335.872133428</v>
       </c>
       <c r="C43">
-        <v>1503461.726532987</v>
+        <v>1503461.726532986</v>
       </c>
       <c r="D43">
         <v>2413890.505776709</v>
       </c>
       <c r="E43">
-        <v>4042862.155509544</v>
+        <v>4042862.155509542</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1105,13 +1105,13 @@
         <v>2795061.039198797</v>
       </c>
       <c r="C44">
-        <v>3122683.579845592</v>
+        <v>3122683.579845593</v>
       </c>
       <c r="D44">
-        <v>4033445.571767747</v>
+        <v>4033445.571767746</v>
       </c>
       <c r="E44">
-        <v>5148427.867242165</v>
+        <v>5148427.867242166</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1119,10 +1119,10 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>533552.3169666351</v>
+        <v>533552.3169666352</v>
       </c>
       <c r="C45">
-        <v>738483.7671821117</v>
+        <v>738483.767182112</v>
       </c>
       <c r="D45">
         <v>1183236.589031848</v>
@@ -1145,7 +1145,7 @@
         <v>2641018.287293835</v>
       </c>
       <c r="E46">
-        <v>4279320.952459226</v>
+        <v>4279320.952459225</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1159,10 +1159,10 @@
         <v>2411552.242899261</v>
       </c>
       <c r="D47">
-        <v>3095658.524127145</v>
+        <v>3095658.524127144</v>
       </c>
       <c r="E47">
-        <v>3862486.413453558</v>
+        <v>3862486.41345356</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1170,10 +1170,10 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>742788.5196986487</v>
+        <v>742788.5196986489</v>
       </c>
       <c r="C48">
-        <v>843981.4482081278</v>
+        <v>843981.448208128</v>
       </c>
       <c r="D48">
         <v>1086249.9833735</v>
@@ -1210,10 +1210,10 @@
         <v>3681109.708934406</v>
       </c>
       <c r="D50">
-        <v>5638995.859898906</v>
+        <v>5638995.859898904</v>
       </c>
       <c r="E50">
-        <v>7866523.486434988</v>
+        <v>7866523.486434986</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1224,13 +1224,13 @@
         <v>635844.5245886151</v>
       </c>
       <c r="C51">
-        <v>765367.0328620895</v>
+        <v>765367.0328620896</v>
       </c>
       <c r="D51">
-        <v>952847.8170297152</v>
+        <v>952847.8170297151</v>
       </c>
       <c r="E51">
-        <v>994035.6646465606</v>
+        <v>994035.6646465607</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1241,13 +1241,13 @@
         <v>513117.7126852475</v>
       </c>
       <c r="C52">
-        <v>656561.4767794411</v>
+        <v>656561.476779441</v>
       </c>
       <c r="D52">
-        <v>868107.1473185604</v>
+        <v>868107.1473185605</v>
       </c>
       <c r="E52">
-        <v>945834.7572392004</v>
+        <v>945834.7572392009</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1255,13 +1255,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>630488.9794972409</v>
+        <v>630488.9794972411</v>
       </c>
       <c r="C53">
-        <v>882678.9279479454</v>
+        <v>882678.9279479453</v>
       </c>
       <c r="D53">
-        <v>1308036.507878497</v>
+        <v>1308036.507878498</v>
       </c>
       <c r="E53">
         <v>1656251.570438639</v>
@@ -1275,7 +1275,7 @@
         <v>498004.1031742999</v>
       </c>
       <c r="C54">
-        <v>665536.5503148604</v>
+        <v>665536.5503148605</v>
       </c>
       <c r="D54">
         <v>1011484.605770005</v>
@@ -1295,10 +1295,10 @@
         <v>4552951.482103081</v>
       </c>
       <c r="D55">
-        <v>5121493.075287931</v>
+        <v>5121493.075287929</v>
       </c>
       <c r="E55">
-        <v>5015428.995319662</v>
+        <v>5015428.995319661</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1309,13 +1309,13 @@
         <v>1719255.756246135</v>
       </c>
       <c r="C56">
-        <v>2806007.385440932</v>
+        <v>2806007.385440933</v>
       </c>
       <c r="D56">
         <v>4236627.395250982</v>
       </c>
       <c r="E56">
-        <v>5380770.27689607</v>
+        <v>5380770.276896071</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1326,13 +1326,13 @@
         <v>1432703.881421503</v>
       </c>
       <c r="C57">
-        <v>1870256.001757931</v>
+        <v>1870256.00175793</v>
       </c>
       <c r="D57">
         <v>2716803.201258521</v>
       </c>
       <c r="E57">
-        <v>3446170.515545078</v>
+        <v>3446170.515545077</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1340,16 +1340,16 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>238848.7941688548</v>
+        <v>238848.7941688549</v>
       </c>
       <c r="C58">
         <v>290574.3552510781</v>
       </c>
       <c r="D58">
-        <v>361371.4074748405</v>
+        <v>361371.4074748404</v>
       </c>
       <c r="E58">
-        <v>385268.8089657501</v>
+        <v>385268.80896575</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1357,16 +1357,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>238848.7941688548</v>
+        <v>238848.7941688549</v>
       </c>
       <c r="C59">
         <v>290574.3552510781</v>
       </c>
       <c r="D59">
-        <v>361371.4074748405</v>
+        <v>361371.4074748404</v>
       </c>
       <c r="E59">
-        <v>385268.8089657501</v>
+        <v>385268.80896575</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1377,13 +1377,13 @@
         <v>597143.9418098646</v>
       </c>
       <c r="C60">
-        <v>686469.9821318808</v>
+        <v>686469.9821318807</v>
       </c>
       <c r="D60">
-        <v>801095.1857638052</v>
+        <v>801095.1857638051</v>
       </c>
       <c r="E60">
-        <v>805258.2323118753</v>
+        <v>805258.2323118757</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1394,13 +1394,13 @@
         <v>688013.6720852788</v>
       </c>
       <c r="C61">
-        <v>718965.6025878278</v>
+        <v>718965.6025878277</v>
       </c>
       <c r="D61">
-        <v>764681.7682290868</v>
+        <v>764681.7682290867</v>
       </c>
       <c r="E61">
-        <v>672014.064375378</v>
+        <v>672014.0643753782</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1414,7 +1414,7 @@
         <v>104586.0475139546</v>
       </c>
       <c r="D62">
-        <v>141349.378328929</v>
+        <v>141349.3783289289</v>
       </c>
       <c r="E62">
         <v>148525.6066705122</v>
@@ -1425,7 +1425,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>96785.88252457413</v>
+        <v>96785.88252457415</v>
       </c>
       <c r="C63">
         <v>115405.2938085016</v>
@@ -1434,7 +1434,7 @@
         <v>131430.123709355</v>
       </c>
       <c r="E63">
-        <v>111394.2050028841</v>
+        <v>111394.2050028842</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1442,7 +1442,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>73141.18156621359</v>
+        <v>73141.18156621361</v>
       </c>
       <c r="C64">
         <v>92915.192601074</v>
@@ -1479,13 +1479,13 @@
         <v>648140.53373922</v>
       </c>
       <c r="C66">
-        <v>909799.4123530054</v>
+        <v>909799.4123530053</v>
       </c>
       <c r="D66">
-        <v>1377022.43802069</v>
+        <v>1377022.438020689</v>
       </c>
       <c r="E66">
-        <v>1989583.540618634</v>
+        <v>1989583.540618635</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1496,13 +1496,13 @@
         <v>415474.7011148846</v>
       </c>
       <c r="C67">
-        <v>712493.5156981368</v>
+        <v>712493.5156981366</v>
       </c>
       <c r="D67">
         <v>1475381.183593596</v>
       </c>
       <c r="E67">
-        <v>2832230.687233585</v>
+        <v>2832230.687233586</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1513,13 +1513,13 @@
         <v>523498.1234047547</v>
       </c>
       <c r="C68">
-        <v>789223.5866194746</v>
+        <v>789223.5866194745</v>
       </c>
       <c r="D68">
         <v>1426201.810807143</v>
       </c>
       <c r="E68">
-        <v>2481127.709477355</v>
+        <v>2481127.709477357</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1530,13 +1530,13 @@
         <v>598283.5696054338</v>
       </c>
       <c r="C69">
-        <v>844030.7801347158</v>
+        <v>844030.7801347157</v>
       </c>
       <c r="D69">
-        <v>1393415.562282841</v>
+        <v>1393415.56228284</v>
       </c>
       <c r="E69">
-        <v>2247059.057639869</v>
+        <v>2247059.05763987</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1547,13 +1547,13 @@
         <v>473641.1592709685</v>
       </c>
       <c r="C70">
-        <v>778262.1479164263</v>
+        <v>778262.1479164262</v>
       </c>
       <c r="D70">
         <v>1458988.059331445</v>
       </c>
       <c r="E70">
-        <v>2551348.305028601</v>
+        <v>2551348.305028602</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1564,13 +1564,13 @@
         <v>2578745.989558088</v>
       </c>
       <c r="C71">
-        <v>3068962.749164425</v>
+        <v>3068962.749164424</v>
       </c>
       <c r="D71">
-        <v>4282123.510528822</v>
+        <v>4282123.510528823</v>
       </c>
       <c r="E71">
-        <v>5754823.080927576</v>
+        <v>5754823.080927575</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1581,13 +1581,13 @@
         <v>731235.473962197</v>
       </c>
       <c r="C72">
-        <v>942683.7284621502</v>
+        <v>942683.72846215</v>
       </c>
       <c r="D72">
         <v>1344236.189496387</v>
       </c>
       <c r="E72">
-        <v>1802328.619148645</v>
+        <v>1802328.619148646</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1598,7 +1598,7 @@
         <v>764473.4500513878</v>
       </c>
       <c r="C73">
-        <v>931722.2897591019</v>
+        <v>931722.2897591017</v>
       </c>
       <c r="D73">
         <v>1327843.065234236</v>
@@ -1615,10 +1615,10 @@
         <v>797711.4261405785</v>
       </c>
       <c r="C74">
-        <v>997490.9219773915</v>
+        <v>997490.9219773912</v>
       </c>
       <c r="D74">
-        <v>1311449.940972086</v>
+        <v>1311449.940972085</v>
       </c>
       <c r="E74">
         <v>1568259.967311159</v>
@@ -1629,16 +1629,16 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>597112.7809176472</v>
+        <v>597112.7809176468</v>
       </c>
       <c r="C75">
-        <v>684266.8385184965</v>
+        <v>684266.8385184966</v>
       </c>
       <c r="D75">
         <v>859570.3673922073</v>
       </c>
       <c r="E75">
-        <v>892464.8335861195</v>
+        <v>892464.8335861192</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1649,13 +1649,13 @@
         <v>648140.53373922</v>
       </c>
       <c r="C76">
-        <v>909799.4123530054</v>
+        <v>909799.4123530053</v>
       </c>
       <c r="D76">
-        <v>1377022.43802069</v>
+        <v>1377022.438020689</v>
       </c>
       <c r="E76">
-        <v>1989583.540618634</v>
+        <v>1989583.540618635</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1669,10 +1669,10 @@
         <v>1920289.165808303</v>
       </c>
       <c r="D77">
-        <v>2787232.764717957</v>
+        <v>2787232.764717958</v>
       </c>
       <c r="E77">
-        <v>3880274.568528575</v>
+        <v>3880274.568528576</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1683,13 +1683,13 @@
         <v>997498.8539312716</v>
       </c>
       <c r="C78">
-        <v>1818146.125073819</v>
+        <v>1818146.125073818</v>
       </c>
       <c r="D78">
-        <v>3062893.148041711</v>
+        <v>3062893.148041712</v>
       </c>
       <c r="E78">
-        <v>4822940.141673936</v>
+        <v>4822940.141673937</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1700,10 +1700,10 @@
         <v>1855811.821267482</v>
       </c>
       <c r="C79">
-        <v>2032646.510616236</v>
+        <v>2032646.510616235</v>
       </c>
       <c r="D79">
-        <v>2603459.175835454</v>
+        <v>2603459.175835455</v>
       </c>
       <c r="E79">
         <v>3091066.181709204</v>
@@ -1717,10 +1717,10 @@
         <v>1747556.131693545</v>
       </c>
       <c r="C80">
-        <v>1981574.990248994</v>
+        <v>1981574.990248993</v>
       </c>
       <c r="D80">
-        <v>2664717.038796289</v>
+        <v>2664717.03879629</v>
       </c>
       <c r="E80">
         <v>3332213.188792901</v>
@@ -1731,10 +1731,10 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>399544.2105143793</v>
+        <v>399544.2105143794</v>
       </c>
       <c r="C81">
-        <v>501184.7606140869</v>
+        <v>501184.7606140867</v>
       </c>
       <c r="D81">
         <v>751821.6597116392</v>
@@ -1748,10 +1748,10 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>446549.4117513651</v>
+        <v>446549.4117513652</v>
       </c>
       <c r="C82">
-        <v>561934.4285673095</v>
+        <v>561934.4285673094</v>
       </c>
       <c r="D82">
         <v>729709.2579554145</v>
@@ -1768,7 +1768,7 @@
         <v>368782.7684457726</v>
       </c>
       <c r="C83">
-        <v>568234.4100777917</v>
+        <v>568234.4100777915</v>
       </c>
       <c r="D83">
         <v>1005169.39109711</v>
@@ -1782,10 +1782,10 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>633028.6891431372</v>
+        <v>633028.6891431373</v>
       </c>
       <c r="C84">
-        <v>692418.089101415</v>
+        <v>692418.0891014148</v>
       </c>
       <c r="D84">
         <v>877344.3818246454</v>
@@ -1799,13 +1799,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>387039.0082210737</v>
+        <v>387039.0082210735</v>
       </c>
       <c r="C85">
-        <v>405399.5843812993</v>
+        <v>405399.5843812992</v>
       </c>
       <c r="D85">
-        <v>530733.5947823795</v>
+        <v>530733.5947823796</v>
       </c>
       <c r="E85">
         <v>704804.4908879114</v>
@@ -1819,7 +1819,7 @@
         <v>395545.3600501082</v>
       </c>
       <c r="C86">
-        <v>420602.068795598</v>
+        <v>420602.0687955979</v>
       </c>
       <c r="D86">
         <v>523463.2715661825</v>
@@ -1833,13 +1833,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>43692.64142436625</v>
+        <v>43692.64142436627</v>
       </c>
       <c r="C87">
-        <v>56317.62049962999</v>
+        <v>56317.62049962997</v>
       </c>
       <c r="D87">
-        <v>93867.09873880043</v>
+        <v>93867.09873880039</v>
       </c>
       <c r="E87">
         <v>157517.8674409231</v>
@@ -1850,16 +1850,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>40679.35580889272</v>
+        <v>40679.35580889273</v>
       </c>
       <c r="C88">
-        <v>54375.63358584965</v>
+        <v>54375.63358584963</v>
       </c>
       <c r="D88">
-        <v>97219.49512232901</v>
+        <v>97219.49512232898</v>
       </c>
       <c r="E88">
-        <v>168381.1686437454</v>
+        <v>168381.1686437453</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1867,16 +1867,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>46705.92703983979</v>
+        <v>46705.9270398398</v>
       </c>
       <c r="C89">
-        <v>58259.60741341034</v>
+        <v>58259.60741341032</v>
       </c>
       <c r="D89">
-        <v>93867.09873880043</v>
+        <v>93867.09873880039</v>
       </c>
       <c r="E89">
-        <v>141222.9156366897</v>
+        <v>141222.9156366896</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1890,7 +1890,7 @@
         <v>133754007.5907656</v>
       </c>
       <c r="D90">
-        <v>155037447.6952014</v>
+        <v>155037447.6952013</v>
       </c>
       <c r="E90">
         <v>189754823.3027409</v>
@@ -1904,10 +1904,10 @@
         <v>27380982.3027878</v>
       </c>
       <c r="C91">
-        <v>34298131.46160862</v>
+        <v>34298131.46160861</v>
       </c>
       <c r="D91">
-        <v>43026679.29521551</v>
+        <v>43026679.29521549</v>
       </c>
       <c r="E91">
         <v>56920198.8899562</v>
@@ -1918,13 +1918,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>24432882.43832835</v>
+        <v>24432882.43832834</v>
       </c>
       <c r="C92">
-        <v>32383007.36984367</v>
+        <v>32383007.36984366</v>
       </c>
       <c r="D92">
-        <v>44592204.01135597</v>
+        <v>44592204.01135596</v>
       </c>
       <c r="E92">
         <v>64792805.98121249</v>
@@ -1935,13 +1935,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>49309999.10280813</v>
+        <v>49309999.10280812</v>
       </c>
       <c r="C93">
-        <v>61675700.86433935</v>
+        <v>61675700.86433934</v>
       </c>
       <c r="D93">
-        <v>83578819.52298318</v>
+        <v>83578819.52298313</v>
       </c>
       <c r="E93">
         <v>120713308.7325965</v>
@@ -1952,13 +1952,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>29580052.06161089</v>
+        <v>29580052.06161088</v>
       </c>
       <c r="C94">
-        <v>46055127.25699767</v>
+        <v>46055127.25699768</v>
       </c>
       <c r="D94">
-        <v>87743156.87622218</v>
+        <v>87743156.87622215</v>
       </c>
       <c r="E94">
         <v>160307642.5378546</v>
@@ -1975,7 +1975,7 @@
         <v>17932525.58652633</v>
       </c>
       <c r="D95">
-        <v>22775859.5799791</v>
+        <v>22775859.57997909</v>
       </c>
       <c r="E95">
         <v>30678175.25243523</v>
@@ -1986,13 +1986,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>4401957.331864116</v>
+        <v>4401957.331864115</v>
       </c>
       <c r="C96">
         <v>5788897.822834956</v>
       </c>
       <c r="D96">
-        <v>8130628.364471475</v>
+        <v>8130628.364471471</v>
       </c>
       <c r="E96">
         <v>11996353.66286673</v>
@@ -2003,13 +2003,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>4603881.980114764</v>
+        <v>4603881.980114763</v>
       </c>
       <c r="C97">
-        <v>6093576.655615744</v>
+        <v>6093576.655615743</v>
       </c>
       <c r="D97">
-        <v>8231629.959061183</v>
+        <v>8231629.959061179</v>
       </c>
       <c r="E97">
         <v>11871391.6455452</v>
@@ -2020,16 +2020,16 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>4855893.337447272</v>
+        <v>4855893.337447274</v>
       </c>
       <c r="C98">
-        <v>6895141.744903808</v>
+        <v>6895141.744903805</v>
       </c>
       <c r="D98">
-        <v>9943678.026770474</v>
+        <v>9943678.026770476</v>
       </c>
       <c r="E98">
-        <v>15238711.55900737</v>
+        <v>15238711.55900738</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2037,16 +2037,16 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2517870.619417104</v>
+        <v>2517870.619417105</v>
       </c>
       <c r="C99">
-        <v>2827782.850438078</v>
+        <v>2827782.850438077</v>
       </c>
       <c r="D99">
-        <v>3480287.309369666</v>
+        <v>3480287.309369667</v>
       </c>
       <c r="E99">
-        <v>4515173.795261444</v>
+        <v>4515173.795261445</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2057,10 +2057,10 @@
         <v>6304035.610034958</v>
       </c>
       <c r="C100">
-        <v>7003602.198583057</v>
+        <v>7003602.19858306</v>
       </c>
       <c r="D100">
-        <v>8469253.508151261</v>
+        <v>8469253.508151265</v>
       </c>
       <c r="E100">
         <v>11116054.22887137</v>
@@ -2074,10 +2074,10 @@
         <v>2995287.637917162</v>
       </c>
       <c r="C101">
-        <v>3745241.817424095</v>
+        <v>3745241.817424096</v>
       </c>
       <c r="D101">
-        <v>5046446.390867332</v>
+        <v>5046446.390867335</v>
       </c>
       <c r="E101">
         <v>7300095.314482692</v>
@@ -2091,10 +2091,10 @@
         <v>626920.6684012666</v>
       </c>
       <c r="C102">
-        <v>674143.5271363371</v>
+        <v>674143.5271363374</v>
       </c>
       <c r="D102">
-        <v>789878.5655270607</v>
+        <v>789878.565527061</v>
       </c>
       <c r="E102">
         <v>995467.5428840034</v>
@@ -2105,16 +2105,16 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3026248.216563874</v>
+        <v>3026248.216563876</v>
       </c>
       <c r="C103">
-        <v>3442724.715144125</v>
+        <v>3442724.715144126</v>
       </c>
       <c r="D103">
-        <v>4178412.048307497</v>
+        <v>4178412.048307496</v>
       </c>
       <c r="E103">
-        <v>5300907.61675871</v>
+        <v>5300907.616758711</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2122,16 +2122,16 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>7113243.23068622</v>
+        <v>7113243.230686224</v>
       </c>
       <c r="C104">
-        <v>8505555.178591367</v>
+        <v>8505555.178591369</v>
       </c>
       <c r="D104">
         <v>10824076.92513942</v>
       </c>
       <c r="E104">
-        <v>14702517.35214208</v>
+        <v>14702517.35214209</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2139,7 +2139,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>794276.4453451768</v>
+        <v>794276.4453451767</v>
       </c>
       <c r="C105">
         <v>1176146.17535183</v>
@@ -2156,7 +2156,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>779960.8805576996</v>
+        <v>779960.8805576999</v>
       </c>
       <c r="C106">
         <v>1046318.295779097</v>
@@ -2165,7 +2165,7 @@
         <v>1512187.217482713</v>
       </c>
       <c r="E106">
-        <v>2200376.746579087</v>
+        <v>2200376.746579088</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2173,13 +2173,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3369431.004009262</v>
+        <v>3369431.004009264</v>
       </c>
       <c r="C107">
-        <v>4556547.417102518</v>
+        <v>4556547.417102519</v>
       </c>
       <c r="D107">
-        <v>7083403.281892709</v>
+        <v>7083403.281892708</v>
       </c>
       <c r="E107">
         <v>11601986.48196246</v>
@@ -2190,10 +2190,10 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7479436.527000416</v>
+        <v>7479436.527000414</v>
       </c>
       <c r="C108">
-        <v>8731994.332157522</v>
+        <v>8731994.332157526</v>
       </c>
       <c r="D108">
         <v>11044260.00058196</v>
@@ -2227,10 +2227,10 @@
         <v>53172012.68685651</v>
       </c>
       <c r="C110">
-        <v>46960242.36729456</v>
+        <v>46960242.36729458</v>
       </c>
       <c r="D110">
-        <v>47806264.50419349</v>
+        <v>47806264.50419348</v>
       </c>
       <c r="E110">
         <v>48595457.51144266</v>
@@ -2247,7 +2247,7 @@
         <v>10507678.54074823</v>
       </c>
       <c r="D111">
-        <v>13774036.08106378</v>
+        <v>13774036.08106377</v>
       </c>
       <c r="E111">
         <v>19823097.51951918</v>
@@ -2267,7 +2267,7 @@
         <v>3853874.120233011</v>
       </c>
       <c r="E112">
-        <v>6153940.271488029</v>
+        <v>6153940.271488025</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2275,10 +2275,10 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>861959.033096355</v>
+        <v>861959.0330963548</v>
       </c>
       <c r="C113">
-        <v>877168.1018992242</v>
+        <v>877168.1018992243</v>
       </c>
       <c r="D113">
         <v>1046617.830769953</v>
@@ -2295,7 +2295,7 @@
         <v>1436598.388493925</v>
       </c>
       <c r="C114">
-        <v>1910973.364851881</v>
+        <v>1910973.364851882</v>
       </c>
       <c r="D114">
         <v>3102474.284068076</v>
@@ -2309,16 +2309,16 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>4051576.729930923</v>
+        <v>4051576.729930922</v>
       </c>
       <c r="C115">
         <v>4730778.23258353</v>
       </c>
       <c r="D115">
-        <v>5981533.79077832</v>
+        <v>5981533.790778318</v>
       </c>
       <c r="E115">
-        <v>8121183.473029284</v>
+        <v>8121183.473029279</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2326,16 +2326,16 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3046534.440335656</v>
+        <v>3046534.440335655</v>
       </c>
       <c r="C116">
         <v>3641678.207816099</v>
       </c>
       <c r="D116">
-        <v>4817342.650291265</v>
+        <v>4817342.650291263</v>
       </c>
       <c r="E116">
-        <v>6860130.138707967</v>
+        <v>6860130.138707963</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2343,7 +2343,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>488443.4520879345</v>
+        <v>488443.4520879344</v>
       </c>
       <c r="C117">
         <v>626548.6442137316</v>
@@ -2360,7 +2360,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>402247.548778299</v>
+        <v>402247.5487782989</v>
       </c>
       <c r="C118">
         <v>344601.7543175524</v>
@@ -2383,7 +2383,7 @@
         <v>165655.7394560847</v>
       </c>
       <c r="D119">
-        <v>199710.4599073985</v>
+        <v>199710.4599073984</v>
       </c>
       <c r="E119">
         <v>253705.7784775645</v>
@@ -2394,7 +2394,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>12951205.27427705</v>
+        <v>12951205.27427706</v>
       </c>
       <c r="C120">
         <v>17956267.51353798</v>
@@ -2411,7 +2411,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>15312474.74417287</v>
+        <v>15312474.74417288</v>
       </c>
       <c r="C121">
         <v>14950712.00698012</v>
@@ -2428,7 +2428,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>9229478.104826355</v>
+        <v>9229478.104826359</v>
       </c>
       <c r="C122">
         <v>9917039.860892545</v>
@@ -2445,7 +2445,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3786452.555826197</v>
+        <v>3786452.555826198</v>
       </c>
       <c r="C123">
         <v>4493157.218527367</v>
@@ -2454,7 +2454,7 @@
         <v>5695329.341172216</v>
       </c>
       <c r="E123">
-        <v>7699336.425061796</v>
+        <v>7699336.425061792</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2462,7 +2462,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>2129879.562652236</v>
+        <v>2129879.562652237</v>
       </c>
       <c r="C124">
         <v>2278672.589396022</v>
@@ -2471,7 +2471,7 @@
         <v>2505944.910115775</v>
       </c>
       <c r="E124">
-        <v>2917139.887756333</v>
+        <v>2917139.887756331</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2479,16 +2479,16 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>4174033.960392687</v>
+        <v>4174033.960392686</v>
       </c>
       <c r="C125">
-        <v>4497309.59785129</v>
+        <v>4497309.597851289</v>
       </c>
       <c r="D125">
-        <v>5702475.327664712</v>
+        <v>5702475.327664713</v>
       </c>
       <c r="E125">
-        <v>7694484.726486399</v>
+        <v>7694484.726486396</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2496,16 +2496,16 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3902992.794133422</v>
+        <v>3902992.79413342</v>
       </c>
       <c r="C126">
-        <v>3994321.024407396</v>
+        <v>3994321.024407394</v>
       </c>
       <c r="D126">
-        <v>4179453.966859851</v>
+        <v>4179453.966859852</v>
       </c>
       <c r="E126">
-        <v>4409704.697050684</v>
+        <v>4409704.697050683</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2516,10 +2516,10 @@
         <v>5552217.812034057</v>
       </c>
       <c r="C127">
-        <v>6676367.54731268</v>
+        <v>6676367.547312682</v>
       </c>
       <c r="D127">
-        <v>8724731.420630766</v>
+        <v>8724731.42063076</v>
       </c>
       <c r="E127">
         <v>12114753.72514286</v>
@@ -2547,10 +2547,10 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7497756.118451817</v>
+        <v>7497756.11845182</v>
       </c>
       <c r="C129">
-        <v>8457939.889609186</v>
+        <v>8457939.889609184</v>
       </c>
       <c r="D129">
         <v>10237525.70132848</v>
@@ -2564,16 +2564,16 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>2391452.68737371</v>
+        <v>2391452.687373709</v>
       </c>
       <c r="C130">
-        <v>3399085.169145654</v>
+        <v>3399085.169145657</v>
       </c>
       <c r="D130">
-        <v>4963392.009295911</v>
+        <v>4963392.00929591</v>
       </c>
       <c r="E130">
-        <v>7670441.853234739</v>
+        <v>7670441.853234741</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2581,16 +2581,16 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7681635.90489737</v>
+        <v>7681635.904897369</v>
       </c>
       <c r="C131">
-        <v>7970268.672479466</v>
+        <v>7970268.672479472</v>
       </c>
       <c r="D131">
         <v>8560712.823372763</v>
       </c>
       <c r="E131">
-        <v>9731157.574999295</v>
+        <v>9731157.574999297</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2598,16 +2598,16 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>16631466.41673535</v>
+        <v>16631466.41673534</v>
       </c>
       <c r="C132">
-        <v>20277301.18145511</v>
+        <v>20277301.18145513</v>
       </c>
       <c r="D132">
         <v>24771424.33997225</v>
       </c>
       <c r="E132">
-        <v>32456272.61779177</v>
+        <v>32456272.61779178</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2615,10 +2615,10 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7899040.694658617</v>
+        <v>7899040.694658616</v>
       </c>
       <c r="C133">
-        <v>8751667.561938237</v>
+        <v>8751667.561938243</v>
       </c>
       <c r="D133">
         <v>10154462.55112833</v>
@@ -2632,13 +2632,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>5466300.577571606</v>
+        <v>5466300.577571605</v>
       </c>
       <c r="C134">
-        <v>9547501.266975772</v>
+        <v>9547501.266975775</v>
       </c>
       <c r="D134">
-        <v>20891227.82767195</v>
+        <v>20891227.82767194</v>
       </c>
       <c r="E134">
         <v>40868590.19600916</v>
@@ -2649,7 +2649,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>8381762.942044334</v>
+        <v>8381762.942044328</v>
       </c>
       <c r="C135">
         <v>8713690.94624752</v>
@@ -2666,16 +2666,16 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>9791121.073523356</v>
+        <v>9791121.073523358</v>
       </c>
       <c r="C136">
-        <v>13295019.90992318</v>
+        <v>13295019.90992317</v>
       </c>
       <c r="D136">
         <v>18988862.73912026</v>
       </c>
       <c r="E136">
-        <v>28939281.55643656</v>
+        <v>28939281.55643655</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2683,16 +2683,16 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>2590777.741104118</v>
+        <v>2590777.741104119</v>
       </c>
       <c r="C137">
-        <v>3014990.853889682</v>
+        <v>3014990.85388968</v>
       </c>
       <c r="D137">
         <v>3687569.32657023</v>
       </c>
       <c r="E137">
-        <v>4930396.117022526</v>
+        <v>4930396.117022524</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2700,16 +2700,16 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6493767.584845387</v>
+        <v>6493767.584845388</v>
       </c>
       <c r="C138">
-        <v>7192387.820122373</v>
+        <v>7192387.82012237</v>
       </c>
       <c r="D138">
         <v>8519556.720007082</v>
       </c>
       <c r="E138">
-        <v>10932617.47687604</v>
+        <v>10932617.47687603</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2717,16 +2717,16 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>34324307.00495625</v>
+        <v>34324307.00495623</v>
       </c>
       <c r="C139">
-        <v>48832284.72675062</v>
+        <v>48832284.72675065</v>
       </c>
       <c r="D139">
-        <v>62686583.00790109</v>
+        <v>62686583.00790108</v>
       </c>
       <c r="E139">
-        <v>84996611.7935829</v>
+        <v>84996611.79358286</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2737,13 +2737,13 @@
         <v>8250457.261025506</v>
       </c>
       <c r="C140">
-        <v>12512170.47111053</v>
+        <v>12512170.47111052</v>
       </c>
       <c r="D140">
         <v>16499398.32895094</v>
       </c>
       <c r="E140">
-        <v>23088361.91223436</v>
+        <v>23088361.91223435</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2754,13 +2754,13 @@
         <v>12147125.83592991</v>
       </c>
       <c r="C141">
-        <v>16590215.1031697</v>
+        <v>16590215.10316971</v>
       </c>
       <c r="D141">
         <v>21432799.74974797</v>
       </c>
       <c r="E141">
-        <v>29495296.33119201</v>
+        <v>29495296.331192</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2768,16 +2768,16 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>1943540.133748786</v>
+        <v>1943540.133748785</v>
       </c>
       <c r="C142">
-        <v>2627409.631723708</v>
+        <v>2627409.631723709</v>
       </c>
       <c r="D142">
         <v>4051321.903915775</v>
       </c>
       <c r="E142">
-        <v>6542394.749987138</v>
+        <v>6542394.749987135</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2785,7 +2785,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>8591849.285951223</v>
+        <v>8591849.285951227</v>
       </c>
       <c r="C143">
         <v>13020314.10392119</v>
@@ -2802,10 +2802,10 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>3217921.080880608</v>
+        <v>3217921.080880609</v>
       </c>
       <c r="C144">
-        <v>4211422.351672623</v>
+        <v>4211422.351672622</v>
       </c>
       <c r="D144">
         <v>6470116.243239598</v>
@@ -2819,16 +2819,16 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>3958042.929483148</v>
+        <v>3958042.929483149</v>
       </c>
       <c r="C145">
-        <v>6352228.713772873</v>
+        <v>6352228.713772872</v>
       </c>
       <c r="D145">
         <v>12325980.94439949</v>
       </c>
       <c r="E145">
-        <v>22820530.30443974</v>
+        <v>22820530.30443975</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2836,10 +2836,10 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>6242766.89690838</v>
+        <v>6242766.896908382</v>
       </c>
       <c r="C146">
-        <v>9405509.918735527</v>
+        <v>9405509.918735525</v>
       </c>
       <c r="D146">
         <v>12366931.0472048</v>
@@ -2853,16 +2853,16 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>5595287.305139012</v>
+        <v>5595287.305139008</v>
       </c>
       <c r="C147">
-        <v>7253291.715979656</v>
+        <v>7253291.715979652</v>
       </c>
       <c r="D147">
         <v>11061941.13965229</v>
       </c>
       <c r="E147">
-        <v>17886907.12443929</v>
+        <v>17886907.1244393</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2870,13 +2870,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4903086.813781608</v>
+        <v>4903086.813781605</v>
       </c>
       <c r="C148">
-        <v>5948971.714421911</v>
+        <v>5948971.714421907</v>
       </c>
       <c r="D148">
-        <v>7462123.00607053</v>
+        <v>7462123.006070529</v>
       </c>
       <c r="E148">
         <v>10026082.15133045</v>
@@ -2887,7 +2887,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>3595221.263333916</v>
+        <v>3595221.263333917</v>
       </c>
       <c r="C149">
         <v>3870793.667732267</v>
@@ -2896,7 +2896,7 @@
         <v>4529988.163790016</v>
       </c>
       <c r="E149">
-        <v>5759414.709373358</v>
+        <v>5759414.70937336</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2913,7 +2913,7 @@
         <v>2759174.608853919</v>
       </c>
       <c r="E150">
-        <v>3651057.538977753</v>
+        <v>3651057.538977756</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2930,7 +2930,7 @@
         <v>15813776.86268515</v>
       </c>
       <c r="E151">
-        <v>15838390.45077673</v>
+        <v>15838390.45077674</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2938,7 +2938,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>3852022.782143481</v>
+        <v>3852022.782143482</v>
       </c>
       <c r="C152">
         <v>4750519.501307782</v>
@@ -2947,7 +2947,7 @@
         <v>5888984.612927021</v>
       </c>
       <c r="E152">
-        <v>7764925.188530152</v>
+        <v>7764925.188530156</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2958,7 +2958,7 @@
         <v>20146128.74193143</v>
       </c>
       <c r="C153">
-        <v>20586280.68993476</v>
+        <v>20586280.68993477</v>
       </c>
       <c r="D153">
         <v>22759600.88844891</v>
@@ -2972,13 +2972,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4039261.179889117</v>
+        <v>4039261.179889116</v>
       </c>
       <c r="C154">
-        <v>4859891.197358605</v>
+        <v>4859891.197358607</v>
       </c>
       <c r="D154">
-        <v>6024600.235177654</v>
+        <v>6024600.235177652</v>
       </c>
       <c r="E154">
         <v>8146925.289724587</v>
@@ -2989,13 +2989,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>9355165.943111971</v>
+        <v>9355165.943111973</v>
       </c>
       <c r="C155">
         <v>10307076.5937325</v>
       </c>
       <c r="D155">
-        <v>12431520.52829511</v>
+        <v>12431520.5282951</v>
       </c>
       <c r="E155">
         <v>15884035.57749408</v>
@@ -3006,16 +3006,16 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>3111136.581081423</v>
+        <v>3111136.581081424</v>
       </c>
       <c r="C156">
         <v>3806450.348764521</v>
       </c>
       <c r="D156">
-        <v>4827774.962444702</v>
+        <v>4827774.9624447</v>
       </c>
       <c r="E156">
-        <v>6494457.89621679</v>
+        <v>6494457.896216793</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3023,16 +3023,16 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>3154648.980816827</v>
+        <v>3154648.980816828</v>
       </c>
       <c r="C157">
         <v>3658147.088423046</v>
       </c>
       <c r="D157">
-        <v>4586386.214322466</v>
+        <v>4586386.214322465</v>
       </c>
       <c r="E157">
-        <v>6181471.973507548</v>
+        <v>6181471.97350755</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3046,10 +3046,10 @@
         <v>13614306.7224385</v>
       </c>
       <c r="D158">
-        <v>16190946.96747392</v>
+        <v>16190946.96747393</v>
       </c>
       <c r="E158">
-        <v>20359210.22283821</v>
+        <v>20359210.2228382</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3063,10 +3063,10 @@
         <v>13059287.02392182</v>
       </c>
       <c r="D159">
-        <v>17767737.52725166</v>
+        <v>17767737.52725167</v>
       </c>
       <c r="E159">
-        <v>26210669.69306012</v>
+        <v>26210669.69306011</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3080,7 +3080,7 @@
         <v>1961501.588652312</v>
       </c>
       <c r="D160">
-        <v>2636223.728048707</v>
+        <v>2636223.728048708</v>
       </c>
       <c r="E160">
         <v>3777373.839518046</v>
@@ -3094,7 +3094,7 @@
         <v>7292548.167740146</v>
       </c>
       <c r="C161">
-        <v>9080370.067724677</v>
+        <v>9080370.067724679</v>
       </c>
       <c r="D161">
         <v>11979254.08217865</v>
@@ -3111,7 +3111,7 @@
         <v>4290182.879813578</v>
       </c>
       <c r="C162">
-        <v>6771210.963566884</v>
+        <v>6771210.963566885</v>
       </c>
       <c r="D162">
         <v>10577440.88414605</v>
@@ -3131,7 +3131,7 @@
         <v>7289991.817835172</v>
       </c>
       <c r="D163">
-        <v>9041127.437972134</v>
+        <v>9041127.437972136</v>
       </c>
       <c r="E163">
         <v>12363051.27496967</v>
@@ -3159,16 +3159,16 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>5971648.97100299</v>
+        <v>5971648.971002992</v>
       </c>
       <c r="C165">
-        <v>6721954.966781172</v>
+        <v>6721954.966781169</v>
       </c>
       <c r="D165">
-        <v>8021433.753915559</v>
+        <v>8021433.75391556</v>
       </c>
       <c r="E165">
-        <v>9945296.41250053</v>
+        <v>9945296.412500529</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3176,13 +3176,13 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>2252464.085553759</v>
+        <v>2252464.085553761</v>
       </c>
       <c r="C166">
-        <v>3068718.571791404</v>
+        <v>3068718.571791403</v>
       </c>
       <c r="D166">
-        <v>4749533.143765791</v>
+        <v>4749533.143765792</v>
       </c>
       <c r="E166">
         <v>7636566.88817005</v>
@@ -3210,13 +3210,13 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>577388.4019371516</v>
+        <v>577388.4019371513</v>
       </c>
       <c r="C168">
-        <v>529525.1687482158</v>
+        <v>529525.1687482157</v>
       </c>
       <c r="D168">
-        <v>535889.7937848371</v>
+        <v>535889.793784837</v>
       </c>
       <c r="E168">
         <v>517075.0458536951</v>
@@ -3227,13 +3227,13 @@
         <v>168</v>
       </c>
       <c r="B169">
-        <v>5168803.146767443</v>
+        <v>5168803.146767441</v>
       </c>
       <c r="C169">
         <v>6590150.896415024</v>
       </c>
       <c r="D169">
-        <v>8803124.614693234</v>
+        <v>8803124.614693232</v>
       </c>
       <c r="E169">
         <v>12708085.4019646</v>
@@ -3247,13 +3247,13 @@
         <v>11754829.3807986</v>
       </c>
       <c r="C170">
-        <v>15597865.97982255</v>
+        <v>15597865.97982256</v>
       </c>
       <c r="D170">
         <v>21424018.61260987</v>
       </c>
       <c r="E170">
-        <v>31574083.70984054</v>
+        <v>31574083.70984057</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3261,16 +3261,16 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>4465564.623397723</v>
+        <v>4465564.623397722</v>
       </c>
       <c r="C171">
         <v>5264545.831044186</v>
       </c>
       <c r="D171">
-        <v>7558238.305544696</v>
+        <v>7558238.305544694</v>
       </c>
       <c r="E171">
-        <v>11695937.00711786</v>
+        <v>11695937.00711787</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3278,16 +3278,16 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>4258996.152463261</v>
+        <v>4258996.152463262</v>
       </c>
       <c r="C172">
-        <v>4624308.502253273</v>
+        <v>4624308.502253275</v>
       </c>
       <c r="D172">
-        <v>5226423.895414908</v>
+        <v>5226423.895414907</v>
       </c>
       <c r="E172">
-        <v>6281754.874209113</v>
+        <v>6281754.874209119</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3295,16 +3295,16 @@
         <v>172</v>
       </c>
       <c r="B173">
-        <v>10596382.42732859</v>
+        <v>10596382.4273286</v>
       </c>
       <c r="C173">
-        <v>12771899.67288999</v>
+        <v>12771899.67289</v>
       </c>
       <c r="D173">
         <v>17838950.98187072</v>
       </c>
       <c r="E173">
-        <v>27165834.67530783</v>
+        <v>27165834.67530786</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3315,13 +3315,13 @@
         <v>22465856.0002226</v>
       </c>
       <c r="C174">
-        <v>28233503.44857617</v>
+        <v>28233503.44857618</v>
       </c>
       <c r="D174">
         <v>39570960.46698482</v>
       </c>
       <c r="E174">
-        <v>59727876.2417724</v>
+        <v>59727876.24177243</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3335,10 +3335,10 @@
         <v>89313540.17856301</v>
       </c>
       <c r="D175">
-        <v>98949381.65092009</v>
+        <v>98949381.65092012</v>
       </c>
       <c r="E175">
-        <v>117154662.8537436</v>
+        <v>117154662.8537435</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3352,10 +3352,10 @@
         <v>11066261.00896669</v>
       </c>
       <c r="D176">
-        <v>14146853.61172805</v>
+        <v>14146853.61172806</v>
       </c>
       <c r="E176">
-        <v>19739407.0891428</v>
+        <v>19739407.08914278</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3366,13 +3366,13 @@
         <v>6583299.414994922</v>
       </c>
       <c r="C177">
-        <v>9597288.308661375</v>
+        <v>9597288.308661377</v>
       </c>
       <c r="D177">
         <v>15011383.55466699</v>
       </c>
       <c r="E177">
-        <v>24712712.25186189</v>
+        <v>24712712.25186188</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3383,7 +3383,7 @@
         <v>2871009.535359024</v>
       </c>
       <c r="C178">
-        <v>3915049.708475253</v>
+        <v>3915049.708475256</v>
       </c>
       <c r="D178">
         <v>5652038.578646156</v>
@@ -3406,7 +3406,7 @@
         <v>17854303.19121621</v>
       </c>
       <c r="E179">
-        <v>26027768.69490377</v>
+        <v>26027768.69490376</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3414,7 +3414,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>437610.6098926208</v>
+        <v>437610.6098926209</v>
       </c>
       <c r="C180">
         <v>472589.8376740022</v>
@@ -3423,7 +3423,7 @@
         <v>1108471.151561095</v>
       </c>
       <c r="E180">
-        <v>1423393.60050255</v>
+        <v>1423393.600502549</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3431,7 +3431,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>62515.80141323154</v>
+        <v>62515.80141323155</v>
       </c>
       <c r="C181">
         <v>67512.83395342888</v>
@@ -3440,7 +3440,7 @@
         <v>39588.25541289626</v>
       </c>
       <c r="E181">
-        <v>50835.48573223393</v>
+        <v>50835.4857322339</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3448,16 +3448,16 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>37723043.95923197</v>
+        <v>37723043.95923198</v>
       </c>
       <c r="C182">
         <v>36716444.97177666</v>
       </c>
       <c r="D182">
-        <v>40566129.1184731</v>
+        <v>40566129.11847309</v>
       </c>
       <c r="E182">
-        <v>48500189.91605589</v>
+        <v>48500189.91605593</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3474,7 +3474,7 @@
         <v>1375618.986482262</v>
       </c>
       <c r="E183">
-        <v>1289368.513152391</v>
+        <v>1289368.513152392</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3482,16 +3482,16 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>509664.6520078909</v>
+        <v>509664.6520078907</v>
       </c>
       <c r="C184">
-        <v>512033.940277729</v>
+        <v>512033.9402777292</v>
       </c>
       <c r="D184">
-        <v>490003.301839876</v>
+        <v>490003.3018398762</v>
       </c>
       <c r="E184">
-        <v>418949.0093938131</v>
+        <v>418949.009393813</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3499,10 +3499,10 @@
         <v>184</v>
       </c>
       <c r="B185">
-        <v>6574674.010901792</v>
+        <v>6574674.010901791</v>
       </c>
       <c r="C185">
-        <v>7936526.0743048</v>
+        <v>7936526.074304802</v>
       </c>
       <c r="D185">
         <v>10430070.28202022</v>
@@ -3516,16 +3516,16 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>3219649.276373551</v>
+        <v>3219649.276373553</v>
       </c>
       <c r="C186">
-        <v>4041547.466647972</v>
+        <v>4041547.466647973</v>
       </c>
       <c r="D186">
-        <v>5407198.381598597</v>
+        <v>5407198.381598599</v>
       </c>
       <c r="E186">
-        <v>8204150.684918566</v>
+        <v>8204150.684918568</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3556,7 +3556,7 @@
         <v>2923196.224535493</v>
       </c>
       <c r="D188">
-        <v>3208937.885649974</v>
+        <v>3208937.885649973</v>
       </c>
       <c r="E188">
         <v>3753256.46399352</v>
@@ -3567,16 +3567,16 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>41197256.32333587</v>
+        <v>41197256.32333586</v>
       </c>
       <c r="C189">
         <v>45012468.69325385</v>
       </c>
       <c r="D189">
-        <v>56127240.83627774</v>
+        <v>56127240.8362777</v>
       </c>
       <c r="E189">
-        <v>77176336.04086675</v>
+        <v>77176336.04086676</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3590,10 +3590,10 @@
         <v>16636076.07459224</v>
       </c>
       <c r="D190">
-        <v>21062301.39490256</v>
+        <v>21062301.39490255</v>
       </c>
       <c r="E190">
-        <v>29947858.86894829</v>
+        <v>29947858.8689483</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3601,13 +3601,13 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>658733.6851045064</v>
+        <v>658733.6851045063</v>
       </c>
       <c r="C191">
-        <v>853993.551665044</v>
+        <v>853993.5516650443</v>
       </c>
       <c r="D191">
-        <v>1198051.044015373</v>
+        <v>1198051.044015374</v>
       </c>
       <c r="E191">
         <v>1783955.360060861</v>
@@ -3618,16 +3618,16 @@
         <v>191</v>
       </c>
       <c r="B192">
-        <v>3451464.024272447</v>
+        <v>3451464.024272448</v>
       </c>
       <c r="C192">
-        <v>3901215.957389362</v>
+        <v>3901215.957389363</v>
       </c>
       <c r="D192">
-        <v>4798888.563668756</v>
+        <v>4798888.563668757</v>
       </c>
       <c r="E192">
-        <v>6331464.11553498</v>
+        <v>6331464.115534982</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3655,7 +3655,7 @@
         <v>5955746.349812033</v>
       </c>
       <c r="C194">
-        <v>7265769.125802744</v>
+        <v>7265769.125802747</v>
       </c>
       <c r="D194">
         <v>10180657.06679323</v>
@@ -3669,16 +3669,16 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>15893190.62815568</v>
+        <v>15893190.62815567</v>
       </c>
       <c r="C195">
         <v>23595770.16360092</v>
       </c>
       <c r="D195">
-        <v>32945026.96710953</v>
+        <v>32945026.96710952</v>
       </c>
       <c r="E195">
-        <v>48808044.81816491</v>
+        <v>48808044.81816494</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3689,13 +3689,13 @@
         <v>3412754.184988719</v>
       </c>
       <c r="C196">
-        <v>4266899.342139663</v>
+        <v>4266899.342139662</v>
       </c>
       <c r="D196">
-        <v>6247444.086027551</v>
+        <v>6247444.086027548</v>
       </c>
       <c r="E196">
-        <v>9929051.066607645</v>
+        <v>9929051.066607649</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3703,7 +3703,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>7091452.57716658</v>
+        <v>7091452.577166581</v>
       </c>
       <c r="C197">
         <v>8129099.555593519</v>
@@ -3729,7 +3729,7 @@
         <v>3421801.477389257</v>
       </c>
       <c r="E198">
-        <v>4550043.014399118</v>
+        <v>4550043.014399119</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3746,7 +3746,7 @@
         <v>7236913.469420956</v>
       </c>
       <c r="E199">
-        <v>9100086.028798236</v>
+        <v>9100086.028798237</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3771,10 +3771,10 @@
         <v>200</v>
       </c>
       <c r="B201">
-        <v>5295176.30230118</v>
+        <v>5295176.302301178</v>
       </c>
       <c r="C201">
-        <v>6878673.08614858</v>
+        <v>6878673.086148582</v>
       </c>
       <c r="D201">
         <v>8659703.864092674</v>
@@ -3788,16 +3788,16 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>33844223.07110175</v>
+        <v>33844223.07110177</v>
       </c>
       <c r="C202">
-        <v>51705434.36180782</v>
+        <v>51705434.36180784</v>
       </c>
       <c r="D202">
         <v>88292012.55206102</v>
       </c>
       <c r="E202">
-        <v>152462548.1547745</v>
+        <v>152462548.1547744</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3811,10 +3811,10 @@
         <v>14679407.4382566</v>
       </c>
       <c r="D203">
-        <v>19432234.05899367</v>
+        <v>19432234.05899366</v>
       </c>
       <c r="E203">
-        <v>28190521.87252924</v>
+        <v>28190521.87252925</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3822,16 +3822,16 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>4533698.300457469</v>
+        <v>4533698.300457468</v>
       </c>
       <c r="C204">
-        <v>5196810.230998518</v>
+        <v>5196810.230998516</v>
       </c>
       <c r="D204">
-        <v>6386092.210468139</v>
+        <v>6386092.210468138</v>
       </c>
       <c r="E204">
-        <v>8358542.497260153</v>
+        <v>8358542.497260155</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3839,13 +3839,13 @@
         <v>204</v>
       </c>
       <c r="B205">
-        <v>552890.0366411548</v>
+        <v>552890.0366411547</v>
       </c>
       <c r="C205">
-        <v>698986.1714208534</v>
+        <v>698986.171420853</v>
       </c>
       <c r="D205">
-        <v>933639.2120567454</v>
+        <v>933639.2120567452</v>
       </c>
       <c r="E205">
         <v>1368650.233469499</v>
@@ -3882,7 +3882,7 @@
         <v>2513546.444825314</v>
       </c>
       <c r="E207">
-        <v>2565439.818606726</v>
+        <v>2565439.818606725</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3916,7 +3916,7 @@
         <v>21480966.03080108</v>
       </c>
       <c r="E209">
-        <v>25425360.9505303</v>
+        <v>25425360.95053029</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3933,7 +3933,7 @@
         <v>2681116.207813669</v>
       </c>
       <c r="E210">
-        <v>3340416.430477508</v>
+        <v>3340416.430477507</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3947,10 +3947,10 @@
         <v>25590402.99007053</v>
       </c>
       <c r="D211">
-        <v>26794194.84159049</v>
+        <v>26794194.84159048</v>
       </c>
       <c r="E211">
-        <v>26903009.00029294</v>
+        <v>26903009.00029295</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3958,16 +3958,16 @@
         <v>211</v>
       </c>
       <c r="B212">
-        <v>9559789.091379225</v>
+        <v>9559789.091379223</v>
       </c>
       <c r="C212">
-        <v>10411245.38492686</v>
+        <v>10411245.38492687</v>
       </c>
       <c r="D212">
         <v>11950658.20079396</v>
       </c>
       <c r="E212">
-        <v>13605442.41599775</v>
+        <v>13605442.41599776</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3978,13 +3978,13 @@
         <v>1651484.311343977</v>
       </c>
       <c r="C213">
-        <v>2060186.618276069</v>
+        <v>2060186.618276068</v>
       </c>
       <c r="D213">
         <v>2585362.057534609</v>
       </c>
       <c r="E213">
-        <v>3206799.773258408</v>
+        <v>3206799.773258407</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4009,7 +4009,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>901783.543429813</v>
+        <v>901783.5434298131</v>
       </c>
       <c r="C215">
         <v>1160770.465847488</v>
@@ -4026,16 +4026,16 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>3397012.85478529</v>
+        <v>3397012.854785291</v>
       </c>
       <c r="C216">
-        <v>4196446.593684077</v>
+        <v>4196446.593684075</v>
       </c>
       <c r="D216">
-        <v>4469831.631757179</v>
+        <v>4469831.63175718</v>
       </c>
       <c r="E216">
-        <v>4432488.518842097</v>
+        <v>4432488.518842096</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4046,13 +4046,13 @@
         <v>1486710.109578029</v>
       </c>
       <c r="C217">
-        <v>2323866.726579705</v>
+        <v>2323866.726579706</v>
       </c>
       <c r="D217">
         <v>3906511.889737234</v>
       </c>
       <c r="E217">
-        <v>5927544.638374968</v>
+        <v>5927544.63837497</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4063,13 +4063,13 @@
         <v>2939631.353029284</v>
       </c>
       <c r="C218">
-        <v>3308556.017503309</v>
+        <v>3308556.01750331</v>
       </c>
       <c r="D218">
         <v>3533418.057571319</v>
       </c>
       <c r="E218">
-        <v>3551822.382518334</v>
+        <v>3551822.382518335</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4077,16 +4077,16 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>2765659.743853195</v>
+        <v>2765659.743853196</v>
       </c>
       <c r="C219">
         <v>3307329.933801073</v>
       </c>
       <c r="D219">
-        <v>3830570.301983718</v>
+        <v>3830570.301983719</v>
       </c>
       <c r="E219">
-        <v>4267602.879715325</v>
+        <v>4267602.879715323</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4094,7 +4094,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>2840248.992182329</v>
+        <v>2840248.99218233</v>
       </c>
       <c r="C220">
         <v>3297091.710740674</v>
@@ -4103,7 +4103,7 @@
         <v>3959807.578233415</v>
       </c>
       <c r="E220">
-        <v>4727365.33576104</v>
+        <v>4727365.335761041</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4111,16 +4111,16 @@
         <v>220</v>
       </c>
       <c r="B221">
-        <v>2168001.337906695</v>
+        <v>2168001.337906694</v>
       </c>
       <c r="C221">
-        <v>2372692.467674227</v>
+        <v>2372692.467674228</v>
       </c>
       <c r="D221">
-        <v>2655015.147262305</v>
+        <v>2655015.147262307</v>
       </c>
       <c r="E221">
-        <v>2950968.610266695</v>
+        <v>2950968.610266694</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4134,10 +4134,10 @@
         <v>2788533.08144012</v>
       </c>
       <c r="D222">
-        <v>3982778.39345327</v>
+        <v>3982778.393453271</v>
       </c>
       <c r="E222">
-        <v>5650894.847623052</v>
+        <v>5650894.847623049</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4148,13 +4148,13 @@
         <v>2621310.708559912</v>
       </c>
       <c r="C223">
-        <v>2508274.894398469</v>
+        <v>2508274.89439847</v>
       </c>
       <c r="D223">
-        <v>2495714.238426567</v>
+        <v>2495714.238426568</v>
       </c>
       <c r="E223">
-        <v>2354496.231595767</v>
+        <v>2354496.231595766</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4165,13 +4165,13 @@
         <v>1392833.134957857</v>
       </c>
       <c r="C224">
-        <v>1706500.821993085</v>
+        <v>1706500.821993086</v>
       </c>
       <c r="D224">
-        <v>2031560.090434468</v>
+        <v>2031560.090434467</v>
       </c>
       <c r="E224">
-        <v>2283353.752571791</v>
+        <v>2283353.752571793</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4185,10 +4185,10 @@
         <v>1807877.10844812</v>
       </c>
       <c r="D225">
-        <v>1972388.437315018</v>
+        <v>1972388.437315017</v>
       </c>
       <c r="E225">
-        <v>1975979.208956358</v>
+        <v>1975979.20895636</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4205,7 +4205,7 @@
         <v>2051283.974807618</v>
       </c>
       <c r="E226">
-        <v>2349219.72620367</v>
+        <v>2349219.726203672</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4219,10 +4219,10 @@
         <v>1919995.497707229</v>
       </c>
       <c r="D227">
-        <v>2448628.178725686</v>
+        <v>2448628.178725687</v>
       </c>
       <c r="E227">
-        <v>3035798.1870333</v>
+        <v>3035798.187033301</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4230,16 +4230,16 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>9387916.359100487</v>
+        <v>9387916.359100485</v>
       </c>
       <c r="C228">
-        <v>9412632.855822707</v>
+        <v>9412632.855822712</v>
       </c>
       <c r="D228">
         <v>8609585.191922495</v>
       </c>
       <c r="E228">
-        <v>6640608.121709431</v>
+        <v>6640608.121709428</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4253,10 +4253,10 @@
         <v>3404140.142907579</v>
       </c>
       <c r="D229">
-        <v>4009305.172961332</v>
+        <v>4009305.172961333</v>
       </c>
       <c r="E229">
-        <v>4585827.451456818</v>
+        <v>4585827.451456819</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4267,10 +4267,10 @@
         <v>2207419.544050452</v>
       </c>
       <c r="C230">
-        <v>2350095.396553521</v>
+        <v>2350095.396553522</v>
       </c>
       <c r="D230">
-        <v>2628464.995789682</v>
+        <v>2628464.995789683</v>
       </c>
       <c r="E230">
         <v>2982361.893354638</v>
@@ -4281,7 +4281,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6444149.326779923</v>
+        <v>6444149.326779922</v>
       </c>
       <c r="C231">
         <v>10098461.18881318</v>
@@ -4290,7 +4290,7 @@
         <v>13109666.00043993</v>
       </c>
       <c r="E231">
-        <v>16291495.42516469</v>
+        <v>16291495.4251647</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4307,7 +4307,7 @@
         <v>2253320.417315307</v>
       </c>
       <c r="E232">
-        <v>2948862.832170741</v>
+        <v>2948862.83217074</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4324,7 +4324,7 @@
         <v>2253320.417315307</v>
       </c>
       <c r="E233">
-        <v>2948862.832170741</v>
+        <v>2948862.83217074</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4335,7 +4335,7 @@
         <v>8279569.366007945</v>
       </c>
       <c r="C234">
-        <v>9478810.285724508</v>
+        <v>9478810.28572451</v>
       </c>
       <c r="D234">
         <v>10834509.40237214</v>
@@ -4375,7 +4375,7 @@
         <v>10122382.02381247</v>
       </c>
       <c r="E236">
-        <v>8858577.04858098</v>
+        <v>8858577.048580982</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4386,13 +4386,13 @@
         <v>1580938.290230418</v>
       </c>
       <c r="C237">
-        <v>2047995.197554377</v>
+        <v>2047995.197554378</v>
       </c>
       <c r="D237">
         <v>2490845.905945095</v>
       </c>
       <c r="E237">
-        <v>2848979.83706202</v>
+        <v>2848979.837062021</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4406,10 +4406,10 @@
         <v>2011423.854740907</v>
       </c>
       <c r="D238">
-        <v>2427519.315115982</v>
+        <v>2427519.315115983</v>
       </c>
       <c r="E238">
-        <v>2825627.54331561</v>
+        <v>2825627.543315611</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4420,13 +4420,13 @@
         <v>2402406.225350145</v>
       </c>
       <c r="C239">
-        <v>2285708.925841939</v>
+        <v>2285708.92584194</v>
       </c>
       <c r="D239">
-        <v>2195321.815409236</v>
+        <v>2195321.815409237</v>
       </c>
       <c r="E239">
-        <v>1891535.79345921</v>
+        <v>1891535.793459211</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4437,13 +4437,13 @@
         <v>1670019.9657774</v>
       </c>
       <c r="C240">
-        <v>2117790.541144564</v>
+        <v>2117790.541144565</v>
       </c>
       <c r="D240">
-        <v>2552913.486707551</v>
+        <v>2552913.48670755</v>
       </c>
       <c r="E240">
-        <v>2845300.849519646</v>
+        <v>2845300.849519647</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4451,13 +4451,13 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>436096.7820716248</v>
+        <v>436096.7820716249</v>
       </c>
       <c r="C241">
-        <v>487489.9854802386</v>
+        <v>487489.9854802387</v>
       </c>
       <c r="D241">
-        <v>468500.5106421081</v>
+        <v>468500.510642108</v>
       </c>
       <c r="E241">
         <v>407428.332614937</v>
@@ -4471,13 +4471,13 @@
         <v>1596437.348822202</v>
       </c>
       <c r="C242">
-        <v>2078930.543105037</v>
+        <v>2078930.543105038</v>
       </c>
       <c r="D242">
-        <v>2840866.207570666</v>
+        <v>2840866.207570668</v>
       </c>
       <c r="E242">
-        <v>3924160.385992946</v>
+        <v>3924160.385992944</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4491,10 +4491,10 @@
         <v>2903402.036303326</v>
       </c>
       <c r="D243">
-        <v>3614228.081172839</v>
+        <v>3614228.08117284</v>
       </c>
       <c r="E243">
-        <v>4525739.910624126</v>
+        <v>4525739.910624127</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4505,13 +4505,13 @@
         <v>2049746.71947542</v>
       </c>
       <c r="C244">
-        <v>2259707.112070693</v>
+        <v>2259707.112070694</v>
       </c>
       <c r="D244">
-        <v>2681565.298734928</v>
+        <v>2681565.29873493</v>
       </c>
       <c r="E244">
-        <v>3233508.158058187</v>
+        <v>3233508.158058186</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4528,7 +4528,7 @@
         <v>3750101.317307157</v>
       </c>
       <c r="E245">
-        <v>5411210.762702759</v>
+        <v>5411210.76270276</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4536,7 +4536,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>588963.849131919</v>
+        <v>588963.8491319187</v>
       </c>
       <c r="C246">
         <v>1005644.734524771</v>
@@ -4545,7 +4545,7 @@
         <v>2094010.53459852</v>
       </c>
       <c r="E246">
-        <v>3758248.78973928</v>
+        <v>3758248.789739282</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4553,7 +4553,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>588963.849131919</v>
+        <v>588963.8491319187</v>
       </c>
       <c r="C247">
         <v>1005644.734524771</v>
@@ -4562,7 +4562,7 @@
         <v>2094010.53459852</v>
       </c>
       <c r="E247">
-        <v>3758248.78973928</v>
+        <v>3758248.789739282</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4570,13 +4570,13 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>26152963.15086845</v>
+        <v>26152963.15086846</v>
       </c>
       <c r="C248">
-        <v>26519836.51271232</v>
+        <v>26519836.51271231</v>
       </c>
       <c r="D248">
-        <v>26626281.35556441</v>
+        <v>26626281.3555644</v>
       </c>
       <c r="E248">
         <v>24904191.06252018</v>
@@ -4587,16 +4587,16 @@
         <v>248</v>
       </c>
       <c r="B249">
-        <v>8939565.577817909</v>
+        <v>8939565.577817908</v>
       </c>
       <c r="C249">
-        <v>9113994.680608591</v>
+        <v>9113994.680608597</v>
       </c>
       <c r="D249">
         <v>8746640.817264244</v>
       </c>
       <c r="E249">
-        <v>7348424.878868381</v>
+        <v>7348424.878868379</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4610,7 +4610,7 @@
         <v>16357287.68800601</v>
       </c>
       <c r="D250">
-        <v>19270845.87185632</v>
+        <v>19270845.87185633</v>
       </c>
       <c r="E250">
         <v>22883556.09905424</v>
@@ -4621,13 +4621,13 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>7346165.6712753</v>
+        <v>7346165.671275299</v>
       </c>
       <c r="C251">
         <v>8962025.127644496</v>
       </c>
       <c r="D251">
-        <v>11526631.24226417</v>
+        <v>11526631.24226416</v>
       </c>
       <c r="E251">
         <v>15195272.73686663</v>
@@ -4658,10 +4658,10 @@
         <v>393265.1375279505</v>
       </c>
       <c r="C253">
-        <v>384619.6834453593</v>
+        <v>384619.6834453594</v>
       </c>
       <c r="D253">
-        <v>427589.4523906296</v>
+        <v>427589.4523906299</v>
       </c>
       <c r="E253">
         <v>479974.7169246254</v>
@@ -4672,16 +4672,16 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>8155831.343044054</v>
+        <v>8155831.34304405</v>
       </c>
       <c r="C254">
-        <v>8409278.209575465</v>
+        <v>8409278.209575467</v>
       </c>
       <c r="D254">
-        <v>8534743.803073503</v>
+        <v>8534743.803073501</v>
       </c>
       <c r="E254">
-        <v>8517135.805283066</v>
+        <v>8517135.805283071</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4689,13 +4689,13 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>419482.8133631471</v>
+        <v>419482.8133631472</v>
       </c>
       <c r="C255">
         <v>414205.8129411563</v>
       </c>
       <c r="D255">
-        <v>427589.4523906296</v>
+        <v>427589.4523906299</v>
       </c>
       <c r="E255">
         <v>392706.5865746936</v>
@@ -4706,10 +4706,10 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>2992306.829366155</v>
+        <v>2992306.829366156</v>
       </c>
       <c r="C256">
-        <v>3144015.919295065</v>
+        <v>3144015.919295066</v>
       </c>
       <c r="D256">
         <v>3450512.94555735</v>
@@ -4732,7 +4732,7 @@
         <v>1078296.659492127</v>
       </c>
       <c r="E257">
-        <v>1097810.696215171</v>
+        <v>1097810.69621517</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4740,10 +4740,10 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>724995.4628427618</v>
+        <v>724995.4628427619</v>
       </c>
       <c r="C258">
-        <v>862473.8921680837</v>
+        <v>862473.8921680835</v>
       </c>
       <c r="D258">
         <v>1173159.342677695</v>
@@ -4757,10 +4757,10 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>743120.3494138308</v>
+        <v>743120.349413831</v>
       </c>
       <c r="C259">
-        <v>905597.5867764879</v>
+        <v>905597.5867764875</v>
       </c>
       <c r="D259">
         <v>1145226.977375845</v>
@@ -4774,13 +4774,13 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>2533762.763402502</v>
+        <v>2533762.763402503</v>
       </c>
       <c r="C260">
         <v>3294884.928818132</v>
       </c>
       <c r="D260">
-        <v>4730236.234789097</v>
+        <v>4730236.234789099</v>
       </c>
       <c r="E260">
         <v>7177709.413905947</v>
@@ -4791,16 +4791,16 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>660400.5083600973</v>
+        <v>660400.5083600975</v>
       </c>
       <c r="C261">
-        <v>635764.8842610277</v>
+        <v>635764.8842610276</v>
       </c>
       <c r="D261">
-        <v>735575.7138244307</v>
+        <v>735575.7138244306</v>
       </c>
       <c r="E261">
-        <v>902023.9335566957</v>
+        <v>902023.9335566952</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4811,13 +4811,13 @@
         <v>534006.156924324</v>
       </c>
       <c r="C262">
-        <v>709985.9399782619</v>
+        <v>709985.9399782618</v>
       </c>
       <c r="D262">
         <v>1150459.988933867</v>
       </c>
       <c r="E262">
-        <v>2007064.747311868</v>
+        <v>2007064.747311869</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4825,10 +4825,10 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>776736.2282535621</v>
+        <v>776736.2282535622</v>
       </c>
       <c r="C263">
-        <v>825902.0118114476</v>
+        <v>825902.0118114474</v>
       </c>
       <c r="D263">
         <v>1046814.944885771</v>
@@ -4845,13 +4845,13 @@
         <v>400634.1791498985</v>
       </c>
       <c r="C264">
-        <v>446885.3877565158</v>
+        <v>446885.3877565156</v>
       </c>
       <c r="D264">
-        <v>606162.391564663</v>
+        <v>606162.3915646628</v>
       </c>
       <c r="E264">
-        <v>875237.0258365823</v>
+        <v>875237.0258365825</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4862,13 +4862,13 @@
         <v>394274.9064649794</v>
       </c>
       <c r="C265">
-        <v>446885.3877565158</v>
+        <v>446885.3877565156</v>
       </c>
       <c r="D265">
-        <v>606162.391564663</v>
+        <v>606162.3915646628</v>
       </c>
       <c r="E265">
-        <v>892398.5361471035</v>
+        <v>892398.5361471038</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4876,16 +4876,16 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>201693.9663486062</v>
+        <v>201693.9663486063</v>
       </c>
       <c r="C266">
         <v>287078.3716740456</v>
       </c>
       <c r="D266">
-        <v>453423.6927486566</v>
+        <v>453423.6927486568</v>
       </c>
       <c r="E266">
-        <v>778550.2135895879</v>
+        <v>778550.2135895883</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4896,13 +4896,13 @@
         <v>464226.9059990887</v>
       </c>
       <c r="C267">
-        <v>493114.9106278794</v>
+        <v>493114.9106278793</v>
       </c>
       <c r="D267">
-        <v>583711.9326178237</v>
+        <v>583711.9326178235</v>
       </c>
       <c r="E267">
-        <v>669298.9021103276</v>
+        <v>669298.9021103279</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4910,13 +4910,13 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>531356.7308644461</v>
+        <v>531356.7308644463</v>
       </c>
       <c r="C268">
-        <v>596029.5789947135</v>
+        <v>596029.5789947134</v>
       </c>
       <c r="D268">
-        <v>782652.5595091943</v>
+        <v>782652.5595091942</v>
       </c>
       <c r="E268">
         <v>1136203.223999299</v>
@@ -4927,16 +4927,16 @@
         <v>268</v>
       </c>
       <c r="B269">
-        <v>641423.4822577956</v>
+        <v>641423.4822577959</v>
       </c>
       <c r="C269">
-        <v>635764.8842610277</v>
+        <v>635764.8842610276</v>
       </c>
       <c r="D269">
-        <v>741460.3195350262</v>
+        <v>741460.3195350261</v>
       </c>
       <c r="E269">
-        <v>919370.5476635551</v>
+        <v>919370.5476635548</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4953,7 +4953,7 @@
         <v>472595.1118063096</v>
       </c>
       <c r="E270">
-        <v>716900.6051967365</v>
+        <v>716900.6051967366</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5001,10 +5001,10 @@
         <v>239982.6526353477</v>
       </c>
       <c r="D273">
-        <v>336213.9420744046</v>
+        <v>336213.9420744047</v>
       </c>
       <c r="E273">
-        <v>477534.7080286251</v>
+        <v>477534.7080286249</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5012,16 +5012,16 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>248366.3268635285</v>
+        <v>248366.3268635284</v>
       </c>
       <c r="C274">
         <v>261473.6364534386</v>
       </c>
       <c r="D274">
-        <v>320696.3755171244</v>
+        <v>320696.3755171245</v>
       </c>
       <c r="E274">
-        <v>363835.9680218096</v>
+        <v>363835.9680218094</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5029,13 +5029,13 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>844479.754052651</v>
+        <v>844479.7540526512</v>
       </c>
       <c r="C275">
         <v>1163134.216153946</v>
       </c>
       <c r="D275">
-        <v>1800035.014948914</v>
+        <v>1800035.014948915</v>
       </c>
       <c r="E275">
         <v>2536731.603564686</v>
@@ -5055,7 +5055,7 @@
         <v>133441.9155919985</v>
       </c>
       <c r="E276">
-        <v>170191.8966733781</v>
+        <v>170191.8966733782</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5069,7 +5069,7 @@
         <v>1535579.764186107</v>
       </c>
       <c r="D277">
-        <v>1917539.487440793</v>
+        <v>1917539.487440792</v>
       </c>
       <c r="E277">
         <v>2120563.547903562</v>
@@ -5086,7 +5086,7 @@
         <v>1090671.914331005</v>
       </c>
       <c r="D278">
-        <v>1576182.707074232</v>
+        <v>1576182.707074233</v>
       </c>
       <c r="E278">
         <v>2091070.271036719</v>
@@ -5103,10 +5103,10 @@
         <v>447915.9011266293</v>
       </c>
       <c r="D279">
-        <v>524788.4149578114</v>
+        <v>524788.4149578115</v>
       </c>
       <c r="E279">
-        <v>570646.8199918724</v>
+        <v>570646.8199918722</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5120,10 +5120,10 @@
         <v>447915.9011266293</v>
       </c>
       <c r="D280">
-        <v>524788.4149578114</v>
+        <v>524788.4149578115</v>
       </c>
       <c r="E280">
-        <v>570646.8199918724</v>
+        <v>570646.8199918722</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5134,13 +5134,13 @@
         <v>580123.4387172564</v>
       </c>
       <c r="C281">
-        <v>598413.3181459836</v>
+        <v>598413.3181459835</v>
       </c>
       <c r="D281">
         <v>675253.1435438673</v>
       </c>
       <c r="E281">
-        <v>700333.9605544371</v>
+        <v>700333.9605544375</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5157,7 +5157,7 @@
         <v>221405.8260534987</v>
       </c>
       <c r="E282">
-        <v>189423.8195826262</v>
+        <v>189423.8195826263</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5165,16 +5165,16 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>204924.4225020944</v>
+        <v>204924.4225020945</v>
       </c>
       <c r="C283">
-        <v>205515.9628470656</v>
+        <v>205515.9628470655</v>
       </c>
       <c r="D283">
         <v>227823.3862289624</v>
       </c>
       <c r="E283">
-        <v>213605.5837846636</v>
+        <v>213605.5837846637</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5185,13 +5185,13 @@
         <v>167842.8603350488</v>
       </c>
       <c r="C284">
-        <v>191342.4481679576</v>
+        <v>191342.4481679575</v>
       </c>
       <c r="D284">
-        <v>240658.5065798898</v>
+        <v>240658.5065798899</v>
       </c>
       <c r="E284">
-        <v>274059.9942897571</v>
+        <v>274059.9942897572</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5208,7 +5208,7 @@
         <v>119825.3935928149</v>
       </c>
       <c r="E285">
-        <v>113461.2644489187</v>
+        <v>113461.2644489188</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5216,16 +5216,16 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>472174.4622111936</v>
+        <v>472174.4622111935</v>
       </c>
       <c r="C286">
         <v>461913.2730368364</v>
       </c>
       <c r="D286">
-        <v>524788.4149578114</v>
+        <v>524788.4149578115</v>
       </c>
       <c r="E286">
-        <v>499315.9674928883</v>
+        <v>499315.9674928882</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5239,10 +5239,10 @@
         <v>5417215.235359079</v>
       </c>
       <c r="D287">
-        <v>7121780.682508764</v>
+        <v>7121780.682508759</v>
       </c>
       <c r="E287">
-        <v>9668806.312343458</v>
+        <v>9668806.312343454</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5250,16 +5250,16 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>1526273.621859429</v>
+        <v>1526273.62185943</v>
       </c>
       <c r="C288">
         <v>2160068.28764282</v>
       </c>
       <c r="D288">
-        <v>3371135.71871318</v>
+        <v>3371135.718713179</v>
       </c>
       <c r="E288">
-        <v>5341301.214223737</v>
+        <v>5341301.21422374</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5267,13 +5267,13 @@
         <v>288</v>
       </c>
       <c r="B289">
-        <v>46656886.36885147</v>
+        <v>46656886.36885148</v>
       </c>
       <c r="C289">
         <v>49516839.57519756</v>
       </c>
       <c r="D289">
-        <v>56327671.60010048</v>
+        <v>56327671.60010049</v>
       </c>
       <c r="E289">
         <v>66054186.77753496</v>
@@ -5290,10 +5290,10 @@
         <v>4810307.304426734</v>
       </c>
       <c r="D290">
-        <v>7321190.541619009</v>
+        <v>7321190.541619005</v>
       </c>
       <c r="E290">
-        <v>11640484.46231154</v>
+        <v>11640484.46231153</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5310,7 +5310,7 @@
         <v>3129231.924984349</v>
       </c>
       <c r="E291">
-        <v>3620060.496322575</v>
+        <v>3620060.496322576</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5321,13 +5321,13 @@
         <v>361415.5712931016</v>
       </c>
       <c r="C292">
-        <v>446194.8420546493</v>
+        <v>446194.8420546491</v>
       </c>
       <c r="D292">
         <v>611625.7736392738</v>
       </c>
       <c r="E292">
-        <v>816861.756723117</v>
+        <v>816861.7567231164</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5352,16 +5352,16 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>468501.6664910576</v>
+        <v>468501.6664910577</v>
       </c>
       <c r="C294">
-        <v>495772.046727388</v>
+        <v>495772.0467273879</v>
       </c>
       <c r="D294">
         <v>566320.1607771054</v>
       </c>
       <c r="E294">
-        <v>596937.4376053547</v>
+        <v>596937.4376053544</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5369,13 +5369,13 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>4393456.216742165</v>
+        <v>4393456.216742166</v>
       </c>
       <c r="C295">
-        <v>5610547.925261048</v>
+        <v>5610547.925261047</v>
       </c>
       <c r="D295">
-        <v>7779302.875634251</v>
+        <v>7779302.875634247</v>
       </c>
       <c r="E295">
         <v>10666565.08609176</v>
@@ -5395,7 +5395,7 @@
         <v>3420271.888817031</v>
       </c>
       <c r="E296">
-        <v>4696933.629475838</v>
+        <v>4696933.629475837</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5412,7 +5412,7 @@
         <v>3389068.07811753</v>
       </c>
       <c r="E297">
-        <v>6474007.137952038</v>
+        <v>6474007.137952034</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5423,7 +5423,7 @@
         <v>4759910.728659811</v>
       </c>
       <c r="C298">
-        <v>6624358.225972325</v>
+        <v>6624358.225972326</v>
       </c>
       <c r="D298">
         <v>9799738.895255607</v>
@@ -5440,13 +5440,13 @@
         <v>5012404.687354653</v>
       </c>
       <c r="C299">
-        <v>7523992.685216601</v>
+        <v>7523992.685216599</v>
       </c>
       <c r="D299">
         <v>11611473.15883086</v>
       </c>
       <c r="E299">
-        <v>17744427.42988335</v>
+        <v>17744427.42988336</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5454,16 +5454,16 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>5103775.485317245</v>
+        <v>5103775.485317247</v>
       </c>
       <c r="C300">
         <v>5914252.798708227</v>
       </c>
       <c r="D300">
-        <v>7470775.282832893</v>
+        <v>7470775.282832889</v>
       </c>
       <c r="E300">
-        <v>9173245.974038916</v>
+        <v>9173245.974038912</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5480,7 +5480,7 @@
         <v>3445237.377056572</v>
       </c>
       <c r="E301">
-        <v>4899678.965999974</v>
+        <v>4899678.965999973</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5491,7 +5491,7 @@
         <v>6955743.471680527</v>
       </c>
       <c r="C302">
-        <v>7398847.869307398</v>
+        <v>7398847.8693074</v>
       </c>
       <c r="D302">
         <v>8871819.046051264</v>
@@ -5508,7 +5508,7 @@
         <v>6955743.471680527</v>
       </c>
       <c r="C303">
-        <v>7398847.869307398</v>
+        <v>7398847.8693074</v>
       </c>
       <c r="D303">
         <v>8871819.046051264</v>
@@ -5522,16 +5522,16 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>769339.5409587431</v>
+        <v>769339.540958743</v>
       </c>
       <c r="C304">
-        <v>937838.5629964647</v>
+        <v>937838.5629964642</v>
       </c>
       <c r="D304">
-        <v>1225911.168760775</v>
+        <v>1225911.168760776</v>
       </c>
       <c r="E304">
-        <v>1543163.134334197</v>
+        <v>1543163.134334198</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5539,16 +5539,16 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>619745.7413278765</v>
+        <v>619745.7413278763</v>
       </c>
       <c r="C305">
-        <v>820608.7426219066</v>
+        <v>820608.7426219061</v>
       </c>
       <c r="D305">
         <v>1280802.713630661</v>
       </c>
       <c r="E305">
-        <v>2006112.074634456</v>
+        <v>2006112.074634457</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5559,13 +5559,13 @@
         <v>221301.1087433524</v>
       </c>
       <c r="C306">
-        <v>293232.3618648973</v>
+        <v>293232.3618648972</v>
       </c>
       <c r="D306">
         <v>462285.951131206</v>
       </c>
       <c r="E306">
-        <v>704042.0491361278</v>
+        <v>704042.0491361277</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5573,10 +5573,10 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>694542.6411433098</v>
+        <v>694542.6411433097</v>
       </c>
       <c r="C307">
-        <v>885736.4206077722</v>
+        <v>885736.4206077717</v>
       </c>
       <c r="D307">
         <v>1244208.350384071</v>
@@ -5599,7 +5599,7 @@
         <v>479407.6530249544</v>
       </c>
       <c r="E308">
-        <v>825428.6093320119</v>
+        <v>825428.6093320118</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5610,13 +5610,13 @@
         <v>211241.9674368364</v>
       </c>
       <c r="C309">
-        <v>293232.3618648973</v>
+        <v>293232.3618648972</v>
       </c>
       <c r="D309">
         <v>462285.951131206</v>
       </c>
       <c r="E309">
-        <v>728319.3611753046</v>
+        <v>728319.3611753045</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5624,10 +5624,10 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>822765.897969767</v>
+        <v>822765.8979697669</v>
       </c>
       <c r="C310">
-        <v>898761.9562049453</v>
+        <v>898761.9562049449</v>
       </c>
       <c r="D310">
         <v>1189316.805514185</v>
@@ -5641,16 +5641,16 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>96224.26024999126</v>
+        <v>96224.26024999129</v>
       </c>
       <c r="C311">
         <v>102646.8981180839</v>
       </c>
       <c r="D311">
-        <v>126356.3547274559</v>
+        <v>126356.3547274558</v>
       </c>
       <c r="E311">
-        <v>160410.3368608994</v>
+        <v>160410.3368608995</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5658,13 +5658,13 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>112261.6369583231</v>
+        <v>112261.6369583232</v>
       </c>
       <c r="C312">
         <v>109062.3292504641</v>
       </c>
       <c r="D312">
-        <v>121999.2390471988</v>
+        <v>121999.2390471987</v>
       </c>
       <c r="E312">
         <v>129562.1951568803</v>
@@ -5675,13 +5675,13 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>109588.7408402678</v>
+        <v>109588.7408402679</v>
       </c>
       <c r="C313">
         <v>109062.3292504641</v>
       </c>
       <c r="D313">
-        <v>121999.2390471988</v>
+        <v>121999.2390471987</v>
       </c>
       <c r="E313">
         <v>129562.1951568803</v>
@@ -5692,13 +5692,13 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>90878.46801388064</v>
+        <v>90878.46801388067</v>
       </c>
       <c r="C314">
         <v>102646.8981180839</v>
       </c>
       <c r="D314">
-        <v>130713.470407713</v>
+        <v>130713.4704077129</v>
       </c>
       <c r="E314">
         <v>172749.5935425071</v>
@@ -5712,13 +5712,13 @@
         <v>12121741.77655278</v>
       </c>
       <c r="C315">
-        <v>13469799.75573708</v>
+        <v>13469799.75573709</v>
       </c>
       <c r="D315">
         <v>16928959.531796</v>
       </c>
       <c r="E315">
-        <v>21814511.85027642</v>
+        <v>21814511.85027643</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5726,10 +5726,10 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>27110076.69756985</v>
+        <v>27110076.69756984</v>
       </c>
       <c r="C316">
-        <v>28740085.82805425</v>
+        <v>28740085.82805426</v>
       </c>
       <c r="D316">
         <v>34432904.02771848</v>
@@ -5743,16 +5743,16 @@
         <v>316</v>
       </c>
       <c r="B317">
-        <v>7094044.668275617</v>
+        <v>7094044.668275616</v>
       </c>
       <c r="C317">
-        <v>8218267.574846339</v>
+        <v>8218267.574846336</v>
       </c>
       <c r="D317">
         <v>10603370.55989033</v>
       </c>
       <c r="E317">
-        <v>14802428.15473634</v>
+        <v>14802428.15473633</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5763,10 +5763,10 @@
         <v>3401513.171344698</v>
       </c>
       <c r="C318">
-        <v>4110770.199322791</v>
+        <v>4110770.19932279</v>
       </c>
       <c r="D318">
-        <v>5296614.76491538</v>
+        <v>5296614.764915382</v>
       </c>
       <c r="E318">
         <v>7214437.006508923</v>
@@ -5777,7 +5777,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>1975884.715819885</v>
+        <v>1975884.715819886</v>
       </c>
       <c r="C319">
         <v>2478110.851644931</v>
@@ -5786,7 +5786,7 @@
         <v>3359989.388163069</v>
       </c>
       <c r="E319">
-        <v>4616749.450286083</v>
+        <v>4616749.45028608</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5794,7 +5794,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>2366560.061213984</v>
+        <v>2366560.061213983</v>
       </c>
       <c r="C320">
         <v>2756372.83795128</v>
@@ -5803,7 +5803,7 @@
         <v>3439044.279713722</v>
       </c>
       <c r="E320">
-        <v>4503373.929023629</v>
+        <v>4503373.929023631</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5814,7 +5814,7 @@
         <v>11567154.31435941</v>
       </c>
       <c r="C321">
-        <v>13502328.01329435</v>
+        <v>13502328.01329434</v>
       </c>
       <c r="D321">
         <v>16672278.54080774</v>
@@ -5828,13 +5828,13 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>6071230.740767431</v>
+        <v>6071230.74076743</v>
       </c>
       <c r="C322">
-        <v>6246384.784707766</v>
+        <v>6246384.784707767</v>
       </c>
       <c r="D322">
-        <v>7344036.551151742</v>
+        <v>7344036.551151744</v>
       </c>
       <c r="E322">
         <v>8606545.796584291</v>
@@ -5848,13 +5848,13 @@
         <v>1996907.70350984</v>
       </c>
       <c r="C323">
-        <v>2478360.861723763</v>
+        <v>2478360.861723762</v>
       </c>
       <c r="D323">
-        <v>3375067.3006987</v>
+        <v>3375067.300698699</v>
       </c>
       <c r="E323">
-        <v>4991743.05341041</v>
+        <v>4991743.053410409</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5862,16 +5862,16 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>2199126.20513109</v>
+        <v>2199126.205131089</v>
       </c>
       <c r="C324">
-        <v>2560972.890447889</v>
+        <v>2560972.890447887</v>
       </c>
       <c r="D324">
         <v>3308234.28484328</v>
       </c>
       <c r="E324">
-        <v>4638345.315115868</v>
+        <v>4638345.315115867</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5882,13 +5882,13 @@
         <v>1845243.827293903</v>
       </c>
       <c r="C325">
-        <v>2368211.490091596</v>
+        <v>2368211.490091595</v>
       </c>
       <c r="D325">
-        <v>3408483.80862641</v>
+        <v>3408483.808626409</v>
       </c>
       <c r="E325">
-        <v>5345140.791704953</v>
+        <v>5345140.791704952</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5899,13 +5899,13 @@
         <v>4207257.116496105</v>
       </c>
       <c r="C326">
-        <v>5710369.479770865</v>
+        <v>5710369.479770866</v>
       </c>
       <c r="D326">
-        <v>7947604.732408192</v>
+        <v>7947604.732408194</v>
       </c>
       <c r="E326">
-        <v>11977117.57496718</v>
+        <v>11977117.57496717</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5922,7 +5922,7 @@
         <v>2475682.810300167</v>
       </c>
       <c r="E327">
-        <v>3926597.473958102</v>
+        <v>3926597.473958101</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5939,7 +5939,7 @@
         <v>2394512.882093604</v>
       </c>
       <c r="E328">
-        <v>3748115.77059637</v>
+        <v>3748115.770596369</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5953,10 +5953,10 @@
         <v>14263.9737998754</v>
       </c>
       <c r="D329">
-        <v>19588.12442730542</v>
+        <v>19588.12442730541</v>
       </c>
       <c r="E329">
-        <v>28542.20819251725</v>
+        <v>28542.20819251724</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5967,13 +5967,13 @@
         <v>1715119.586995483</v>
       </c>
       <c r="C330">
-        <v>1825779.650361956</v>
+        <v>1825779.650361957</v>
       </c>
       <c r="D330">
         <v>2211880.543628837</v>
       </c>
       <c r="E330">
-        <v>2736719.451546556</v>
+        <v>2736719.451546555</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -5984,13 +5984,13 @@
         <v>1484004.181655666</v>
       </c>
       <c r="C331">
-        <v>1738142.227144582</v>
+        <v>1738142.227144583</v>
       </c>
       <c r="D331">
-        <v>2333635.435938681</v>
+        <v>2333635.435938682</v>
       </c>
       <c r="E331">
-        <v>3242417.611071463</v>
+        <v>3242417.611071462</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -5998,16 +5998,16 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>4004937.781204063</v>
+        <v>4004937.78120406</v>
       </c>
       <c r="C332">
-        <v>4740545.897961162</v>
+        <v>4740545.897961165</v>
       </c>
       <c r="D332">
-        <v>6377421.001174481</v>
+        <v>6377421.001174483</v>
       </c>
       <c r="E332">
-        <v>9092569.48411271</v>
+        <v>9092569.484112715</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6015,13 +6015,13 @@
         <v>332</v>
       </c>
       <c r="B333">
-        <v>3980712.89227662</v>
+        <v>3980712.892276621</v>
       </c>
       <c r="C333">
-        <v>4917489.455549433</v>
+        <v>4917489.455549434</v>
       </c>
       <c r="D333">
-        <v>6503359.062594909</v>
+        <v>6503359.062594908</v>
       </c>
       <c r="E333">
         <v>9103289.023261877</v>
@@ -6032,7 +6032,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>7830927.418281718</v>
+        <v>7830927.418281725</v>
       </c>
       <c r="C334">
         <v>9028798.55584114</v>
@@ -6041,7 +6041,7 @@
         <v>11632581.41053858</v>
       </c>
       <c r="E334">
-        <v>15841531.05062955</v>
+        <v>15841531.05062954</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6049,16 +6049,16 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3141860.94105775</v>
+        <v>3141860.941057751</v>
       </c>
       <c r="C335">
-        <v>4085946.284628072</v>
+        <v>4085946.284628074</v>
       </c>
       <c r="D335">
         <v>6260616.081158321</v>
       </c>
       <c r="E335">
-        <v>9953272.751369372</v>
+        <v>9953272.751369366</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6069,10 +6069,10 @@
         <v>2447314.266450509</v>
       </c>
       <c r="C336">
-        <v>2611304.03541609</v>
+        <v>2611304.035416091</v>
       </c>
       <c r="D336">
-        <v>3181126.4869006</v>
+        <v>3181126.486900601</v>
       </c>
       <c r="E336">
         <v>4026088.928003144</v>
@@ -6086,10 +6086,10 @@
         <v>2568361.965410032</v>
       </c>
       <c r="C337">
-        <v>3663974.430897745</v>
+        <v>3663974.430897744</v>
       </c>
       <c r="D337">
-        <v>5299806.601755146</v>
+        <v>5299806.601755151</v>
       </c>
       <c r="E337">
         <v>6715119.948786801</v>
@@ -6100,13 +6100,13 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>2904313.125120751</v>
+        <v>2904313.125120752</v>
       </c>
       <c r="C338">
-        <v>4480330.429348207</v>
+        <v>4480330.429348206</v>
       </c>
       <c r="D338">
-        <v>7266861.55264931</v>
+        <v>7266861.552649308</v>
       </c>
       <c r="E338">
         <v>10578855.7221002</v>
@@ -6117,13 +6117,13 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>2600466.489977658</v>
+        <v>2600466.489977657</v>
       </c>
       <c r="C339">
-        <v>3631064.480919622</v>
+        <v>3631064.480919621</v>
       </c>
       <c r="D339">
-        <v>5284172.953962359</v>
+        <v>5284172.953962362</v>
       </c>
       <c r="E339">
         <v>6734697.557966937</v>
@@ -6134,7 +6134,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>1406044.782916057</v>
+        <v>1406044.782916058</v>
       </c>
       <c r="C340">
         <v>1658700.260331925</v>
@@ -6157,7 +6157,7 @@
         <v>1466533.766756885</v>
       </c>
       <c r="D341">
-        <v>2300567.312086845</v>
+        <v>2300567.312086844</v>
       </c>
       <c r="E341">
         <v>3197645.845188643</v>
@@ -6168,16 +6168,16 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>337672.1914464193</v>
+        <v>337672.1914464192</v>
       </c>
       <c r="C342">
         <v>398401.1259319867</v>
       </c>
       <c r="D342">
-        <v>490451.3488885369</v>
+        <v>490451.348888537</v>
       </c>
       <c r="E342">
-        <v>484184.6095130483</v>
+        <v>484184.6095130485</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6185,16 +6185,16 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>328545.9160019215</v>
+        <v>328545.9160019214</v>
       </c>
       <c r="C343">
         <v>385951.0907466121</v>
       </c>
       <c r="D343">
-        <v>490451.3488885369</v>
+        <v>490451.348888537</v>
       </c>
       <c r="E343">
-        <v>528201.3921960526</v>
+        <v>528201.3921960529</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6205,13 +6205,13 @@
         <v>1525075.029088845</v>
       </c>
       <c r="C344">
-        <v>1729498.442175361</v>
+        <v>1729498.44217536</v>
       </c>
       <c r="D344">
         <v>2040125.729586447</v>
       </c>
       <c r="E344">
-        <v>2009948.816975719</v>
+        <v>2009948.816975718</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6225,10 +6225,10 @@
         <v>415333.1829116786</v>
       </c>
       <c r="D345">
-        <v>520121.0044920508</v>
+        <v>520121.0044920506</v>
       </c>
       <c r="E345">
-        <v>552421.6686981376</v>
+        <v>552421.6686981377</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6242,10 +6242,10 @@
         <v>409134.1801816535</v>
       </c>
       <c r="D346">
-        <v>511153.4009663258</v>
+        <v>511153.4009663255</v>
       </c>
       <c r="E346">
-        <v>540912.8839335931</v>
+        <v>540912.8839335932</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6259,10 +6259,10 @@
         <v>409134.1801816535</v>
       </c>
       <c r="D347">
-        <v>511153.4009663258</v>
+        <v>511153.4009663255</v>
       </c>
       <c r="E347">
-        <v>540912.8839335931</v>
+        <v>540912.8839335932</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6273,7 +6273,7 @@
         <v>302891.8952785847</v>
       </c>
       <c r="C348">
-        <v>386881.1363717973</v>
+        <v>386881.1363717974</v>
       </c>
       <c r="D348">
         <v>525014.947231397</v>
@@ -6290,7 +6290,7 @@
         <v>355897.976952337</v>
       </c>
       <c r="C349">
-        <v>417424.3839800971</v>
+        <v>417424.3839800972</v>
       </c>
       <c r="D349">
         <v>496635.7608945647</v>
@@ -6307,7 +6307,7 @@
         <v>355897.976952337</v>
       </c>
       <c r="C350">
-        <v>417424.3839800971</v>
+        <v>417424.3839800972</v>
       </c>
       <c r="D350">
         <v>496635.7608945647</v>
@@ -6324,13 +6324,13 @@
         <v>324619.0985926978</v>
       </c>
       <c r="C351">
-        <v>389447.275254781</v>
+        <v>389447.2752547809</v>
       </c>
       <c r="D351">
         <v>522885.5941491696</v>
       </c>
       <c r="E351">
-        <v>617686.6821721125</v>
+        <v>617686.6821721127</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6341,13 +6341,13 @@
         <v>388383.5643876921</v>
       </c>
       <c r="C352">
-        <v>415660.0726276989</v>
+        <v>415660.0726276988</v>
       </c>
       <c r="D352">
         <v>495651.9694539004</v>
       </c>
       <c r="E352">
-        <v>482789.5906632604</v>
+        <v>482789.5906632605</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6361,7 +6361,7 @@
         <v>2701292.909290486</v>
       </c>
       <c r="D353">
-        <v>2942925.336979747</v>
+        <v>2942925.336979746</v>
       </c>
       <c r="E353">
         <v>2784190.535795373</v>
@@ -6372,7 +6372,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>2763714.239503654</v>
+        <v>2763714.239503653</v>
       </c>
       <c r="C354">
         <v>2952185.422475595</v>
@@ -6381,7 +6381,7 @@
         <v>2720031.021977478</v>
       </c>
       <c r="E354">
-        <v>2039458.965347049</v>
+        <v>2039458.965347048</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6389,7 +6389,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>2793634.595630351</v>
+        <v>2793634.595630352</v>
       </c>
       <c r="C355">
         <v>2961032.612106879</v>
@@ -6398,7 +6398,7 @@
         <v>2702397.785399671</v>
       </c>
       <c r="E355">
-        <v>2033550.930556424</v>
+        <v>2033550.930556425</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6415,7 +6415,7 @@
         <v>732057.0045319708</v>
       </c>
       <c r="E356">
-        <v>620557.0176451829</v>
+        <v>620557.0176451828</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6449,7 +6449,7 @@
         <v>694833.767013396</v>
       </c>
       <c r="E358">
-        <v>515179.4108752462</v>
+        <v>515179.410875246</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6466,7 +6466,7 @@
         <v>313257.2793715807</v>
       </c>
       <c r="E359">
-        <v>312603.6482865661</v>
+        <v>312603.648286566</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6483,7 +6483,7 @@
         <v>287685.2565657374</v>
       </c>
       <c r="E360">
-        <v>217463.4075036982</v>
+        <v>217463.4075036981</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6500,7 +6500,7 @@
         <v>11652718.3098502</v>
       </c>
       <c r="E361">
-        <v>15418204.15712994</v>
+        <v>15418204.15712993</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6514,7 +6514,7 @@
         <v>3186940.311441828</v>
       </c>
       <c r="D362">
-        <v>3980367.374174185</v>
+        <v>3980367.374174186</v>
       </c>
       <c r="E362">
         <v>4648196.411836213</v>
@@ -6525,16 +6525,16 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>183239.927389476</v>
+        <v>183239.9273894759</v>
       </c>
       <c r="C363">
-        <v>231747.5869251259</v>
+        <v>231747.586925126</v>
       </c>
       <c r="D363">
-        <v>356703.1533131375</v>
+        <v>356703.1533131374</v>
       </c>
       <c r="E363">
-        <v>512479.9213684712</v>
+        <v>512479.921368471</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6548,7 +6548,7 @@
         <v>2291878.894185658</v>
       </c>
       <c r="D364">
-        <v>2821052.982395932</v>
+        <v>2821052.982395931</v>
       </c>
       <c r="E364">
         <v>3563756.705005514</v>
@@ -6559,13 +6559,13 @@
         <v>364</v>
       </c>
       <c r="B365">
-        <v>1948625.570037833</v>
+        <v>1948625.570037832</v>
       </c>
       <c r="C365">
         <v>2213524.060196405</v>
       </c>
       <c r="D365">
-        <v>2845583.877895027</v>
+        <v>2845583.877895026</v>
       </c>
       <c r="E365">
         <v>3786491.499068359</v>
@@ -6585,7 +6585,7 @@
         <v>597706.057355348</v>
       </c>
       <c r="E366">
-        <v>671702.9640509724</v>
+        <v>671702.9640509725</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6602,7 +6602,7 @@
         <v>581103.1113176994</v>
       </c>
       <c r="E367">
-        <v>604532.6676458751</v>
+        <v>604532.6676458752</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6613,10 +6613,10 @@
         <v>593277.9886554427</v>
       </c>
       <c r="C368">
-        <v>621175.6633542228</v>
+        <v>621175.6633542232</v>
       </c>
       <c r="D368">
-        <v>747951.4850075409</v>
+        <v>747951.4850075413</v>
       </c>
       <c r="E368">
         <v>861453.5390707473</v>
@@ -6636,7 +6636,7 @@
         <v>564500.1652800508</v>
       </c>
       <c r="E369">
-        <v>514972.2724390788</v>
+        <v>514972.2724390789</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6664,7 +6664,7 @@
         <v>104810.6950286427</v>
       </c>
       <c r="C371">
-        <v>108139.5659576528</v>
+        <v>108139.5659576529</v>
       </c>
       <c r="D371">
         <v>139097.5079368952</v>
@@ -6684,7 +6684,7 @@
         <v>104862.6094134816</v>
       </c>
       <c r="D372">
-        <v>144249.2674901136</v>
+        <v>144249.2674901135</v>
       </c>
       <c r="E372">
         <v>169911.7674919406</v>
@@ -6704,7 +6704,7 @@
         <v>5307088.065955917</v>
       </c>
       <c r="E373">
-        <v>6824066.714143364</v>
+        <v>6824066.714143365</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6718,10 +6718,10 @@
         <v>2488984.85814911</v>
       </c>
       <c r="D374">
-        <v>3663059.914524458</v>
+        <v>3663059.914524457</v>
       </c>
       <c r="E374">
-        <v>4900449.35656008</v>
+        <v>4900449.356560079</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6738,7 +6738,7 @@
         <v>4845602.147177142</v>
       </c>
       <c r="E375">
-        <v>4685649.494964798</v>
+        <v>4685649.494964799</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6746,10 +6746,10 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>2231956.098418681</v>
+        <v>2231956.098418682</v>
       </c>
       <c r="C376">
-        <v>2586732.568233579</v>
+        <v>2586732.56823358</v>
       </c>
       <c r="D376">
         <v>3018426.272618574</v>
@@ -6763,10 +6763,10 @@
         <v>376</v>
       </c>
       <c r="B377">
-        <v>2231956.098418681</v>
+        <v>2231956.098418682</v>
       </c>
       <c r="C377">
-        <v>2586732.568233579</v>
+        <v>2586732.56823358</v>
       </c>
       <c r="D377">
         <v>3018426.272618574</v>
@@ -6783,13 +6783,13 @@
         <v>2038622.224376914</v>
       </c>
       <c r="C378">
-        <v>2419013.886480255</v>
+        <v>2419013.886480256</v>
       </c>
       <c r="D378">
-        <v>2800865.833217099</v>
+        <v>2800865.833217097</v>
       </c>
       <c r="E378">
-        <v>3125467.084439219</v>
+        <v>3125467.08443922</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6800,13 +6800,13 @@
         <v>1974915.279865135</v>
       </c>
       <c r="C379">
-        <v>2493065.331984753</v>
+        <v>2493065.331984754</v>
       </c>
       <c r="D379">
-        <v>2828874.49154927</v>
+        <v>2828874.491549269</v>
       </c>
       <c r="E379">
-        <v>3094521.865781405</v>
+        <v>3094521.865781406</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6817,13 +6817,13 @@
         <v>2739398.614006478</v>
       </c>
       <c r="C380">
-        <v>2616484.407825582</v>
+        <v>2616484.407825583</v>
       </c>
       <c r="D380">
-        <v>2548787.90822756</v>
+        <v>2548787.908227559</v>
       </c>
       <c r="E380">
-        <v>2320891.399336054</v>
+        <v>2320891.399336055</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6834,13 +6834,13 @@
         <v>2038622.224376914</v>
       </c>
       <c r="C381">
-        <v>2419013.886480255</v>
+        <v>2419013.886480256</v>
       </c>
       <c r="D381">
-        <v>2800865.833217099</v>
+        <v>2800865.833217097</v>
       </c>
       <c r="E381">
-        <v>3125467.084439219</v>
+        <v>3125467.08443922</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6857,7 +6857,7 @@
         <v>1304928.282583629</v>
       </c>
       <c r="E382">
-        <v>1206280.982294546</v>
+        <v>1206280.982294547</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6865,13 +6865,13 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>2512577.529320226</v>
+        <v>2512577.529320225</v>
       </c>
       <c r="C383">
-        <v>3536745.100842435</v>
+        <v>3536745.100842436</v>
       </c>
       <c r="D383">
-        <v>4796131.38143629</v>
+        <v>4796131.381436289</v>
       </c>
       <c r="E383">
         <v>6039354.658159154</v>
@@ -6882,10 +6882,10 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>4454253.35000777</v>
+        <v>4454253.350007769</v>
       </c>
       <c r="C384">
-        <v>4910249.251240768</v>
+        <v>4910249.251240769</v>
       </c>
       <c r="D384">
         <v>5564425.818536396</v>
@@ -6899,16 +6899,16 @@
         <v>384</v>
       </c>
       <c r="B385">
-        <v>843656.4524050229</v>
+        <v>843656.4524050232</v>
       </c>
       <c r="C385">
         <v>1031283.962205139</v>
       </c>
       <c r="D385">
-        <v>1267435.055834542</v>
+        <v>1267435.055834541</v>
       </c>
       <c r="E385">
-        <v>1537009.530049847</v>
+        <v>1537009.530049846</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6925,7 +6925,7 @@
         <v>828508.6751905149</v>
       </c>
       <c r="E386">
-        <v>875536.6834242913</v>
+        <v>875536.6834242917</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6942,7 +6942,7 @@
         <v>806415.1105187677</v>
       </c>
       <c r="E387">
-        <v>761336.2464559055</v>
+        <v>761336.2464559057</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6967,13 +6967,13 @@
         <v>388</v>
       </c>
       <c r="B389">
-        <v>62921.49785307139</v>
+        <v>62921.49785307138</v>
       </c>
       <c r="C389">
         <v>66484.856699881</v>
       </c>
       <c r="D389">
-        <v>88421.20150232082</v>
+        <v>88421.20150232084</v>
       </c>
       <c r="E389">
         <v>100905.2587266789</v>
@@ -6984,13 +6984,13 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>62921.49785307139</v>
+        <v>62921.49785307138</v>
       </c>
       <c r="C390">
         <v>68562.50847175228</v>
       </c>
       <c r="D390">
-        <v>88421.20150232082</v>
+        <v>88421.20150232084</v>
       </c>
       <c r="E390">
         <v>96318.65605728437</v>
@@ -7018,7 +7018,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>71200.64230742288</v>
+        <v>71200.64230742287</v>
       </c>
       <c r="C392">
         <v>70640.16024362356</v>
@@ -7044,7 +7044,7 @@
         <v>192675.8242154553</v>
       </c>
       <c r="E393">
-        <v>189896.0385221322</v>
+        <v>189896.0385221321</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7061,7 +7061,7 @@
         <v>195279.5515697182</v>
       </c>
       <c r="E394">
-        <v>199235.1879576469</v>
+        <v>199235.1879576468</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7069,10 +7069,10 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>80979.20780156125</v>
+        <v>80979.20780156124</v>
       </c>
       <c r="C395">
-        <v>98222.10392569723</v>
+        <v>98222.10392569724</v>
       </c>
       <c r="D395">
         <v>126495.1146680113</v>
@@ -7109,10 +7109,10 @@
         <v>15287.33607609444</v>
       </c>
       <c r="D397">
-        <v>22092.19086315955</v>
+        <v>22092.19086315954</v>
       </c>
       <c r="E397">
-        <v>31085.50730676428</v>
+        <v>31085.50730676427</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -7126,10 +7126,10 @@
         <v>15287.33607609444</v>
       </c>
       <c r="D398">
-        <v>22092.19086315955</v>
+        <v>22092.19086315954</v>
       </c>
       <c r="E398">
-        <v>31085.50730676428</v>
+        <v>31085.50730676427</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -7140,10 +7140,10 @@
         <v>711317.245018239</v>
       </c>
       <c r="C399">
-        <v>830497.7936331937</v>
+        <v>830497.7936331939</v>
       </c>
       <c r="D399">
-        <v>1130458.880641412</v>
+        <v>1130458.880641413</v>
       </c>
       <c r="E399">
         <v>1594070.823206938</v>
@@ -7154,16 +7154,16 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>714498.3273163221</v>
+        <v>714498.327316322</v>
       </c>
       <c r="C400">
-        <v>693777.8420461388</v>
+        <v>693777.8420461386</v>
       </c>
       <c r="D400">
         <v>806529.6288324172</v>
       </c>
       <c r="E400">
-        <v>930067.5452449713</v>
+        <v>930067.5452449711</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -7174,10 +7174,10 @@
         <v>799885.9292228447</v>
       </c>
       <c r="C401">
-        <v>863066.3345599857</v>
+        <v>863066.3345599859</v>
       </c>
       <c r="D401">
-        <v>1093695.990214049</v>
+        <v>1093695.99021405</v>
       </c>
       <c r="E401">
         <v>1410139.574375368</v>
@@ -7194,7 +7194,7 @@
         <v>48237.11626543546</v>
       </c>
       <c r="D402">
-        <v>56451.19392296065</v>
+        <v>56451.19392296066</v>
       </c>
       <c r="E402">
         <v>70579.48348324453</v>
@@ -7205,16 +7205,16 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>679644.7503740625</v>
+        <v>679644.7503740623</v>
       </c>
       <c r="C403">
-        <v>685105.619020562</v>
+        <v>685105.6190205618</v>
       </c>
       <c r="D403">
         <v>822500.512571673</v>
       </c>
       <c r="E403">
-        <v>994009.6889805631</v>
+        <v>994009.6889805628</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -7228,7 +7228,7 @@
         <v>146235.2630085201</v>
       </c>
       <c r="D404">
-        <v>174584.2875017247</v>
+        <v>174584.2875017248</v>
       </c>
       <c r="E404">
         <v>221229.7224977261</v>
@@ -7242,10 +7242,10 @@
         <v>155067.9300124524</v>
       </c>
       <c r="C405">
-        <v>151029.8617956847</v>
+        <v>151029.8617956846</v>
       </c>
       <c r="D405">
-        <v>168349.1343766631</v>
+        <v>168349.1343766632</v>
       </c>
       <c r="E405">
         <v>198655.2610183663</v>
@@ -7262,7 +7262,7 @@
         <v>146235.2630085201</v>
       </c>
       <c r="D406">
-        <v>174584.2875017247</v>
+        <v>174584.2875017248</v>
       </c>
       <c r="E406">
         <v>221229.7224977261</v>
@@ -7279,10 +7279,10 @@
         <v>132553.7043254656</v>
       </c>
       <c r="D407">
-        <v>169679.96629832</v>
+        <v>169679.9662983201</v>
       </c>
       <c r="E407">
-        <v>242865.8986534156</v>
+        <v>242865.8986534157</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -7296,7 +7296,7 @@
         <v>145381.4821634139</v>
       </c>
       <c r="D408">
-        <v>158732.8716984284</v>
+        <v>158732.8716984285</v>
       </c>
       <c r="E408">
         <v>185040.6846883167</v>
@@ -7313,7 +7313,7 @@
         <v>134691.667298457</v>
       </c>
       <c r="D409">
-        <v>166943.1926483471</v>
+        <v>166943.1926483472</v>
       </c>
       <c r="E409">
         <v>231300.8558603959</v>
@@ -7324,16 +7324,16 @@
         <v>409</v>
       </c>
       <c r="B410">
-        <v>896649.8631060453</v>
+        <v>896649.8631060456</v>
       </c>
       <c r="C410">
-        <v>1247727.622902788</v>
+        <v>1247727.622902787</v>
       </c>
       <c r="D410">
         <v>2014239.2240222</v>
       </c>
       <c r="E410">
-        <v>2926864.307624807</v>
+        <v>2926864.307624809</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -7358,16 +7358,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>263126.4487722501</v>
+        <v>263126.44877225</v>
       </c>
       <c r="C412">
-        <v>321853.6042683409</v>
+        <v>321853.604268341</v>
       </c>
       <c r="D412">
         <v>496596.3844327606</v>
       </c>
       <c r="E412">
-        <v>679474.6648861177</v>
+        <v>679474.6648861176</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -7392,16 +7392,16 @@
         <v>413</v>
       </c>
       <c r="B414">
-        <v>896649.8631060453</v>
+        <v>896649.8631060456</v>
       </c>
       <c r="C414">
-        <v>1247727.622902788</v>
+        <v>1247727.622902787</v>
       </c>
       <c r="D414">
         <v>2014239.2240222</v>
       </c>
       <c r="E414">
-        <v>2926864.307624807</v>
+        <v>2926864.307624809</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -7412,13 +7412,13 @@
         <v>395482.2338416664</v>
       </c>
       <c r="C415">
-        <v>485408.6335588735</v>
+        <v>485408.6335588734</v>
       </c>
       <c r="D415">
         <v>697388.5771455939</v>
       </c>
       <c r="E415">
-        <v>946074.123143708</v>
+        <v>946074.1231437078</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -7429,13 +7429,13 @@
         <v>446843.5629120127</v>
       </c>
       <c r="C416">
-        <v>519592.3401475265</v>
+        <v>519592.3401475264</v>
       </c>
       <c r="D416">
         <v>675595.1841097941</v>
       </c>
       <c r="E416">
-        <v>780096.2068027066</v>
+        <v>780096.2068027065</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -7443,7 +7443,7 @@
         <v>416</v>
       </c>
       <c r="B417">
-        <v>58884.16976604329</v>
+        <v>58884.16976604328</v>
       </c>
       <c r="C417">
         <v>58168.97224729821</v>
@@ -7460,7 +7460,7 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>70661.00371925195</v>
+        <v>70661.00371925194</v>
       </c>
       <c r="C418">
         <v>63457.06063341623</v>
@@ -7469,7 +7469,7 @@
         <v>67127.46961345589</v>
       </c>
       <c r="E418">
-        <v>74634.30865529928</v>
+        <v>74634.30865529929</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -7480,13 +7480,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C419">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D419">
         <v>391702.1427686399</v>
       </c>
       <c r="E419">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -7497,13 +7497,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C420">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D420">
         <v>391702.1427686399</v>
       </c>
       <c r="E420">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -7514,13 +7514,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C421">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D421">
         <v>391702.1427686399</v>
       </c>
       <c r="E421">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -7531,13 +7531,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C422">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D422">
         <v>391702.1427686399</v>
       </c>
       <c r="E422">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -7548,13 +7548,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C423">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D423">
         <v>391702.1427686399</v>
       </c>
       <c r="E423">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -7565,13 +7565,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C424">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D424">
         <v>391702.1427686399</v>
       </c>
       <c r="E424">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -7582,13 +7582,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C425">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D425">
         <v>391702.1427686399</v>
       </c>
       <c r="E425">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -7599,13 +7599,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C426">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D426">
         <v>391702.1427686399</v>
       </c>
       <c r="E426">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -7616,13 +7616,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C427">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D427">
         <v>391702.1427686399</v>
       </c>
       <c r="E427">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -7633,13 +7633,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C428">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D428">
         <v>391702.1427686399</v>
       </c>
       <c r="E428">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -7650,13 +7650,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C429">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D429">
         <v>391702.1427686399</v>
       </c>
       <c r="E429">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -7667,13 +7667,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C430">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D430">
         <v>391702.1427686399</v>
       </c>
       <c r="E430">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -7684,13 +7684,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C431">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D431">
         <v>391702.1427686399</v>
       </c>
       <c r="E431">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -7701,13 +7701,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C432">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D432">
         <v>391702.1427686399</v>
       </c>
       <c r="E432">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -7718,13 +7718,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C433">
-        <v>271958.8112206946</v>
+        <v>271958.8112206945</v>
       </c>
       <c r="D433">
         <v>391702.1427686399</v>
       </c>
       <c r="E433">
-        <v>583558.5108220458</v>
+        <v>583558.5108220456</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -7732,10 +7732,10 @@
         <v>433</v>
       </c>
       <c r="B434">
-        <v>226430.8558788486</v>
+        <v>226430.8558788487</v>
       </c>
       <c r="C434">
-        <v>286539.0928312306</v>
+        <v>286539.0928312305</v>
       </c>
       <c r="D434">
         <v>427722.5528118364</v>
@@ -7752,13 +7752,13 @@
         <v>267332.5038617792</v>
       </c>
       <c r="C435">
-        <v>284909.2308026325</v>
+        <v>284909.2308026323</v>
       </c>
       <c r="D435">
         <v>372117.0356302079</v>
       </c>
       <c r="E435">
-        <v>423079.9203459832</v>
+        <v>423079.9203459831</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -7775,7 +7775,7 @@
         <v>19963.31282289771</v>
       </c>
       <c r="E436">
-        <v>23561.27182641197</v>
+        <v>23561.27182641198</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -7789,7 +7789,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D437">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E437">
         <v>104264.1746450231</v>
@@ -7806,7 +7806,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D438">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E438">
         <v>104264.1746450231</v>
@@ -7823,7 +7823,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D439">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E439">
         <v>104264.1746450231</v>
@@ -7840,7 +7840,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D440">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E440">
         <v>104264.1746450231</v>
@@ -7857,7 +7857,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D441">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E441">
         <v>104264.1746450231</v>
@@ -7874,7 +7874,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D442">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E442">
         <v>104264.1746450231</v>
@@ -7891,7 +7891,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D443">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E443">
         <v>104264.1746450231</v>
@@ -7908,7 +7908,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D444">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E444">
         <v>104264.1746450231</v>
@@ -7925,7 +7925,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D445">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E445">
         <v>104264.1746450231</v>
@@ -7942,7 +7942,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D446">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E446">
         <v>104264.1746450231</v>
@@ -7959,7 +7959,7 @@
         <v>54348.06519428073</v>
       </c>
       <c r="D447">
-        <v>75880.74443837386</v>
+        <v>75880.74443837388</v>
       </c>
       <c r="E447">
         <v>104264.1746450231</v>
@@ -7976,10 +7976,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D448">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E448">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -7993,10 +7993,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D449">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E449">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -8010,10 +8010,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D450">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E450">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -8027,10 +8027,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D451">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E451">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -8044,10 +8044,10 @@
         <v>130659.4310206553</v>
       </c>
       <c r="D452">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E452">
-        <v>292196.1363041694</v>
+        <v>292196.1363041693</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -8064,7 +8064,7 @@
         <v>217124.2662014544</v>
       </c>
       <c r="E453">
-        <v>412512.1924294156</v>
+        <v>412512.1924294155</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -8072,7 +8072,7 @@
         <v>453</v>
       </c>
       <c r="B454">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C454">
         <v>361900.1834291648</v>
@@ -8081,7 +8081,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E454">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -8089,7 +8089,7 @@
         <v>454</v>
       </c>
       <c r="B455">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C455">
         <v>361900.1834291648</v>
@@ -8098,7 +8098,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E455">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -8106,7 +8106,7 @@
         <v>455</v>
       </c>
       <c r="B456">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C456">
         <v>361900.1834291648</v>
@@ -8115,7 +8115,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E456">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -8123,7 +8123,7 @@
         <v>456</v>
       </c>
       <c r="B457">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C457">
         <v>361900.1834291648</v>
@@ -8132,7 +8132,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E457">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -8140,7 +8140,7 @@
         <v>457</v>
       </c>
       <c r="B458">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C458">
         <v>361900.1834291648</v>
@@ -8149,7 +8149,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E458">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -8157,7 +8157,7 @@
         <v>458</v>
       </c>
       <c r="B459">
-        <v>347457.7572424327</v>
+        <v>347457.7572424326</v>
       </c>
       <c r="C459">
         <v>390471.2505419936</v>
@@ -8166,7 +8166,7 @@
         <v>488276.6771442645</v>
       </c>
       <c r="E459">
-        <v>561367.2565996269</v>
+        <v>561367.2565996265</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -8174,7 +8174,7 @@
         <v>459</v>
       </c>
       <c r="B460">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C460">
         <v>361900.1834291648</v>
@@ -8183,7 +8183,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E460">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -8191,7 +8191,7 @@
         <v>460</v>
       </c>
       <c r="B461">
-        <v>302137.1802108111</v>
+        <v>302137.180210811</v>
       </c>
       <c r="C461">
         <v>361900.1834291648</v>
@@ -8200,7 +8200,7 @@
         <v>516178.2015525082</v>
       </c>
       <c r="E461">
-        <v>681660.2401566898</v>
+        <v>681660.2401566894</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -8208,7 +8208,7 @@
         <v>461</v>
       </c>
       <c r="B462">
-        <v>347457.7572424327</v>
+        <v>347457.7572424326</v>
       </c>
       <c r="C462">
         <v>390471.2505419936</v>
@@ -8217,7 +8217,7 @@
         <v>488276.6771442645</v>
       </c>
       <c r="E462">
-        <v>561367.2565996269</v>
+        <v>561367.2565996265</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -8228,13 +8228,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C463">
-        <v>265483.6014297257</v>
+        <v>265483.6014297256</v>
       </c>
       <c r="D463">
         <v>391702.1427686399</v>
       </c>
       <c r="E463">
-        <v>598147.4735925969</v>
+        <v>598147.4735925968</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -8245,13 +8245,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C464">
-        <v>265483.6014297257</v>
+        <v>265483.6014297256</v>
       </c>
       <c r="D464">
         <v>391702.1427686399</v>
       </c>
       <c r="E464">
-        <v>598147.4735925969</v>
+        <v>598147.4735925968</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -8265,7 +8265,7 @@
         <v>308580.561510556</v>
       </c>
       <c r="D465">
-        <v>394306.7283734117</v>
+        <v>394306.7283734116</v>
       </c>
       <c r="E465">
         <v>473075.4730610903</v>
@@ -8276,13 +8276,13 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>226430.8558788486</v>
+        <v>226430.8558788487</v>
       </c>
       <c r="C466">
         <v>277722.5053595004</v>
       </c>
       <c r="D466">
-        <v>421039.3879241515</v>
+        <v>421039.3879241514</v>
       </c>
       <c r="E466">
         <v>644187.8782108465</v>
@@ -8296,13 +8296,13 @@
         <v>206804.3897798669</v>
       </c>
       <c r="C467">
-        <v>265483.6014297257</v>
+        <v>265483.6014297256</v>
       </c>
       <c r="D467">
         <v>391702.1427686399</v>
       </c>
       <c r="E467">
-        <v>598147.4735925969</v>
+        <v>598147.4735925968</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -8319,7 +8319,7 @@
         <v>217124.2662014544</v>
       </c>
       <c r="E468">
-        <v>412512.1924294156</v>
+        <v>412512.1924294155</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -8333,10 +8333,10 @@
         <v>137918.2882995806</v>
       </c>
       <c r="D469">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E469">
-        <v>257820.1202683848</v>
+        <v>257820.1202683847</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -8350,10 +8350,10 @@
         <v>137918.2882995806</v>
       </c>
       <c r="D470">
-        <v>194269.0802855119</v>
+        <v>194269.0802855118</v>
       </c>
       <c r="E470">
-        <v>257820.1202683848</v>
+        <v>257820.1202683847</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -8364,13 +8364,13 @@
         <v>267332.5038617792</v>
       </c>
       <c r="C471">
-        <v>291384.4405936014</v>
+        <v>291384.4405936013</v>
       </c>
       <c r="D471">
         <v>372117.0356302079</v>
       </c>
       <c r="E471">
-        <v>423079.9203459832</v>
+        <v>423079.9203459831</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -8378,7 +8378,7 @@
         <v>471</v>
       </c>
       <c r="B472">
-        <v>362564.6162529733</v>
+        <v>362564.6162529732</v>
       </c>
       <c r="C472">
         <v>409518.6286172128</v>
@@ -8387,7 +8387,7 @@
         <v>488276.6771442645</v>
       </c>
       <c r="E472">
-        <v>481171.9342282516</v>
+        <v>481171.9342282513</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -8401,7 +8401,7 @@
         <v>312988.8552464211</v>
       </c>
       <c r="D473">
-        <v>394306.7283734117</v>
+        <v>394306.7283734116</v>
       </c>
       <c r="E473">
         <v>463010.0374640459</v>
@@ -8418,7 +8418,7 @@
         <v>312988.8552464211</v>
       </c>
       <c r="D474">
-        <v>394306.7283734117</v>
+        <v>394306.7283734116</v>
       </c>
       <c r="E474">
         <v>463010.0374640459</v>
@@ -8438,7 +8438,7 @@
         <v>19963.31282289771</v>
       </c>
       <c r="E475">
-        <v>21317.3411762775</v>
+        <v>21317.34117627751</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -8449,7 +8449,7 @@
         <v>125832.9879900839</v>
       </c>
       <c r="C476">
-        <v>135106.9088873783</v>
+        <v>135106.9088873784</v>
       </c>
       <c r="D476">
         <v>168087.2367835967</v>
@@ -8489,7 +8489,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E478">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -8503,10 +8503,10 @@
         <v>3225595.70678239</v>
       </c>
       <c r="D479">
-        <v>4040721.002579735</v>
+        <v>4040721.002579736</v>
       </c>
       <c r="E479">
-        <v>4916920.582800672</v>
+        <v>4916920.582800671</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -8523,7 +8523,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E480">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -8540,7 +8540,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E481">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -8557,7 +8557,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E482">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -8574,7 +8574,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E483">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -8591,7 +8591,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E484">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -8608,7 +8608,7 @@
         <v>1413488.776306423</v>
       </c>
       <c r="E485">
-        <v>2073336.293984025</v>
+        <v>2073336.293984026</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -8633,13 +8633,13 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>379349.9978760775</v>
+        <v>379349.9978760774</v>
       </c>
       <c r="C487">
         <v>406276.6078304878</v>
       </c>
       <c r="D487">
-        <v>453522.4338237859</v>
+        <v>453522.4338237857</v>
       </c>
       <c r="E487">
         <v>460584.6446356002</v>
@@ -8667,10 +8667,10 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>25184.00495538973</v>
+        <v>25184.00495538974</v>
       </c>
       <c r="C489">
-        <v>26161.61672640586</v>
+        <v>26161.61672640587</v>
       </c>
       <c r="D489">
         <v>35076.61779190301</v>
@@ -8690,10 +8690,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D490">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E490">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -8704,13 +8704,13 @@
         <v>1502162.722532985</v>
       </c>
       <c r="C491">
-        <v>1699706.189950124</v>
+        <v>1699706.189950125</v>
       </c>
       <c r="D491">
-        <v>2240107.219638345</v>
+        <v>2240107.219638346</v>
       </c>
       <c r="E491">
-        <v>2746316.933217493</v>
+        <v>2746316.933217491</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -8724,10 +8724,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D492">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E492">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -8741,10 +8741,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D493">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E493">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -8758,10 +8758,10 @@
         <v>1639917.53000213</v>
       </c>
       <c r="D494">
-        <v>2343695.992800812</v>
+        <v>2343695.992800813</v>
       </c>
       <c r="E494">
-        <v>3162999.502395319</v>
+        <v>3162999.502395318</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -8772,13 +8772,13 @@
         <v>77785.49440720341</v>
       </c>
       <c r="C495">
-        <v>83172.59368091341</v>
+        <v>83172.59368091343</v>
       </c>
       <c r="D495">
         <v>101334.1803786541</v>
       </c>
       <c r="E495">
-        <v>108932.6262258785</v>
+        <v>108932.6262258784</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -8792,10 +8792,10 @@
         <v>1415102.072170596</v>
       </c>
       <c r="D496">
-        <v>1927164.570389715</v>
+        <v>1927164.570389716</v>
       </c>
       <c r="E496">
-        <v>2444710.096690894</v>
+        <v>2444710.096690896</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -8806,13 +8806,13 @@
         <v>77785.49440720341</v>
       </c>
       <c r="C497">
-        <v>83172.59368091341</v>
+        <v>83172.59368091343</v>
       </c>
       <c r="D497">
         <v>101334.1803786541</v>
       </c>
       <c r="E497">
-        <v>108932.6262258785</v>
+        <v>108932.6262258784</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -8826,10 +8826,10 @@
         <v>152009.3995499049</v>
       </c>
       <c r="D498">
-        <v>234578.7279371669</v>
+        <v>234578.7279371668</v>
       </c>
       <c r="E498">
-        <v>344242.0967644038</v>
+        <v>344242.0967644039</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -8846,7 +8846,7 @@
         <v>223228.1443273039</v>
       </c>
       <c r="E499">
-        <v>270475.9331720315</v>
+        <v>270475.9331720316</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -8863,7 +8863,7 @@
         <v>223228.1443273039</v>
       </c>
       <c r="E500">
-        <v>264328.7528726672</v>
+        <v>264328.7528726673</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -8880,7 +8880,7 @@
         <v>118734.280377464</v>
       </c>
       <c r="E501">
-        <v>214078.7021313103</v>
+        <v>214078.7021313102</v>
       </c>
     </row>
   </sheetData>
